--- a/modified_GP_CRM.xlsx
+++ b/modified_GP_CRM.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gpfundsolutions-my.sharepoint.com/personal/ppark_gpes_com/Documents/Desktop/doc_generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_1FE523FE9F0B0C03992D4CA29D282CB978797C24" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60A1F8A7-C967-4E98-AB38-DBC7C79F8543}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_6939A1E4FDDBC82CE72D4CAFA5292B817979CCF6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C32AD123-AAA6-48AC-A31D-E56DBA2664CE}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Investor" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="965">
   <si>
     <t>Investor Code</t>
   </si>
@@ -128,6 +128,369 @@
   </si>
   <si>
     <t>JoSmGrFuVILP1</t>
+  </si>
+  <si>
+    <t>EmJoGrFuVILP3</t>
+  </si>
+  <si>
+    <t>EmJoGrFuVILP2</t>
+  </si>
+  <si>
+    <t>EmJoReEsIILP</t>
+  </si>
+  <si>
+    <t>EmJoDePaVILP2</t>
+  </si>
+  <si>
+    <t>EmJoReEsIVLP</t>
+  </si>
+  <si>
+    <t>EmJoCaPaI</t>
+  </si>
+  <si>
+    <t>EmJoDePaVLP</t>
+  </si>
+  <si>
+    <t>EmJoGrFuVLP</t>
+  </si>
+  <si>
+    <t>EmJoCaPaII</t>
+  </si>
+  <si>
+    <t>EmJoDePaVILP1</t>
+  </si>
+  <si>
+    <t>EmJoDePaIVLP</t>
+  </si>
+  <si>
+    <t>EmJoDePaIILP2</t>
+  </si>
+  <si>
+    <t>EmJoStEqFuIILP</t>
+  </si>
+  <si>
+    <t>EmJoMaFuI</t>
+  </si>
+  <si>
+    <t>EmJoStPaIILP</t>
+  </si>
+  <si>
+    <t>EmJoGrFuVILP1</t>
+  </si>
+  <si>
+    <t>EmJoStEqPaLP</t>
+  </si>
+  <si>
+    <t>EmJoDePaIILP1</t>
+  </si>
+  <si>
+    <t>MiWiGrFuVILP3</t>
+  </si>
+  <si>
+    <t>MiWiGrFuVILP2</t>
+  </si>
+  <si>
+    <t>MiWiReEsIILP</t>
+  </si>
+  <si>
+    <t>MiWiDePaVILP2</t>
+  </si>
+  <si>
+    <t>MiWiReEsIVLP</t>
+  </si>
+  <si>
+    <t>MiWiGrFuVLP</t>
+  </si>
+  <si>
+    <t>MiWiCaPaII</t>
+  </si>
+  <si>
+    <t>MiWiDePaVILP1</t>
+  </si>
+  <si>
+    <t>MiWiDePaIVLP</t>
+  </si>
+  <si>
+    <t>MiWiDePaIILP2</t>
+  </si>
+  <si>
+    <t>MiWiStEqFuIILP</t>
+  </si>
+  <si>
+    <t>MiWiMaFuI</t>
+  </si>
+  <si>
+    <t>MiWiStPaIILP</t>
+  </si>
+  <si>
+    <t>MiWiGrFuVILP1</t>
+  </si>
+  <si>
+    <t>MiWiStEqPaLP</t>
+  </si>
+  <si>
+    <t>MiWiDePaIILP1</t>
+  </si>
+  <si>
+    <t>SoBrGrFuVILP3</t>
+  </si>
+  <si>
+    <t>SoBrGrFuVILP2</t>
+  </si>
+  <si>
+    <t>SoBrReEsIILP</t>
+  </si>
+  <si>
+    <t>SoBrDePaVILP2</t>
+  </si>
+  <si>
+    <t>SoBrReEsIVLP</t>
+  </si>
+  <si>
+    <t>SoBrDePaVLP</t>
+  </si>
+  <si>
+    <t>SoBrGrFuVLP</t>
+  </si>
+  <si>
+    <t>SoBrCaPaII</t>
+  </si>
+  <si>
+    <t>SoBrDePaVILP1</t>
+  </si>
+  <si>
+    <t>SoBrDePaIVLP</t>
+  </si>
+  <si>
+    <t>SoBrDePaIILP2</t>
+  </si>
+  <si>
+    <t>SoBrStEqFuIILP</t>
+  </si>
+  <si>
+    <t>SoBrMaFuI</t>
+  </si>
+  <si>
+    <t>SoBrStPaIILP</t>
+  </si>
+  <si>
+    <t>SoBrGrFuVILP1</t>
+  </si>
+  <si>
+    <t>SoBrStEqPaLP</t>
+  </si>
+  <si>
+    <t>SoBrDePaIILP1</t>
+  </si>
+  <si>
+    <t>DaDaGrFuVILP3</t>
+  </si>
+  <si>
+    <t>DaDaGrFuVILP2</t>
+  </si>
+  <si>
+    <t>DaDaDePaVILP2</t>
+  </si>
+  <si>
+    <t>DaDaReEsIVLP</t>
+  </si>
+  <si>
+    <t>DaDaCaPaI</t>
+  </si>
+  <si>
+    <t>DaDaGrFuVLP</t>
+  </si>
+  <si>
+    <t>DaDaCaPaII</t>
+  </si>
+  <si>
+    <t>DaDaDePaVILP1</t>
+  </si>
+  <si>
+    <t>DaDaDePaIVLP</t>
+  </si>
+  <si>
+    <t>DaDaDePaIILP2</t>
+  </si>
+  <si>
+    <t>DaDaMaFuI</t>
+  </si>
+  <si>
+    <t>DaDaStPaIILP</t>
+  </si>
+  <si>
+    <t>DaDaGrFuVILP1</t>
+  </si>
+  <si>
+    <t>DaDaStEqPaLP</t>
+  </si>
+  <si>
+    <t>DaDaDePaIILP1</t>
+  </si>
+  <si>
+    <t>OlMiGrFuVILP3</t>
+  </si>
+  <si>
+    <t>OlMiGrFuVILP2</t>
+  </si>
+  <si>
+    <t>OlMiDePaVILP2</t>
+  </si>
+  <si>
+    <t>OlMiDePaVLP</t>
+  </si>
+  <si>
+    <t>OlMiCaPaI</t>
+  </si>
+  <si>
+    <t>OlMiGrFuVLP</t>
+  </si>
+  <si>
+    <t>OlMiCaPaII</t>
+  </si>
+  <si>
+    <t>OlMiDePaVILP1</t>
+  </si>
+  <si>
+    <t>OlMiDePaIVLP</t>
+  </si>
+  <si>
+    <t>OlMiMaFuI</t>
+  </si>
+  <si>
+    <t>OlMiStPaIILP</t>
+  </si>
+  <si>
+    <t>OlMiGrFuVILP1</t>
+  </si>
+  <si>
+    <t>OlMiStEqPaLP</t>
+  </si>
+  <si>
+    <t>JaWiGrFuVILP2</t>
+  </si>
+  <si>
+    <t>JaWiReEsIILP</t>
+  </si>
+  <si>
+    <t>JaWiDePaVILP2</t>
+  </si>
+  <si>
+    <t>JaWiReEsIVLP</t>
+  </si>
+  <si>
+    <t>JaWiDePaVLP</t>
+  </si>
+  <si>
+    <t>JaWiGrFuVLP</t>
+  </si>
+  <si>
+    <t>JaWiCaPaII</t>
+  </si>
+  <si>
+    <t>JaWiDePaVILP1</t>
+  </si>
+  <si>
+    <t>JaWiDePaIVLP</t>
+  </si>
+  <si>
+    <t>JaWiDePaIILP2</t>
+  </si>
+  <si>
+    <t>JaWiGrFuVILP1</t>
+  </si>
+  <si>
+    <t>JaWiDePaIILP1</t>
+  </si>
+  <si>
+    <t>IsMoGrFuVILP3</t>
+  </si>
+  <si>
+    <t>IsMoGrFuVILP2</t>
+  </si>
+  <si>
+    <t>IsMoDePaVILP2</t>
+  </si>
+  <si>
+    <t>IsMoReEsIVLP</t>
+  </si>
+  <si>
+    <t>IsMoGrFuVLP</t>
+  </si>
+  <si>
+    <t>IsMoCaPaII</t>
+  </si>
+  <si>
+    <t>IsMoDePaIVLP</t>
+  </si>
+  <si>
+    <t>IsMoStEqFuIILP</t>
+  </si>
+  <si>
+    <t>IsMoMaFuI</t>
+  </si>
+  <si>
+    <t>IsMoStPaIILP</t>
+  </si>
+  <si>
+    <t>IsMoGrFuVILP1</t>
+  </si>
+  <si>
+    <t>IsMoStEqPaLP</t>
+  </si>
+  <si>
+    <t>BeTaGrFuVILP3</t>
+  </si>
+  <si>
+    <t>BeTaGrFuVILP2</t>
+  </si>
+  <si>
+    <t>BeTaReEsIILP</t>
+  </si>
+  <si>
+    <t>BeTaDePaVILP2</t>
+  </si>
+  <si>
+    <t>BeTaReEsIVLP</t>
+  </si>
+  <si>
+    <t>BeTaGrFuVLP</t>
+  </si>
+  <si>
+    <t>BeTaCaPaII</t>
+  </si>
+  <si>
+    <t>BeTaDePaVILP1</t>
+  </si>
+  <si>
+    <t>BeTaDePaIVLP</t>
+  </si>
+  <si>
+    <t>BeTaMaFuI</t>
+  </si>
+  <si>
+    <t>BeTaStPaIILP</t>
+  </si>
+  <si>
+    <t>BeTaGrFuVILP1</t>
+  </si>
+  <si>
+    <t>BeTaStEqPaLP</t>
+  </si>
+  <si>
+    <t>BeTaDePaIILP1</t>
+  </si>
+  <si>
+    <t>AvAnGrFuVILP3</t>
+  </si>
+  <si>
+    <t>AvAnMaFuI</t>
+  </si>
+  <si>
+    <t>AvAnStEqPaLP</t>
+  </si>
+  <si>
+    <t>AvAnGrFuVILP2</t>
   </si>
   <si>
     <t>Debt Partners V LP</t>
@@ -2630,10 +2993,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2925,12 +3284,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -2991,46 +3349,46 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>157</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>176</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>186</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>196</v>
       </c>
       <c r="F2" t="s">
-        <v>85</v>
+        <v>206</v>
       </c>
       <c r="G2" t="s">
-        <v>95</v>
+        <v>216</v>
       </c>
       <c r="I2" t="s">
-        <v>235</v>
+        <v>356</v>
       </c>
       <c r="J2" t="s">
-        <v>374</v>
+        <v>495</v>
       </c>
       <c r="K2">
         <v>89505</v>
       </c>
       <c r="L2" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M2" t="s">
-        <v>423</v>
+        <v>544</v>
       </c>
       <c r="N2" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O2" t="s">
-        <v>564</v>
+        <v>685</v>
       </c>
       <c r="P2" t="s">
-        <v>704</v>
+        <v>825</v>
       </c>
       <c r="Q2">
         <v>1217635</v>
@@ -3041,46 +3399,46 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>158</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>176</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>186</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>196</v>
       </c>
       <c r="F3" t="s">
-        <v>85</v>
+        <v>206</v>
       </c>
       <c r="G3" t="s">
-        <v>96</v>
+        <v>217</v>
       </c>
       <c r="I3" t="s">
-        <v>236</v>
+        <v>357</v>
       </c>
       <c r="J3" t="s">
-        <v>375</v>
+        <v>496</v>
       </c>
       <c r="K3">
         <v>92558</v>
       </c>
       <c r="L3" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M3" t="s">
-        <v>424</v>
+        <v>545</v>
       </c>
       <c r="N3" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O3" t="s">
-        <v>565</v>
+        <v>686</v>
       </c>
       <c r="P3" t="s">
-        <v>705</v>
+        <v>826</v>
       </c>
       <c r="Q3">
         <v>6035657</v>
@@ -3091,46 +3449,46 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>159</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>176</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>186</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>196</v>
       </c>
       <c r="F4" t="s">
-        <v>85</v>
+        <v>206</v>
       </c>
       <c r="G4" t="s">
-        <v>97</v>
+        <v>218</v>
       </c>
       <c r="I4" t="s">
-        <v>237</v>
+        <v>358</v>
       </c>
       <c r="J4" t="s">
-        <v>374</v>
+        <v>495</v>
       </c>
       <c r="K4">
         <v>91358</v>
       </c>
       <c r="L4" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M4" t="s">
-        <v>425</v>
+        <v>546</v>
       </c>
       <c r="N4" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O4" t="s">
-        <v>566</v>
+        <v>687</v>
       </c>
       <c r="P4" t="s">
-        <v>706</v>
+        <v>827</v>
       </c>
       <c r="Q4">
         <v>5060313</v>
@@ -3141,46 +3499,46 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>160</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>176</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>186</v>
       </c>
       <c r="E5" t="s">
-        <v>75</v>
+        <v>196</v>
       </c>
       <c r="F5" t="s">
-        <v>85</v>
+        <v>206</v>
       </c>
       <c r="G5" t="s">
-        <v>98</v>
+        <v>219</v>
       </c>
       <c r="I5" t="s">
-        <v>238</v>
+        <v>359</v>
       </c>
       <c r="J5" t="s">
-        <v>376</v>
+        <v>497</v>
       </c>
       <c r="K5">
         <v>16376</v>
       </c>
       <c r="L5" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M5" t="s">
-        <v>426</v>
+        <v>547</v>
       </c>
       <c r="N5" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O5" t="s">
-        <v>567</v>
+        <v>688</v>
       </c>
       <c r="P5" t="s">
-        <v>707</v>
+        <v>828</v>
       </c>
       <c r="Q5">
         <v>4765412</v>
@@ -3191,46 +3549,46 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>161</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>176</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>186</v>
       </c>
       <c r="E6" t="s">
-        <v>75</v>
+        <v>196</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>206</v>
       </c>
       <c r="G6" t="s">
-        <v>99</v>
+        <v>220</v>
       </c>
       <c r="I6" t="s">
-        <v>239</v>
+        <v>360</v>
       </c>
       <c r="J6" t="s">
-        <v>377</v>
+        <v>498</v>
       </c>
       <c r="K6">
         <v>45229</v>
       </c>
       <c r="L6" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M6" t="s">
-        <v>427</v>
+        <v>548</v>
       </c>
       <c r="N6" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O6" t="s">
-        <v>568</v>
+        <v>689</v>
       </c>
       <c r="P6" t="s">
-        <v>708</v>
+        <v>829</v>
       </c>
       <c r="Q6">
         <v>7493499</v>
@@ -3241,46 +3599,46 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>162</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>176</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>186</v>
       </c>
       <c r="E7" t="s">
-        <v>75</v>
+        <v>196</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>206</v>
       </c>
       <c r="G7" t="s">
-        <v>100</v>
+        <v>221</v>
       </c>
       <c r="I7" t="s">
-        <v>240</v>
+        <v>361</v>
       </c>
       <c r="J7" t="s">
-        <v>378</v>
+        <v>499</v>
       </c>
       <c r="K7">
         <v>47479</v>
       </c>
       <c r="L7" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M7" t="s">
-        <v>428</v>
+        <v>549</v>
       </c>
       <c r="N7" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O7" t="s">
-        <v>569</v>
+        <v>690</v>
       </c>
       <c r="P7" t="s">
-        <v>709</v>
+        <v>830</v>
       </c>
       <c r="Q7">
         <v>9033516</v>
@@ -3291,46 +3649,46 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>163</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>176</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>186</v>
       </c>
       <c r="E8" t="s">
-        <v>75</v>
+        <v>196</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>206</v>
       </c>
       <c r="G8" t="s">
-        <v>101</v>
+        <v>222</v>
       </c>
       <c r="I8" t="s">
-        <v>241</v>
+        <v>362</v>
       </c>
       <c r="J8" t="s">
-        <v>378</v>
+        <v>499</v>
       </c>
       <c r="K8">
         <v>16744</v>
       </c>
       <c r="L8" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M8" t="s">
-        <v>429</v>
+        <v>550</v>
       </c>
       <c r="N8" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O8" t="s">
-        <v>570</v>
+        <v>691</v>
       </c>
       <c r="P8" t="s">
-        <v>710</v>
+        <v>831</v>
       </c>
       <c r="Q8">
         <v>3225166</v>
@@ -3341,46 +3699,46 @@
         <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>164</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>176</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>186</v>
       </c>
       <c r="E9" t="s">
-        <v>75</v>
+        <v>196</v>
       </c>
       <c r="F9" t="s">
-        <v>85</v>
+        <v>206</v>
       </c>
       <c r="G9" t="s">
-        <v>102</v>
+        <v>223</v>
       </c>
       <c r="I9" t="s">
-        <v>242</v>
+        <v>363</v>
       </c>
       <c r="J9" t="s">
-        <v>374</v>
+        <v>495</v>
       </c>
       <c r="K9">
         <v>38209</v>
       </c>
       <c r="L9" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M9" t="s">
-        <v>430</v>
+        <v>551</v>
       </c>
       <c r="N9" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O9" t="s">
-        <v>571</v>
+        <v>692</v>
       </c>
       <c r="P9" t="s">
-        <v>711</v>
+        <v>832</v>
       </c>
       <c r="Q9">
         <v>9500136</v>
@@ -3391,46 +3749,46 @@
         <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>165</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>176</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>186</v>
       </c>
       <c r="E10" t="s">
-        <v>75</v>
+        <v>196</v>
       </c>
       <c r="F10" t="s">
-        <v>85</v>
+        <v>206</v>
       </c>
       <c r="G10" t="s">
-        <v>103</v>
+        <v>224</v>
       </c>
       <c r="I10" t="s">
-        <v>243</v>
+        <v>364</v>
       </c>
       <c r="J10" t="s">
-        <v>379</v>
+        <v>500</v>
       </c>
       <c r="K10">
         <v>87201</v>
       </c>
       <c r="L10" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M10" t="s">
-        <v>431</v>
+        <v>552</v>
       </c>
       <c r="N10" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O10" t="s">
-        <v>572</v>
+        <v>693</v>
       </c>
       <c r="P10" t="s">
-        <v>712</v>
+        <v>833</v>
       </c>
       <c r="Q10">
         <v>2758032</v>
@@ -3441,46 +3799,46 @@
         <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>166</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>176</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>186</v>
       </c>
       <c r="E11" t="s">
-        <v>75</v>
+        <v>196</v>
       </c>
       <c r="F11" t="s">
-        <v>85</v>
+        <v>206</v>
       </c>
       <c r="G11" t="s">
-        <v>104</v>
+        <v>225</v>
       </c>
       <c r="I11" t="s">
-        <v>244</v>
+        <v>365</v>
       </c>
       <c r="J11" t="s">
-        <v>380</v>
+        <v>501</v>
       </c>
       <c r="K11">
         <v>52142</v>
       </c>
       <c r="L11" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M11" t="s">
-        <v>432</v>
+        <v>553</v>
       </c>
       <c r="N11" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O11" t="s">
-        <v>573</v>
+        <v>694</v>
       </c>
       <c r="P11" t="s">
-        <v>713</v>
+        <v>834</v>
       </c>
       <c r="Q11">
         <v>4170345</v>
@@ -3491,46 +3849,46 @@
         <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>167</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>176</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>186</v>
       </c>
       <c r="E12" t="s">
-        <v>75</v>
+        <v>196</v>
       </c>
       <c r="F12" t="s">
-        <v>85</v>
+        <v>206</v>
       </c>
       <c r="G12" t="s">
-        <v>105</v>
+        <v>226</v>
       </c>
       <c r="I12" t="s">
-        <v>245</v>
+        <v>366</v>
       </c>
       <c r="J12" t="s">
-        <v>381</v>
+        <v>502</v>
       </c>
       <c r="K12">
         <v>88240</v>
       </c>
       <c r="L12" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M12" t="s">
-        <v>433</v>
+        <v>554</v>
       </c>
       <c r="N12" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O12" t="s">
-        <v>574</v>
+        <v>695</v>
       </c>
       <c r="P12" t="s">
-        <v>714</v>
+        <v>835</v>
       </c>
       <c r="Q12">
         <v>4785905</v>
@@ -3541,46 +3899,46 @@
         <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>168</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>176</v>
       </c>
       <c r="D13" t="s">
-        <v>65</v>
+        <v>186</v>
       </c>
       <c r="E13" t="s">
-        <v>75</v>
+        <v>196</v>
       </c>
       <c r="F13" t="s">
-        <v>85</v>
+        <v>206</v>
       </c>
       <c r="G13" t="s">
-        <v>106</v>
+        <v>227</v>
       </c>
       <c r="I13" t="s">
-        <v>246</v>
+        <v>367</v>
       </c>
       <c r="J13" t="s">
-        <v>376</v>
+        <v>497</v>
       </c>
       <c r="K13">
         <v>81713</v>
       </c>
       <c r="L13" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M13" t="s">
-        <v>434</v>
+        <v>555</v>
       </c>
       <c r="N13" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O13" t="s">
-        <v>575</v>
+        <v>696</v>
       </c>
       <c r="P13" t="s">
-        <v>715</v>
+        <v>836</v>
       </c>
       <c r="Q13">
         <v>6294720</v>
@@ -3591,46 +3949,46 @@
         <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>169</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>176</v>
       </c>
       <c r="D14" t="s">
-        <v>65</v>
+        <v>186</v>
       </c>
       <c r="E14" t="s">
-        <v>75</v>
+        <v>196</v>
       </c>
       <c r="F14" t="s">
-        <v>85</v>
+        <v>206</v>
       </c>
       <c r="G14" t="s">
-        <v>107</v>
+        <v>228</v>
       </c>
       <c r="I14" t="s">
-        <v>247</v>
+        <v>368</v>
       </c>
       <c r="J14" t="s">
-        <v>382</v>
+        <v>503</v>
       </c>
       <c r="K14">
         <v>16392</v>
       </c>
       <c r="L14" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M14" t="s">
-        <v>435</v>
+        <v>556</v>
       </c>
       <c r="N14" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O14" t="s">
-        <v>576</v>
+        <v>697</v>
       </c>
       <c r="P14" t="s">
-        <v>716</v>
+        <v>837</v>
       </c>
       <c r="Q14">
         <v>9508504</v>
@@ -3641,46 +3999,46 @@
         <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>170</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>176</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>186</v>
       </c>
       <c r="E15" t="s">
-        <v>75</v>
+        <v>196</v>
       </c>
       <c r="F15" t="s">
-        <v>85</v>
+        <v>206</v>
       </c>
       <c r="G15" t="s">
-        <v>108</v>
+        <v>229</v>
       </c>
       <c r="I15" t="s">
-        <v>248</v>
+        <v>369</v>
       </c>
       <c r="J15" t="s">
-        <v>381</v>
+        <v>502</v>
       </c>
       <c r="K15">
         <v>98101</v>
       </c>
       <c r="L15" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M15" t="s">
-        <v>436</v>
+        <v>557</v>
       </c>
       <c r="N15" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O15" t="s">
-        <v>577</v>
+        <v>698</v>
       </c>
       <c r="P15" t="s">
-        <v>717</v>
+        <v>838</v>
       </c>
       <c r="Q15">
         <v>8863167</v>
@@ -3691,46 +4049,46 @@
         <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>171</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>176</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>186</v>
       </c>
       <c r="E16" t="s">
-        <v>75</v>
+        <v>196</v>
       </c>
       <c r="F16" t="s">
-        <v>85</v>
+        <v>206</v>
       </c>
       <c r="G16" t="s">
-        <v>109</v>
+        <v>230</v>
       </c>
       <c r="I16" t="s">
-        <v>249</v>
+        <v>370</v>
       </c>
       <c r="J16" t="s">
-        <v>383</v>
+        <v>504</v>
       </c>
       <c r="K16">
         <v>74110</v>
       </c>
       <c r="L16" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M16" t="s">
-        <v>437</v>
+        <v>558</v>
       </c>
       <c r="N16" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O16" t="s">
-        <v>578</v>
+        <v>699</v>
       </c>
       <c r="P16" t="s">
-        <v>718</v>
+        <v>839</v>
       </c>
       <c r="Q16">
         <v>9811990</v>
@@ -3741,46 +4099,46 @@
         <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>172</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>176</v>
       </c>
       <c r="D17" t="s">
-        <v>65</v>
+        <v>186</v>
       </c>
       <c r="E17" t="s">
-        <v>75</v>
+        <v>196</v>
       </c>
       <c r="F17" t="s">
-        <v>85</v>
+        <v>206</v>
       </c>
       <c r="G17" t="s">
-        <v>110</v>
+        <v>231</v>
       </c>
       <c r="I17" t="s">
-        <v>250</v>
+        <v>371</v>
       </c>
       <c r="J17" t="s">
-        <v>384</v>
+        <v>505</v>
       </c>
       <c r="K17">
         <v>83745</v>
       </c>
       <c r="L17" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M17" t="s">
-        <v>438</v>
+        <v>559</v>
       </c>
       <c r="N17" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O17" t="s">
-        <v>579</v>
+        <v>700</v>
       </c>
       <c r="P17" t="s">
-        <v>719</v>
+        <v>840</v>
       </c>
       <c r="Q17">
         <v>6918590</v>
@@ -3791,46 +4149,46 @@
         <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>173</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>176</v>
       </c>
       <c r="D18" t="s">
-        <v>65</v>
+        <v>186</v>
       </c>
       <c r="E18" t="s">
-        <v>75</v>
+        <v>196</v>
       </c>
       <c r="F18" t="s">
-        <v>85</v>
+        <v>206</v>
       </c>
       <c r="G18" t="s">
-        <v>111</v>
+        <v>232</v>
       </c>
       <c r="I18" t="s">
-        <v>251</v>
+        <v>372</v>
       </c>
       <c r="J18" t="s">
-        <v>385</v>
+        <v>506</v>
       </c>
       <c r="K18">
         <v>70435</v>
       </c>
       <c r="L18" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M18" t="s">
-        <v>439</v>
+        <v>560</v>
       </c>
       <c r="N18" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O18" t="s">
-        <v>580</v>
+        <v>701</v>
       </c>
       <c r="P18" t="s">
-        <v>720</v>
+        <v>841</v>
       </c>
       <c r="Q18">
         <v>5640012</v>
@@ -3841,46 +4199,46 @@
         <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>174</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>176</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
+        <v>186</v>
       </c>
       <c r="E19" t="s">
-        <v>75</v>
+        <v>196</v>
       </c>
       <c r="F19" t="s">
-        <v>85</v>
+        <v>206</v>
       </c>
       <c r="G19" t="s">
-        <v>112</v>
+        <v>233</v>
       </c>
       <c r="I19" t="s">
-        <v>252</v>
+        <v>373</v>
       </c>
       <c r="J19" t="s">
-        <v>386</v>
+        <v>507</v>
       </c>
       <c r="K19">
         <v>12193</v>
       </c>
       <c r="L19" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M19" t="s">
-        <v>440</v>
+        <v>561</v>
       </c>
       <c r="N19" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O19" t="s">
-        <v>581</v>
+        <v>702</v>
       </c>
       <c r="P19" t="s">
-        <v>721</v>
+        <v>842</v>
       </c>
       <c r="Q19">
         <v>5736006</v>
@@ -3891,46 +4249,46 @@
         <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>175</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>176</v>
       </c>
       <c r="D20" t="s">
-        <v>65</v>
+        <v>186</v>
       </c>
       <c r="E20" t="s">
-        <v>75</v>
+        <v>196</v>
       </c>
       <c r="F20" t="s">
-        <v>85</v>
+        <v>206</v>
       </c>
       <c r="G20" t="s">
-        <v>113</v>
+        <v>234</v>
       </c>
       <c r="I20" t="s">
-        <v>253</v>
+        <v>374</v>
       </c>
       <c r="J20" t="s">
-        <v>387</v>
+        <v>508</v>
       </c>
       <c r="K20">
         <v>54570</v>
       </c>
       <c r="L20" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M20" t="s">
-        <v>441</v>
+        <v>562</v>
       </c>
       <c r="N20" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O20" t="s">
-        <v>582</v>
+        <v>703</v>
       </c>
       <c r="P20" t="s">
-        <v>722</v>
+        <v>843</v>
       </c>
       <c r="Q20">
         <v>9239268</v>
@@ -3938,49 +4296,49 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>166</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>177</v>
       </c>
       <c r="D21" t="s">
-        <v>66</v>
+        <v>187</v>
       </c>
       <c r="E21" t="s">
-        <v>76</v>
+        <v>197</v>
       </c>
       <c r="F21" t="s">
-        <v>86</v>
+        <v>207</v>
       </c>
       <c r="G21" t="s">
-        <v>114</v>
+        <v>235</v>
       </c>
       <c r="I21" t="s">
-        <v>254</v>
+        <v>375</v>
       </c>
       <c r="J21" t="s">
-        <v>388</v>
+        <v>509</v>
       </c>
       <c r="K21">
         <v>65357</v>
       </c>
       <c r="L21" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M21" t="s">
-        <v>442</v>
+        <v>563</v>
       </c>
       <c r="N21" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O21" t="s">
-        <v>583</v>
+        <v>704</v>
       </c>
       <c r="P21" t="s">
-        <v>723</v>
+        <v>844</v>
       </c>
       <c r="Q21">
         <v>9345131</v>
@@ -3988,49 +4346,49 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>167</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>177</v>
       </c>
       <c r="D22" t="s">
-        <v>66</v>
+        <v>187</v>
       </c>
       <c r="E22" t="s">
-        <v>76</v>
+        <v>197</v>
       </c>
       <c r="F22" t="s">
-        <v>86</v>
+        <v>207</v>
       </c>
       <c r="G22" t="s">
-        <v>115</v>
+        <v>236</v>
       </c>
       <c r="I22" t="s">
-        <v>255</v>
+        <v>376</v>
       </c>
       <c r="J22" t="s">
-        <v>389</v>
+        <v>510</v>
       </c>
       <c r="K22">
         <v>71588</v>
       </c>
       <c r="L22" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M22" t="s">
-        <v>443</v>
+        <v>564</v>
       </c>
       <c r="N22" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O22" t="s">
-        <v>584</v>
+        <v>705</v>
       </c>
       <c r="P22" t="s">
-        <v>724</v>
+        <v>845</v>
       </c>
       <c r="Q22">
         <v>3463411</v>
@@ -4038,49 +4396,49 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>160</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>177</v>
       </c>
       <c r="D23" t="s">
-        <v>66</v>
+        <v>187</v>
       </c>
       <c r="E23" t="s">
-        <v>76</v>
+        <v>197</v>
       </c>
       <c r="F23" t="s">
-        <v>86</v>
+        <v>207</v>
       </c>
       <c r="G23" t="s">
-        <v>116</v>
+        <v>237</v>
       </c>
       <c r="I23" t="s">
-        <v>256</v>
+        <v>377</v>
       </c>
       <c r="J23" t="s">
-        <v>390</v>
+        <v>511</v>
       </c>
       <c r="K23">
         <v>54923</v>
       </c>
       <c r="L23" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M23" t="s">
-        <v>444</v>
+        <v>565</v>
       </c>
       <c r="N23" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O23" t="s">
-        <v>585</v>
+        <v>706</v>
       </c>
       <c r="P23" t="s">
-        <v>725</v>
+        <v>846</v>
       </c>
       <c r="Q23">
         <v>5589321</v>
@@ -4088,49 +4446,49 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>161</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>177</v>
       </c>
       <c r="D24" t="s">
-        <v>66</v>
+        <v>187</v>
       </c>
       <c r="E24" t="s">
-        <v>76</v>
+        <v>197</v>
       </c>
       <c r="F24" t="s">
-        <v>86</v>
+        <v>207</v>
       </c>
       <c r="G24" t="s">
-        <v>117</v>
+        <v>238</v>
       </c>
       <c r="I24" t="s">
-        <v>257</v>
+        <v>378</v>
       </c>
       <c r="J24" t="s">
-        <v>391</v>
+        <v>512</v>
       </c>
       <c r="K24">
         <v>12556</v>
       </c>
       <c r="L24" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M24" t="s">
-        <v>445</v>
+        <v>566</v>
       </c>
       <c r="N24" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O24" t="s">
-        <v>586</v>
+        <v>707</v>
       </c>
       <c r="P24" t="s">
-        <v>726</v>
+        <v>847</v>
       </c>
       <c r="Q24">
         <v>5157498</v>
@@ -4138,49 +4496,49 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>168</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>177</v>
       </c>
       <c r="D25" t="s">
-        <v>66</v>
+        <v>187</v>
       </c>
       <c r="E25" t="s">
-        <v>76</v>
+        <v>197</v>
       </c>
       <c r="F25" t="s">
-        <v>86</v>
+        <v>207</v>
       </c>
       <c r="G25" t="s">
-        <v>118</v>
+        <v>239</v>
       </c>
       <c r="I25" t="s">
-        <v>258</v>
+        <v>379</v>
       </c>
       <c r="J25" t="s">
-        <v>392</v>
+        <v>513</v>
       </c>
       <c r="K25">
         <v>37643</v>
       </c>
       <c r="L25" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M25" t="s">
-        <v>446</v>
+        <v>567</v>
       </c>
       <c r="N25" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O25" t="s">
-        <v>587</v>
+        <v>708</v>
       </c>
       <c r="P25" t="s">
-        <v>727</v>
+        <v>848</v>
       </c>
       <c r="Q25">
         <v>3094563</v>
@@ -4188,49 +4546,49 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>162</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
+        <v>177</v>
       </c>
       <c r="D26" t="s">
-        <v>66</v>
+        <v>187</v>
       </c>
       <c r="E26" t="s">
-        <v>76</v>
+        <v>197</v>
       </c>
       <c r="F26" t="s">
-        <v>86</v>
+        <v>207</v>
       </c>
       <c r="G26" t="s">
-        <v>119</v>
+        <v>240</v>
       </c>
       <c r="I26" t="s">
-        <v>259</v>
+        <v>380</v>
       </c>
       <c r="J26" t="s">
-        <v>385</v>
+        <v>506</v>
       </c>
       <c r="K26">
         <v>84862</v>
       </c>
       <c r="L26" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M26" t="s">
-        <v>447</v>
+        <v>568</v>
       </c>
       <c r="N26" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O26" t="s">
-        <v>588</v>
+        <v>709</v>
       </c>
       <c r="P26" t="s">
-        <v>728</v>
+        <v>849</v>
       </c>
       <c r="Q26">
         <v>4815907</v>
@@ -4238,49 +4596,49 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>157</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>177</v>
       </c>
       <c r="D27" t="s">
-        <v>66</v>
+        <v>187</v>
       </c>
       <c r="E27" t="s">
-        <v>76</v>
+        <v>197</v>
       </c>
       <c r="F27" t="s">
-        <v>86</v>
+        <v>207</v>
       </c>
       <c r="G27" t="s">
-        <v>120</v>
+        <v>241</v>
       </c>
       <c r="I27" t="s">
-        <v>260</v>
+        <v>381</v>
       </c>
       <c r="J27" t="s">
-        <v>393</v>
+        <v>514</v>
       </c>
       <c r="K27">
         <v>99924</v>
       </c>
       <c r="L27" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M27" t="s">
-        <v>448</v>
+        <v>569</v>
       </c>
       <c r="N27" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O27" t="s">
-        <v>589</v>
+        <v>710</v>
       </c>
       <c r="P27" t="s">
-        <v>729</v>
+        <v>850</v>
       </c>
       <c r="Q27">
         <v>7097959</v>
@@ -4288,49 +4646,49 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>169</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>177</v>
       </c>
       <c r="D28" t="s">
-        <v>66</v>
+        <v>187</v>
       </c>
       <c r="E28" t="s">
-        <v>76</v>
+        <v>197</v>
       </c>
       <c r="F28" t="s">
-        <v>86</v>
+        <v>207</v>
       </c>
       <c r="G28" t="s">
-        <v>121</v>
+        <v>242</v>
       </c>
       <c r="I28" t="s">
-        <v>261</v>
+        <v>382</v>
       </c>
       <c r="J28" t="s">
-        <v>394</v>
+        <v>515</v>
       </c>
       <c r="K28">
         <v>21620</v>
       </c>
       <c r="L28" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M28" t="s">
-        <v>449</v>
+        <v>570</v>
       </c>
       <c r="N28" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O28" t="s">
-        <v>590</v>
+        <v>711</v>
       </c>
       <c r="P28" t="s">
-        <v>730</v>
+        <v>851</v>
       </c>
       <c r="Q28">
         <v>609872</v>
@@ -4338,49 +4696,49 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>170</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
+        <v>177</v>
       </c>
       <c r="D29" t="s">
-        <v>66</v>
+        <v>187</v>
       </c>
       <c r="E29" t="s">
-        <v>76</v>
+        <v>197</v>
       </c>
       <c r="F29" t="s">
-        <v>86</v>
+        <v>207</v>
       </c>
       <c r="G29" t="s">
-        <v>122</v>
+        <v>243</v>
       </c>
       <c r="I29" t="s">
-        <v>262</v>
+        <v>383</v>
       </c>
       <c r="J29" t="s">
-        <v>395</v>
+        <v>516</v>
       </c>
       <c r="K29">
         <v>94746</v>
       </c>
       <c r="L29" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M29" t="s">
-        <v>450</v>
+        <v>571</v>
       </c>
       <c r="N29" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O29" t="s">
-        <v>591</v>
+        <v>712</v>
       </c>
       <c r="P29" t="s">
-        <v>731</v>
+        <v>852</v>
       </c>
       <c r="Q29">
         <v>5500226</v>
@@ -4388,49 +4746,49 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>163</v>
       </c>
       <c r="C30" t="s">
-        <v>56</v>
+        <v>177</v>
       </c>
       <c r="D30" t="s">
-        <v>66</v>
+        <v>187</v>
       </c>
       <c r="E30" t="s">
-        <v>76</v>
+        <v>197</v>
       </c>
       <c r="F30" t="s">
-        <v>86</v>
+        <v>207</v>
       </c>
       <c r="G30" t="s">
-        <v>123</v>
+        <v>244</v>
       </c>
       <c r="I30" t="s">
-        <v>263</v>
+        <v>384</v>
       </c>
       <c r="J30" t="s">
-        <v>376</v>
+        <v>497</v>
       </c>
       <c r="K30">
         <v>96722</v>
       </c>
       <c r="L30" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M30" t="s">
-        <v>451</v>
+        <v>572</v>
       </c>
       <c r="N30" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O30" t="s">
-        <v>592</v>
+        <v>713</v>
       </c>
       <c r="P30" t="s">
-        <v>732</v>
+        <v>853</v>
       </c>
       <c r="Q30">
         <v>4450038</v>
@@ -4438,49 +4796,49 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>158</v>
       </c>
       <c r="C31" t="s">
-        <v>56</v>
+        <v>177</v>
       </c>
       <c r="D31" t="s">
-        <v>66</v>
+        <v>187</v>
       </c>
       <c r="E31" t="s">
-        <v>76</v>
+        <v>197</v>
       </c>
       <c r="F31" t="s">
-        <v>86</v>
+        <v>207</v>
       </c>
       <c r="G31" t="s">
-        <v>124</v>
+        <v>245</v>
       </c>
       <c r="I31" t="s">
-        <v>264</v>
+        <v>385</v>
       </c>
       <c r="J31" t="s">
-        <v>396</v>
+        <v>517</v>
       </c>
       <c r="K31">
         <v>56739</v>
       </c>
       <c r="L31" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M31" t="s">
-        <v>452</v>
+        <v>573</v>
       </c>
       <c r="N31" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O31" t="s">
-        <v>593</v>
+        <v>714</v>
       </c>
       <c r="P31" t="s">
-        <v>733</v>
+        <v>854</v>
       </c>
       <c r="Q31">
         <v>4876775</v>
@@ -4488,49 +4846,49 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>164</v>
       </c>
       <c r="C32" t="s">
-        <v>56</v>
+        <v>177</v>
       </c>
       <c r="D32" t="s">
-        <v>66</v>
+        <v>187</v>
       </c>
       <c r="E32" t="s">
-        <v>76</v>
+        <v>197</v>
       </c>
       <c r="F32" t="s">
-        <v>86</v>
+        <v>207</v>
       </c>
       <c r="G32" t="s">
-        <v>125</v>
+        <v>246</v>
       </c>
       <c r="I32" t="s">
-        <v>265</v>
+        <v>386</v>
       </c>
       <c r="J32" t="s">
-        <v>382</v>
+        <v>503</v>
       </c>
       <c r="K32">
         <v>73216</v>
       </c>
       <c r="L32" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M32" t="s">
-        <v>453</v>
+        <v>574</v>
       </c>
       <c r="N32" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O32" t="s">
-        <v>594</v>
+        <v>715</v>
       </c>
       <c r="P32" t="s">
-        <v>734</v>
+        <v>855</v>
       </c>
       <c r="Q32">
         <v>6118243</v>
@@ -4538,49 +4896,49 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>165</v>
       </c>
       <c r="C33" t="s">
-        <v>56</v>
+        <v>177</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>187</v>
       </c>
       <c r="E33" t="s">
-        <v>76</v>
+        <v>197</v>
       </c>
       <c r="F33" t="s">
-        <v>86</v>
+        <v>207</v>
       </c>
       <c r="G33" t="s">
-        <v>126</v>
+        <v>247</v>
       </c>
       <c r="I33" t="s">
-        <v>266</v>
+        <v>387</v>
       </c>
       <c r="J33" t="s">
-        <v>377</v>
+        <v>498</v>
       </c>
       <c r="K33">
         <v>41647</v>
       </c>
       <c r="L33" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M33" t="s">
-        <v>454</v>
+        <v>575</v>
       </c>
       <c r="N33" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O33" t="s">
-        <v>595</v>
+        <v>716</v>
       </c>
       <c r="P33" t="s">
-        <v>735</v>
+        <v>856</v>
       </c>
       <c r="Q33">
         <v>1277826</v>
@@ -4588,49 +4946,49 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>171</v>
       </c>
       <c r="C34" t="s">
-        <v>56</v>
+        <v>177</v>
       </c>
       <c r="D34" t="s">
-        <v>66</v>
+        <v>187</v>
       </c>
       <c r="E34" t="s">
-        <v>76</v>
+        <v>197</v>
       </c>
       <c r="F34" t="s">
-        <v>86</v>
+        <v>207</v>
       </c>
       <c r="G34" t="s">
-        <v>127</v>
+        <v>248</v>
       </c>
       <c r="I34" t="s">
-        <v>267</v>
+        <v>388</v>
       </c>
       <c r="J34" t="s">
-        <v>397</v>
+        <v>518</v>
       </c>
       <c r="K34">
         <v>92265</v>
       </c>
       <c r="L34" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M34" t="s">
-        <v>455</v>
+        <v>576</v>
       </c>
       <c r="N34" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O34" t="s">
-        <v>596</v>
+        <v>717</v>
       </c>
       <c r="P34" t="s">
-        <v>736</v>
+        <v>857</v>
       </c>
       <c r="Q34">
         <v>7060303</v>
@@ -4638,49 +4996,49 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B35" t="s">
-        <v>53</v>
+        <v>174</v>
       </c>
       <c r="C35" t="s">
-        <v>56</v>
+        <v>177</v>
       </c>
       <c r="D35" t="s">
-        <v>66</v>
+        <v>187</v>
       </c>
       <c r="E35" t="s">
-        <v>76</v>
+        <v>197</v>
       </c>
       <c r="F35" t="s">
-        <v>86</v>
+        <v>207</v>
       </c>
       <c r="G35" t="s">
-        <v>128</v>
+        <v>249</v>
       </c>
       <c r="I35" t="s">
-        <v>268</v>
+        <v>389</v>
       </c>
       <c r="J35" t="s">
-        <v>398</v>
+        <v>519</v>
       </c>
       <c r="K35">
         <v>38722</v>
       </c>
       <c r="L35" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M35" t="s">
-        <v>456</v>
+        <v>577</v>
       </c>
       <c r="N35" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O35" t="s">
-        <v>597</v>
+        <v>718</v>
       </c>
       <c r="P35" t="s">
-        <v>737</v>
+        <v>858</v>
       </c>
       <c r="Q35">
         <v>3521872</v>
@@ -4688,49 +5046,49 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="B36" t="s">
-        <v>54</v>
+        <v>175</v>
       </c>
       <c r="C36" t="s">
-        <v>56</v>
+        <v>177</v>
       </c>
       <c r="D36" t="s">
-        <v>66</v>
+        <v>187</v>
       </c>
       <c r="E36" t="s">
-        <v>76</v>
+        <v>197</v>
       </c>
       <c r="F36" t="s">
-        <v>86</v>
+        <v>207</v>
       </c>
       <c r="G36" t="s">
-        <v>129</v>
+        <v>250</v>
       </c>
       <c r="I36" t="s">
-        <v>269</v>
+        <v>390</v>
       </c>
       <c r="J36" t="s">
-        <v>378</v>
+        <v>499</v>
       </c>
       <c r="K36">
         <v>55968</v>
       </c>
       <c r="L36" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M36" t="s">
-        <v>457</v>
+        <v>578</v>
       </c>
       <c r="N36" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O36" t="s">
-        <v>598</v>
+        <v>719</v>
       </c>
       <c r="P36" t="s">
-        <v>738</v>
+        <v>859</v>
       </c>
       <c r="Q36">
         <v>2662963</v>
@@ -4738,49 +5096,49 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>159</v>
       </c>
       <c r="C37" t="s">
-        <v>56</v>
+        <v>177</v>
       </c>
       <c r="D37" t="s">
-        <v>66</v>
+        <v>187</v>
       </c>
       <c r="E37" t="s">
-        <v>76</v>
+        <v>197</v>
       </c>
       <c r="F37" t="s">
-        <v>86</v>
+        <v>207</v>
       </c>
       <c r="G37" t="s">
-        <v>130</v>
+        <v>251</v>
       </c>
       <c r="I37" t="s">
-        <v>270</v>
+        <v>391</v>
       </c>
       <c r="J37" t="s">
-        <v>375</v>
+        <v>496</v>
       </c>
       <c r="K37">
         <v>98316</v>
       </c>
       <c r="L37" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M37" t="s">
-        <v>458</v>
+        <v>579</v>
       </c>
       <c r="N37" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O37" t="s">
-        <v>599</v>
+        <v>720</v>
       </c>
       <c r="P37" t="s">
-        <v>739</v>
+        <v>860</v>
       </c>
       <c r="Q37">
         <v>9085497</v>
@@ -4788,49 +5146,49 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>172</v>
       </c>
       <c r="C38" t="s">
-        <v>56</v>
+        <v>177</v>
       </c>
       <c r="D38" t="s">
-        <v>66</v>
+        <v>187</v>
       </c>
       <c r="E38" t="s">
-        <v>76</v>
+        <v>197</v>
       </c>
       <c r="F38" t="s">
-        <v>86</v>
+        <v>207</v>
       </c>
       <c r="G38" t="s">
-        <v>131</v>
+        <v>252</v>
       </c>
       <c r="I38" t="s">
-        <v>271</v>
+        <v>392</v>
       </c>
       <c r="J38" t="s">
-        <v>375</v>
+        <v>496</v>
       </c>
       <c r="K38">
         <v>14694</v>
       </c>
       <c r="L38" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M38" t="s">
-        <v>459</v>
+        <v>580</v>
       </c>
       <c r="N38" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O38" t="s">
-        <v>600</v>
+        <v>721</v>
       </c>
       <c r="P38" t="s">
-        <v>740</v>
+        <v>861</v>
       </c>
       <c r="Q38">
         <v>3490282</v>
@@ -4838,49 +5196,49 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>166</v>
       </c>
       <c r="C39" t="s">
-        <v>57</v>
+        <v>178</v>
       </c>
       <c r="D39" t="s">
-        <v>67</v>
+        <v>188</v>
       </c>
       <c r="E39" t="s">
-        <v>77</v>
+        <v>198</v>
       </c>
       <c r="F39" t="s">
-        <v>87</v>
+        <v>208</v>
       </c>
       <c r="G39" t="s">
-        <v>132</v>
+        <v>253</v>
       </c>
       <c r="I39" t="s">
-        <v>272</v>
+        <v>393</v>
       </c>
       <c r="J39" t="s">
-        <v>399</v>
+        <v>520</v>
       </c>
       <c r="K39">
         <v>59772</v>
       </c>
       <c r="L39" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M39" t="s">
-        <v>460</v>
+        <v>581</v>
       </c>
       <c r="N39" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O39" t="s">
-        <v>601</v>
+        <v>722</v>
       </c>
       <c r="P39" t="s">
-        <v>741</v>
+        <v>862</v>
       </c>
       <c r="Q39">
         <v>5703304</v>
@@ -4888,49 +5246,49 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="B40" t="s">
-        <v>46</v>
+        <v>167</v>
       </c>
       <c r="C40" t="s">
-        <v>57</v>
+        <v>178</v>
       </c>
       <c r="D40" t="s">
-        <v>67</v>
+        <v>188</v>
       </c>
       <c r="E40" t="s">
-        <v>77</v>
+        <v>198</v>
       </c>
       <c r="F40" t="s">
-        <v>87</v>
+        <v>208</v>
       </c>
       <c r="G40" t="s">
-        <v>133</v>
+        <v>254</v>
       </c>
       <c r="I40" t="s">
-        <v>273</v>
+        <v>394</v>
       </c>
       <c r="J40" t="s">
-        <v>400</v>
+        <v>521</v>
       </c>
       <c r="K40">
         <v>75281</v>
       </c>
       <c r="L40" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M40" t="s">
-        <v>461</v>
+        <v>582</v>
       </c>
       <c r="N40" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O40" t="s">
-        <v>602</v>
+        <v>723</v>
       </c>
       <c r="P40" t="s">
-        <v>742</v>
+        <v>863</v>
       </c>
       <c r="Q40">
         <v>5826041</v>
@@ -4938,49 +5296,49 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>160</v>
       </c>
       <c r="C41" t="s">
-        <v>57</v>
+        <v>178</v>
       </c>
       <c r="D41" t="s">
-        <v>67</v>
+        <v>188</v>
       </c>
       <c r="E41" t="s">
-        <v>77</v>
+        <v>198</v>
       </c>
       <c r="F41" t="s">
-        <v>87</v>
+        <v>208</v>
       </c>
       <c r="G41" t="s">
-        <v>134</v>
+        <v>255</v>
       </c>
       <c r="I41" t="s">
-        <v>274</v>
+        <v>395</v>
       </c>
       <c r="J41" t="s">
-        <v>376</v>
+        <v>497</v>
       </c>
       <c r="K41">
         <v>92549</v>
       </c>
       <c r="L41" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M41" t="s">
-        <v>462</v>
+        <v>583</v>
       </c>
       <c r="N41" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O41" t="s">
-        <v>603</v>
+        <v>724</v>
       </c>
       <c r="P41" t="s">
-        <v>743</v>
+        <v>864</v>
       </c>
       <c r="Q41">
         <v>2659334</v>
@@ -4988,49 +5346,49 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>161</v>
       </c>
       <c r="C42" t="s">
-        <v>57</v>
+        <v>178</v>
       </c>
       <c r="D42" t="s">
-        <v>67</v>
+        <v>188</v>
       </c>
       <c r="E42" t="s">
-        <v>77</v>
+        <v>198</v>
       </c>
       <c r="F42" t="s">
-        <v>87</v>
+        <v>208</v>
       </c>
       <c r="G42" t="s">
-        <v>135</v>
+        <v>256</v>
       </c>
       <c r="I42" t="s">
-        <v>275</v>
+        <v>396</v>
       </c>
       <c r="J42" t="s">
-        <v>401</v>
+        <v>522</v>
       </c>
       <c r="K42">
         <v>25448</v>
       </c>
       <c r="L42" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M42" t="s">
-        <v>463</v>
+        <v>584</v>
       </c>
       <c r="N42" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O42" t="s">
-        <v>604</v>
+        <v>725</v>
       </c>
       <c r="P42" t="s">
-        <v>744</v>
+        <v>865</v>
       </c>
       <c r="Q42">
         <v>5378334</v>
@@ -5038,49 +5396,49 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="B43" t="s">
-        <v>47</v>
+        <v>168</v>
       </c>
       <c r="C43" t="s">
-        <v>57</v>
+        <v>178</v>
       </c>
       <c r="D43" t="s">
-        <v>67</v>
+        <v>188</v>
       </c>
       <c r="E43" t="s">
-        <v>77</v>
+        <v>198</v>
       </c>
       <c r="F43" t="s">
-        <v>87</v>
+        <v>208</v>
       </c>
       <c r="G43" t="s">
-        <v>136</v>
+        <v>257</v>
       </c>
       <c r="I43" t="s">
-        <v>276</v>
+        <v>397</v>
       </c>
       <c r="J43" t="s">
-        <v>395</v>
+        <v>516</v>
       </c>
       <c r="K43">
         <v>37629</v>
       </c>
       <c r="L43" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M43" t="s">
-        <v>464</v>
+        <v>585</v>
       </c>
       <c r="N43" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O43" t="s">
-        <v>605</v>
+        <v>726</v>
       </c>
       <c r="P43" t="s">
-        <v>745</v>
+        <v>866</v>
       </c>
       <c r="Q43">
         <v>2476571</v>
@@ -5088,49 +5446,49 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="B44" t="s">
-        <v>48</v>
+        <v>169</v>
       </c>
       <c r="C44" t="s">
-        <v>57</v>
+        <v>178</v>
       </c>
       <c r="D44" t="s">
-        <v>67</v>
+        <v>188</v>
       </c>
       <c r="E44" t="s">
-        <v>77</v>
+        <v>198</v>
       </c>
       <c r="F44" t="s">
-        <v>87</v>
+        <v>208</v>
       </c>
       <c r="G44" t="s">
-        <v>137</v>
+        <v>258</v>
       </c>
       <c r="I44" t="s">
-        <v>277</v>
+        <v>398</v>
       </c>
       <c r="J44" t="s">
-        <v>402</v>
+        <v>523</v>
       </c>
       <c r="K44">
         <v>12171</v>
       </c>
       <c r="L44" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M44" t="s">
-        <v>465</v>
+        <v>586</v>
       </c>
       <c r="N44" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O44" t="s">
-        <v>606</v>
+        <v>727</v>
       </c>
       <c r="P44" t="s">
-        <v>746</v>
+        <v>867</v>
       </c>
       <c r="Q44">
         <v>9266963</v>
@@ -5138,49 +5496,49 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="B45" t="s">
-        <v>49</v>
+        <v>170</v>
       </c>
       <c r="C45" t="s">
-        <v>57</v>
+        <v>178</v>
       </c>
       <c r="D45" t="s">
-        <v>67</v>
+        <v>188</v>
       </c>
       <c r="E45" t="s">
-        <v>77</v>
+        <v>198</v>
       </c>
       <c r="F45" t="s">
-        <v>87</v>
+        <v>208</v>
       </c>
       <c r="G45" t="s">
-        <v>138</v>
+        <v>259</v>
       </c>
       <c r="I45" t="s">
-        <v>278</v>
+        <v>399</v>
       </c>
       <c r="J45" t="s">
-        <v>403</v>
+        <v>524</v>
       </c>
       <c r="K45">
         <v>98119</v>
       </c>
       <c r="L45" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M45" t="s">
-        <v>466</v>
+        <v>587</v>
       </c>
       <c r="N45" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O45" t="s">
-        <v>607</v>
+        <v>728</v>
       </c>
       <c r="P45" t="s">
-        <v>747</v>
+        <v>868</v>
       </c>
       <c r="Q45">
         <v>1830673</v>
@@ -5188,49 +5546,49 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="B46" t="s">
-        <v>42</v>
+        <v>163</v>
       </c>
       <c r="C46" t="s">
-        <v>57</v>
+        <v>178</v>
       </c>
       <c r="D46" t="s">
-        <v>67</v>
+        <v>188</v>
       </c>
       <c r="E46" t="s">
-        <v>77</v>
+        <v>198</v>
       </c>
       <c r="F46" t="s">
-        <v>87</v>
+        <v>208</v>
       </c>
       <c r="G46" t="s">
-        <v>139</v>
+        <v>260</v>
       </c>
       <c r="I46" t="s">
-        <v>279</v>
+        <v>400</v>
       </c>
       <c r="J46" t="s">
-        <v>404</v>
+        <v>525</v>
       </c>
       <c r="K46">
         <v>55118</v>
       </c>
       <c r="L46" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M46" t="s">
-        <v>467</v>
+        <v>588</v>
       </c>
       <c r="N46" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O46" t="s">
-        <v>608</v>
+        <v>729</v>
       </c>
       <c r="P46" t="s">
-        <v>748</v>
+        <v>869</v>
       </c>
       <c r="Q46">
         <v>5506241</v>
@@ -5238,49 +5596,49 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="B47" t="s">
-        <v>37</v>
+        <v>158</v>
       </c>
       <c r="C47" t="s">
-        <v>57</v>
+        <v>178</v>
       </c>
       <c r="D47" t="s">
-        <v>67</v>
+        <v>188</v>
       </c>
       <c r="E47" t="s">
-        <v>77</v>
+        <v>198</v>
       </c>
       <c r="F47" t="s">
-        <v>87</v>
+        <v>208</v>
       </c>
       <c r="G47" t="s">
-        <v>140</v>
+        <v>261</v>
       </c>
       <c r="I47" t="s">
-        <v>280</v>
+        <v>401</v>
       </c>
       <c r="J47" t="s">
-        <v>405</v>
+        <v>526</v>
       </c>
       <c r="K47">
         <v>66635</v>
       </c>
       <c r="L47" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M47" t="s">
-        <v>468</v>
+        <v>589</v>
       </c>
       <c r="N47" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O47" t="s">
-        <v>609</v>
+        <v>730</v>
       </c>
       <c r="P47" t="s">
-        <v>749</v>
+        <v>870</v>
       </c>
       <c r="Q47">
         <v>1093609</v>
@@ -5288,49 +5646,49 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="B48" t="s">
-        <v>43</v>
+        <v>164</v>
       </c>
       <c r="C48" t="s">
-        <v>57</v>
+        <v>178</v>
       </c>
       <c r="D48" t="s">
-        <v>67</v>
+        <v>188</v>
       </c>
       <c r="E48" t="s">
-        <v>77</v>
+        <v>198</v>
       </c>
       <c r="F48" t="s">
-        <v>87</v>
+        <v>208</v>
       </c>
       <c r="G48" t="s">
-        <v>141</v>
+        <v>262</v>
       </c>
       <c r="I48" t="s">
-        <v>281</v>
+        <v>402</v>
       </c>
       <c r="J48" t="s">
-        <v>398</v>
+        <v>519</v>
       </c>
       <c r="K48">
         <v>94809</v>
       </c>
       <c r="L48" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M48" t="s">
-        <v>469</v>
+        <v>590</v>
       </c>
       <c r="N48" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O48" t="s">
-        <v>610</v>
+        <v>731</v>
       </c>
       <c r="P48" t="s">
-        <v>750</v>
+        <v>871</v>
       </c>
       <c r="Q48">
         <v>5447579</v>
@@ -5338,49 +5696,49 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="B49" t="s">
-        <v>44</v>
+        <v>165</v>
       </c>
       <c r="C49" t="s">
-        <v>57</v>
+        <v>178</v>
       </c>
       <c r="D49" t="s">
-        <v>67</v>
+        <v>188</v>
       </c>
       <c r="E49" t="s">
-        <v>77</v>
+        <v>198</v>
       </c>
       <c r="F49" t="s">
-        <v>87</v>
+        <v>208</v>
       </c>
       <c r="G49" t="s">
-        <v>142</v>
+        <v>263</v>
       </c>
       <c r="I49" t="s">
-        <v>282</v>
+        <v>403</v>
       </c>
       <c r="J49" t="s">
-        <v>378</v>
+        <v>499</v>
       </c>
       <c r="K49">
         <v>54718</v>
       </c>
       <c r="L49" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M49" t="s">
-        <v>470</v>
+        <v>591</v>
       </c>
       <c r="N49" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O49" t="s">
-        <v>611</v>
+        <v>732</v>
       </c>
       <c r="P49" t="s">
-        <v>751</v>
+        <v>872</v>
       </c>
       <c r="Q49">
         <v>9531374</v>
@@ -5388,49 +5746,49 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="B50" t="s">
-        <v>50</v>
+        <v>171</v>
       </c>
       <c r="C50" t="s">
-        <v>57</v>
+        <v>178</v>
       </c>
       <c r="D50" t="s">
-        <v>67</v>
+        <v>188</v>
       </c>
       <c r="E50" t="s">
-        <v>77</v>
+        <v>198</v>
       </c>
       <c r="F50" t="s">
-        <v>87</v>
+        <v>208</v>
       </c>
       <c r="G50" t="s">
-        <v>143</v>
+        <v>264</v>
       </c>
       <c r="I50" t="s">
-        <v>283</v>
+        <v>404</v>
       </c>
       <c r="J50" t="s">
-        <v>385</v>
+        <v>506</v>
       </c>
       <c r="K50">
         <v>89225</v>
       </c>
       <c r="L50" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M50" t="s">
-        <v>471</v>
+        <v>592</v>
       </c>
       <c r="N50" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O50" t="s">
-        <v>612</v>
+        <v>733</v>
       </c>
       <c r="P50" t="s">
-        <v>752</v>
+        <v>873</v>
       </c>
       <c r="Q50">
         <v>5520166</v>
@@ -5438,49 +5796,49 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>174</v>
       </c>
       <c r="C51" t="s">
-        <v>57</v>
+        <v>178</v>
       </c>
       <c r="D51" t="s">
-        <v>67</v>
+        <v>188</v>
       </c>
       <c r="E51" t="s">
-        <v>77</v>
+        <v>198</v>
       </c>
       <c r="F51" t="s">
-        <v>87</v>
+        <v>208</v>
       </c>
       <c r="G51" t="s">
-        <v>144</v>
+        <v>265</v>
       </c>
       <c r="I51" t="s">
-        <v>284</v>
+        <v>405</v>
       </c>
       <c r="J51" t="s">
-        <v>406</v>
+        <v>527</v>
       </c>
       <c r="K51">
         <v>42640</v>
       </c>
       <c r="L51" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M51" t="s">
-        <v>472</v>
+        <v>593</v>
       </c>
       <c r="N51" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O51" t="s">
-        <v>613</v>
+        <v>734</v>
       </c>
       <c r="P51" t="s">
-        <v>753</v>
+        <v>874</v>
       </c>
       <c r="Q51">
         <v>1215964</v>
@@ -5488,49 +5846,49 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="B52" t="s">
-        <v>54</v>
+        <v>175</v>
       </c>
       <c r="C52" t="s">
-        <v>57</v>
+        <v>178</v>
       </c>
       <c r="D52" t="s">
-        <v>67</v>
+        <v>188</v>
       </c>
       <c r="E52" t="s">
-        <v>77</v>
+        <v>198</v>
       </c>
       <c r="F52" t="s">
-        <v>87</v>
+        <v>208</v>
       </c>
       <c r="G52" t="s">
-        <v>145</v>
+        <v>266</v>
       </c>
       <c r="I52" t="s">
-        <v>285</v>
+        <v>406</v>
       </c>
       <c r="J52" t="s">
-        <v>385</v>
+        <v>506</v>
       </c>
       <c r="K52">
         <v>94088</v>
       </c>
       <c r="L52" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M52" t="s">
-        <v>473</v>
+        <v>594</v>
       </c>
       <c r="N52" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O52" t="s">
-        <v>614</v>
+        <v>735</v>
       </c>
       <c r="P52" t="s">
-        <v>754</v>
+        <v>875</v>
       </c>
       <c r="Q52">
         <v>4532786</v>
@@ -5538,49 +5896,49 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="B53" t="s">
-        <v>38</v>
+        <v>159</v>
       </c>
       <c r="C53" t="s">
-        <v>57</v>
+        <v>178</v>
       </c>
       <c r="D53" t="s">
-        <v>67</v>
+        <v>188</v>
       </c>
       <c r="E53" t="s">
-        <v>77</v>
+        <v>198</v>
       </c>
       <c r="F53" t="s">
-        <v>87</v>
+        <v>208</v>
       </c>
       <c r="G53" t="s">
-        <v>146</v>
+        <v>267</v>
       </c>
       <c r="I53" t="s">
-        <v>286</v>
+        <v>407</v>
       </c>
       <c r="J53" t="s">
-        <v>390</v>
+        <v>511</v>
       </c>
       <c r="K53">
         <v>53383</v>
       </c>
       <c r="L53" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M53" t="s">
-        <v>474</v>
+        <v>595</v>
       </c>
       <c r="N53" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O53" t="s">
-        <v>615</v>
+        <v>736</v>
       </c>
       <c r="P53" t="s">
-        <v>755</v>
+        <v>876</v>
       </c>
       <c r="Q53">
         <v>4498202</v>
@@ -5588,49 +5946,49 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="B54" t="s">
-        <v>51</v>
+        <v>172</v>
       </c>
       <c r="C54" t="s">
-        <v>57</v>
+        <v>178</v>
       </c>
       <c r="D54" t="s">
-        <v>67</v>
+        <v>188</v>
       </c>
       <c r="E54" t="s">
-        <v>77</v>
+        <v>198</v>
       </c>
       <c r="F54" t="s">
-        <v>87</v>
+        <v>208</v>
       </c>
       <c r="G54" t="s">
-        <v>147</v>
+        <v>268</v>
       </c>
       <c r="I54" t="s">
-        <v>287</v>
+        <v>408</v>
       </c>
       <c r="J54" t="s">
-        <v>393</v>
+        <v>514</v>
       </c>
       <c r="K54">
         <v>54970</v>
       </c>
       <c r="L54" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M54" t="s">
-        <v>475</v>
+        <v>596</v>
       </c>
       <c r="N54" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O54" t="s">
-        <v>616</v>
+        <v>737</v>
       </c>
       <c r="P54" t="s">
-        <v>756</v>
+        <v>877</v>
       </c>
       <c r="Q54">
         <v>7081126</v>
@@ -5638,49 +5996,49 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="B55" t="s">
-        <v>45</v>
+        <v>166</v>
       </c>
       <c r="C55" t="s">
-        <v>58</v>
+        <v>179</v>
       </c>
       <c r="D55" t="s">
-        <v>68</v>
+        <v>189</v>
       </c>
       <c r="E55" t="s">
-        <v>78</v>
+        <v>199</v>
       </c>
       <c r="F55" t="s">
-        <v>88</v>
+        <v>209</v>
       </c>
       <c r="G55" t="s">
-        <v>148</v>
+        <v>269</v>
       </c>
       <c r="I55" t="s">
-        <v>288</v>
+        <v>409</v>
       </c>
       <c r="J55" t="s">
-        <v>407</v>
+        <v>528</v>
       </c>
       <c r="K55">
         <v>75273</v>
       </c>
       <c r="L55" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M55" t="s">
-        <v>476</v>
+        <v>597</v>
       </c>
       <c r="N55" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O55" t="s">
-        <v>617</v>
+        <v>738</v>
       </c>
       <c r="P55" t="s">
-        <v>757</v>
+        <v>878</v>
       </c>
       <c r="Q55">
         <v>3981402</v>
@@ -5688,49 +6046,49 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="B56" t="s">
-        <v>46</v>
+        <v>167</v>
       </c>
       <c r="C56" t="s">
-        <v>58</v>
+        <v>179</v>
       </c>
       <c r="D56" t="s">
-        <v>68</v>
+        <v>189</v>
       </c>
       <c r="E56" t="s">
-        <v>78</v>
+        <v>199</v>
       </c>
       <c r="F56" t="s">
-        <v>88</v>
+        <v>209</v>
       </c>
       <c r="G56" t="s">
-        <v>149</v>
+        <v>270</v>
       </c>
       <c r="I56" t="s">
-        <v>289</v>
+        <v>410</v>
       </c>
       <c r="J56" t="s">
-        <v>408</v>
+        <v>529</v>
       </c>
       <c r="K56">
         <v>97695</v>
       </c>
       <c r="L56" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M56" t="s">
-        <v>477</v>
+        <v>598</v>
       </c>
       <c r="N56" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O56" t="s">
-        <v>618</v>
+        <v>739</v>
       </c>
       <c r="P56" t="s">
-        <v>758</v>
+        <v>879</v>
       </c>
       <c r="Q56">
         <v>7861725</v>
@@ -5738,49 +6096,49 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="B57" t="s">
-        <v>39</v>
+        <v>160</v>
       </c>
       <c r="C57" t="s">
-        <v>58</v>
+        <v>179</v>
       </c>
       <c r="D57" t="s">
-        <v>68</v>
+        <v>189</v>
       </c>
       <c r="E57" t="s">
-        <v>78</v>
+        <v>199</v>
       </c>
       <c r="F57" t="s">
-        <v>88</v>
+        <v>209</v>
       </c>
       <c r="G57" t="s">
-        <v>150</v>
+        <v>271</v>
       </c>
       <c r="I57" t="s">
-        <v>290</v>
+        <v>411</v>
       </c>
       <c r="J57" t="s">
-        <v>409</v>
+        <v>530</v>
       </c>
       <c r="K57">
         <v>97460</v>
       </c>
       <c r="L57" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M57" t="s">
-        <v>478</v>
+        <v>599</v>
       </c>
       <c r="N57" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O57" t="s">
-        <v>619</v>
+        <v>740</v>
       </c>
       <c r="P57" t="s">
-        <v>759</v>
+        <v>880</v>
       </c>
       <c r="Q57">
         <v>8722789</v>
@@ -5788,49 +6146,49 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="B58" t="s">
-        <v>40</v>
+        <v>161</v>
       </c>
       <c r="C58" t="s">
-        <v>58</v>
+        <v>179</v>
       </c>
       <c r="D58" t="s">
-        <v>68</v>
+        <v>189</v>
       </c>
       <c r="E58" t="s">
-        <v>78</v>
+        <v>199</v>
       </c>
       <c r="F58" t="s">
-        <v>88</v>
+        <v>209</v>
       </c>
       <c r="G58" t="s">
-        <v>151</v>
+        <v>272</v>
       </c>
       <c r="I58" t="s">
-        <v>291</v>
+        <v>412</v>
       </c>
       <c r="J58" t="s">
-        <v>387</v>
+        <v>508</v>
       </c>
       <c r="K58">
         <v>42088</v>
       </c>
       <c r="L58" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M58" t="s">
-        <v>479</v>
+        <v>600</v>
       </c>
       <c r="N58" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O58" t="s">
-        <v>620</v>
+        <v>741</v>
       </c>
       <c r="P58" t="s">
-        <v>760</v>
+        <v>881</v>
       </c>
       <c r="Q58">
         <v>8195787</v>
@@ -5838,49 +6196,49 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="B59" t="s">
-        <v>47</v>
+        <v>168</v>
       </c>
       <c r="C59" t="s">
-        <v>58</v>
+        <v>179</v>
       </c>
       <c r="D59" t="s">
-        <v>68</v>
+        <v>189</v>
       </c>
       <c r="E59" t="s">
-        <v>78</v>
+        <v>199</v>
       </c>
       <c r="F59" t="s">
-        <v>88</v>
+        <v>209</v>
       </c>
       <c r="G59" t="s">
-        <v>152</v>
+        <v>273</v>
       </c>
       <c r="I59" t="s">
-        <v>292</v>
+        <v>413</v>
       </c>
       <c r="J59" t="s">
-        <v>410</v>
+        <v>531</v>
       </c>
       <c r="K59">
         <v>44827</v>
       </c>
       <c r="L59" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M59" t="s">
-        <v>480</v>
+        <v>601</v>
       </c>
       <c r="N59" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O59" t="s">
-        <v>621</v>
+        <v>742</v>
       </c>
       <c r="P59" t="s">
-        <v>761</v>
+        <v>882</v>
       </c>
       <c r="Q59">
         <v>5390682</v>
@@ -5888,49 +6246,49 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="B60" t="s">
-        <v>36</v>
+        <v>157</v>
       </c>
       <c r="C60" t="s">
-        <v>58</v>
+        <v>179</v>
       </c>
       <c r="D60" t="s">
-        <v>68</v>
+        <v>189</v>
       </c>
       <c r="E60" t="s">
-        <v>78</v>
+        <v>199</v>
       </c>
       <c r="F60" t="s">
-        <v>88</v>
+        <v>209</v>
       </c>
       <c r="G60" t="s">
-        <v>153</v>
+        <v>274</v>
       </c>
       <c r="I60" t="s">
-        <v>293</v>
+        <v>414</v>
       </c>
       <c r="J60" t="s">
-        <v>403</v>
+        <v>524</v>
       </c>
       <c r="K60">
         <v>41891</v>
       </c>
       <c r="L60" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M60" t="s">
-        <v>481</v>
+        <v>602</v>
       </c>
       <c r="N60" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O60" t="s">
-        <v>622</v>
+        <v>743</v>
       </c>
       <c r="P60" t="s">
-        <v>762</v>
+        <v>883</v>
       </c>
       <c r="Q60">
         <v>9698527</v>
@@ -5938,49 +6296,49 @@
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="B61" t="s">
-        <v>48</v>
+        <v>169</v>
       </c>
       <c r="C61" t="s">
-        <v>58</v>
+        <v>179</v>
       </c>
       <c r="D61" t="s">
-        <v>68</v>
+        <v>189</v>
       </c>
       <c r="E61" t="s">
-        <v>78</v>
+        <v>199</v>
       </c>
       <c r="F61" t="s">
-        <v>88</v>
+        <v>209</v>
       </c>
       <c r="G61" t="s">
-        <v>154</v>
+        <v>275</v>
       </c>
       <c r="I61" t="s">
-        <v>294</v>
+        <v>415</v>
       </c>
       <c r="J61" t="s">
-        <v>395</v>
+        <v>516</v>
       </c>
       <c r="K61">
         <v>66191</v>
       </c>
       <c r="L61" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M61" t="s">
-        <v>482</v>
+        <v>603</v>
       </c>
       <c r="N61" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O61" t="s">
-        <v>623</v>
+        <v>744</v>
       </c>
       <c r="P61" t="s">
-        <v>763</v>
+        <v>884</v>
       </c>
       <c r="Q61">
         <v>5229439</v>
@@ -5988,49 +6346,49 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="B62" t="s">
-        <v>49</v>
+        <v>170</v>
       </c>
       <c r="C62" t="s">
-        <v>58</v>
+        <v>179</v>
       </c>
       <c r="D62" t="s">
-        <v>68</v>
+        <v>189</v>
       </c>
       <c r="E62" t="s">
-        <v>78</v>
+        <v>199</v>
       </c>
       <c r="F62" t="s">
-        <v>88</v>
+        <v>209</v>
       </c>
       <c r="G62" t="s">
-        <v>155</v>
+        <v>276</v>
       </c>
       <c r="I62" t="s">
-        <v>295</v>
+        <v>416</v>
       </c>
       <c r="J62" t="s">
-        <v>408</v>
+        <v>529</v>
       </c>
       <c r="K62">
         <v>33217</v>
       </c>
       <c r="L62" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M62" t="s">
-        <v>483</v>
+        <v>604</v>
       </c>
       <c r="N62" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O62" t="s">
-        <v>624</v>
+        <v>745</v>
       </c>
       <c r="P62" t="s">
-        <v>764</v>
+        <v>885</v>
       </c>
       <c r="Q62">
         <v>4195044</v>
@@ -6038,49 +6396,49 @@
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="B63" t="s">
-        <v>42</v>
+        <v>163</v>
       </c>
       <c r="C63" t="s">
-        <v>58</v>
+        <v>179</v>
       </c>
       <c r="D63" t="s">
-        <v>68</v>
+        <v>189</v>
       </c>
       <c r="E63" t="s">
-        <v>78</v>
+        <v>199</v>
       </c>
       <c r="F63" t="s">
-        <v>88</v>
+        <v>209</v>
       </c>
       <c r="G63" t="s">
-        <v>156</v>
+        <v>277</v>
       </c>
       <c r="I63" t="s">
-        <v>296</v>
+        <v>417</v>
       </c>
       <c r="J63" t="s">
-        <v>393</v>
+        <v>514</v>
       </c>
       <c r="K63">
         <v>54054</v>
       </c>
       <c r="L63" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M63" t="s">
-        <v>484</v>
+        <v>605</v>
       </c>
       <c r="N63" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O63" t="s">
-        <v>625</v>
+        <v>746</v>
       </c>
       <c r="P63" t="s">
-        <v>765</v>
+        <v>886</v>
       </c>
       <c r="Q63">
         <v>9610928</v>
@@ -6088,49 +6446,49 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="B64" t="s">
-        <v>37</v>
+        <v>158</v>
       </c>
       <c r="C64" t="s">
-        <v>58</v>
+        <v>179</v>
       </c>
       <c r="D64" t="s">
-        <v>68</v>
+        <v>189</v>
       </c>
       <c r="E64" t="s">
-        <v>78</v>
+        <v>199</v>
       </c>
       <c r="F64" t="s">
-        <v>88</v>
+        <v>209</v>
       </c>
       <c r="G64" t="s">
-        <v>157</v>
+        <v>278</v>
       </c>
       <c r="I64" t="s">
-        <v>297</v>
+        <v>418</v>
       </c>
       <c r="J64" t="s">
-        <v>400</v>
+        <v>521</v>
       </c>
       <c r="K64">
         <v>43382</v>
       </c>
       <c r="L64" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M64" t="s">
-        <v>485</v>
+        <v>606</v>
       </c>
       <c r="N64" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O64" t="s">
-        <v>626</v>
+        <v>747</v>
       </c>
       <c r="P64" t="s">
-        <v>766</v>
+        <v>887</v>
       </c>
       <c r="Q64">
         <v>3342078</v>
@@ -6138,49 +6496,49 @@
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="B65" t="s">
-        <v>43</v>
+        <v>164</v>
       </c>
       <c r="C65" t="s">
-        <v>58</v>
+        <v>179</v>
       </c>
       <c r="D65" t="s">
-        <v>68</v>
+        <v>189</v>
       </c>
       <c r="E65" t="s">
-        <v>78</v>
+        <v>199</v>
       </c>
       <c r="F65" t="s">
-        <v>88</v>
+        <v>209</v>
       </c>
       <c r="G65" t="s">
-        <v>158</v>
+        <v>279</v>
       </c>
       <c r="I65" t="s">
-        <v>298</v>
+        <v>419</v>
       </c>
       <c r="J65" t="s">
-        <v>374</v>
+        <v>495</v>
       </c>
       <c r="K65">
         <v>46943</v>
       </c>
       <c r="L65" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M65" t="s">
-        <v>486</v>
+        <v>607</v>
       </c>
       <c r="N65" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O65" t="s">
-        <v>627</v>
+        <v>748</v>
       </c>
       <c r="P65" t="s">
-        <v>767</v>
+        <v>888</v>
       </c>
       <c r="Q65">
         <v>4901850</v>
@@ -6188,49 +6546,49 @@
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="B66" t="s">
-        <v>44</v>
+        <v>165</v>
       </c>
       <c r="C66" t="s">
-        <v>58</v>
+        <v>179</v>
       </c>
       <c r="D66" t="s">
-        <v>68</v>
+        <v>189</v>
       </c>
       <c r="E66" t="s">
-        <v>78</v>
+        <v>199</v>
       </c>
       <c r="F66" t="s">
-        <v>88</v>
+        <v>209</v>
       </c>
       <c r="G66" t="s">
-        <v>159</v>
+        <v>280</v>
       </c>
       <c r="I66" t="s">
-        <v>299</v>
+        <v>420</v>
       </c>
       <c r="J66" t="s">
-        <v>406</v>
+        <v>527</v>
       </c>
       <c r="K66">
         <v>31960</v>
       </c>
       <c r="L66" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M66" t="s">
-        <v>487</v>
+        <v>608</v>
       </c>
       <c r="N66" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O66" t="s">
-        <v>628</v>
+        <v>749</v>
       </c>
       <c r="P66" t="s">
-        <v>768</v>
+        <v>889</v>
       </c>
       <c r="Q66">
         <v>1983135</v>
@@ -6238,49 +6596,49 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="B67" t="s">
-        <v>50</v>
+        <v>171</v>
       </c>
       <c r="C67" t="s">
-        <v>58</v>
+        <v>179</v>
       </c>
       <c r="D67" t="s">
-        <v>68</v>
+        <v>189</v>
       </c>
       <c r="E67" t="s">
-        <v>78</v>
+        <v>199</v>
       </c>
       <c r="F67" t="s">
-        <v>88</v>
+        <v>209</v>
       </c>
       <c r="G67" t="s">
-        <v>160</v>
+        <v>281</v>
       </c>
       <c r="I67" t="s">
-        <v>300</v>
+        <v>421</v>
       </c>
       <c r="J67" t="s">
-        <v>411</v>
+        <v>532</v>
       </c>
       <c r="K67">
         <v>42892</v>
       </c>
       <c r="L67" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M67" t="s">
-        <v>488</v>
+        <v>609</v>
       </c>
       <c r="N67" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O67" t="s">
-        <v>629</v>
+        <v>750</v>
       </c>
       <c r="P67" t="s">
-        <v>769</v>
+        <v>890</v>
       </c>
       <c r="Q67">
         <v>1256943</v>
@@ -6288,49 +6646,49 @@
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="B68" t="s">
-        <v>53</v>
+        <v>174</v>
       </c>
       <c r="C68" t="s">
-        <v>58</v>
+        <v>179</v>
       </c>
       <c r="D68" t="s">
-        <v>68</v>
+        <v>189</v>
       </c>
       <c r="E68" t="s">
-        <v>78</v>
+        <v>199</v>
       </c>
       <c r="F68" t="s">
-        <v>88</v>
+        <v>209</v>
       </c>
       <c r="G68" t="s">
-        <v>161</v>
+        <v>282</v>
       </c>
       <c r="I68" t="s">
-        <v>301</v>
+        <v>422</v>
       </c>
       <c r="J68" t="s">
-        <v>409</v>
+        <v>530</v>
       </c>
       <c r="K68">
         <v>7574</v>
       </c>
       <c r="L68" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M68" t="s">
-        <v>489</v>
+        <v>610</v>
       </c>
       <c r="N68" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O68" t="s">
-        <v>630</v>
+        <v>751</v>
       </c>
       <c r="P68" t="s">
-        <v>770</v>
+        <v>891</v>
       </c>
       <c r="Q68">
         <v>6462929</v>
@@ -6338,49 +6696,49 @@
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="B69" t="s">
-        <v>54</v>
+        <v>175</v>
       </c>
       <c r="C69" t="s">
-        <v>58</v>
+        <v>179</v>
       </c>
       <c r="D69" t="s">
-        <v>68</v>
+        <v>189</v>
       </c>
       <c r="E69" t="s">
-        <v>78</v>
+        <v>199</v>
       </c>
       <c r="F69" t="s">
-        <v>88</v>
+        <v>209</v>
       </c>
       <c r="G69" t="s">
-        <v>162</v>
+        <v>283</v>
       </c>
       <c r="I69" t="s">
-        <v>302</v>
+        <v>423</v>
       </c>
       <c r="J69" t="s">
-        <v>412</v>
+        <v>533</v>
       </c>
       <c r="K69">
         <v>80274</v>
       </c>
       <c r="L69" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M69" t="s">
-        <v>490</v>
+        <v>611</v>
       </c>
       <c r="N69" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O69" t="s">
-        <v>631</v>
+        <v>752</v>
       </c>
       <c r="P69" t="s">
-        <v>771</v>
+        <v>892</v>
       </c>
       <c r="Q69">
         <v>6482755</v>
@@ -6388,49 +6746,49 @@
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="B70" t="s">
-        <v>38</v>
+        <v>159</v>
       </c>
       <c r="C70" t="s">
-        <v>58</v>
+        <v>179</v>
       </c>
       <c r="D70" t="s">
-        <v>68</v>
+        <v>189</v>
       </c>
       <c r="E70" t="s">
-        <v>78</v>
+        <v>199</v>
       </c>
       <c r="F70" t="s">
-        <v>88</v>
+        <v>209</v>
       </c>
       <c r="G70" t="s">
-        <v>163</v>
+        <v>284</v>
       </c>
       <c r="I70" t="s">
-        <v>303</v>
+        <v>424</v>
       </c>
       <c r="J70" t="s">
-        <v>400</v>
+        <v>521</v>
       </c>
       <c r="K70">
         <v>74380</v>
       </c>
       <c r="L70" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M70" t="s">
-        <v>491</v>
+        <v>612</v>
       </c>
       <c r="N70" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O70" t="s">
-        <v>632</v>
+        <v>753</v>
       </c>
       <c r="P70" t="s">
-        <v>772</v>
+        <v>893</v>
       </c>
       <c r="Q70">
         <v>7829708</v>
@@ -6438,49 +6796,49 @@
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="B71" t="s">
-        <v>51</v>
+        <v>172</v>
       </c>
       <c r="C71" t="s">
-        <v>58</v>
+        <v>179</v>
       </c>
       <c r="D71" t="s">
-        <v>68</v>
+        <v>189</v>
       </c>
       <c r="E71" t="s">
-        <v>78</v>
+        <v>199</v>
       </c>
       <c r="F71" t="s">
-        <v>88</v>
+        <v>209</v>
       </c>
       <c r="G71" t="s">
-        <v>164</v>
+        <v>285</v>
       </c>
       <c r="I71" t="s">
-        <v>304</v>
+        <v>425</v>
       </c>
       <c r="J71" t="s">
-        <v>410</v>
+        <v>531</v>
       </c>
       <c r="K71">
         <v>77366</v>
       </c>
       <c r="L71" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M71" t="s">
-        <v>492</v>
+        <v>613</v>
       </c>
       <c r="N71" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O71" t="s">
-        <v>633</v>
+        <v>754</v>
       </c>
       <c r="P71" t="s">
-        <v>773</v>
+        <v>894</v>
       </c>
       <c r="Q71">
         <v>9924658</v>
@@ -6488,49 +6846,49 @@
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="B72" t="s">
-        <v>45</v>
+        <v>166</v>
       </c>
       <c r="C72" t="s">
-        <v>59</v>
+        <v>180</v>
       </c>
       <c r="D72" t="s">
-        <v>69</v>
+        <v>190</v>
       </c>
       <c r="E72" t="s">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="F72" t="s">
-        <v>89</v>
+        <v>210</v>
       </c>
       <c r="G72" t="s">
-        <v>165</v>
+        <v>286</v>
       </c>
       <c r="I72" t="s">
-        <v>305</v>
+        <v>426</v>
       </c>
       <c r="J72" t="s">
-        <v>400</v>
+        <v>521</v>
       </c>
       <c r="K72">
         <v>20913</v>
       </c>
       <c r="L72" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M72" t="s">
-        <v>493</v>
+        <v>614</v>
       </c>
       <c r="N72" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O72" t="s">
-        <v>634</v>
+        <v>755</v>
       </c>
       <c r="P72" t="s">
-        <v>774</v>
+        <v>895</v>
       </c>
       <c r="Q72">
         <v>6795525</v>
@@ -6538,49 +6896,49 @@
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="B73" t="s">
-        <v>46</v>
+        <v>167</v>
       </c>
       <c r="C73" t="s">
-        <v>59</v>
+        <v>180</v>
       </c>
       <c r="D73" t="s">
-        <v>69</v>
+        <v>190</v>
       </c>
       <c r="E73" t="s">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="F73" t="s">
-        <v>89</v>
+        <v>210</v>
       </c>
       <c r="G73" t="s">
-        <v>166</v>
+        <v>287</v>
       </c>
       <c r="I73" t="s">
-        <v>306</v>
+        <v>427</v>
       </c>
       <c r="J73" t="s">
-        <v>377</v>
+        <v>498</v>
       </c>
       <c r="K73">
         <v>99356</v>
       </c>
       <c r="L73" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M73" t="s">
-        <v>494</v>
+        <v>615</v>
       </c>
       <c r="N73" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O73" t="s">
-        <v>635</v>
+        <v>756</v>
       </c>
       <c r="P73" t="s">
-        <v>775</v>
+        <v>896</v>
       </c>
       <c r="Q73">
         <v>6677157</v>
@@ -6588,49 +6946,49 @@
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="B74" t="s">
-        <v>40</v>
+        <v>161</v>
       </c>
       <c r="C74" t="s">
-        <v>59</v>
+        <v>180</v>
       </c>
       <c r="D74" t="s">
-        <v>69</v>
+        <v>190</v>
       </c>
       <c r="E74" t="s">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="F74" t="s">
-        <v>89</v>
+        <v>210</v>
       </c>
       <c r="G74" t="s">
-        <v>167</v>
+        <v>288</v>
       </c>
       <c r="I74" t="s">
-        <v>307</v>
+        <v>428</v>
       </c>
       <c r="J74" t="s">
-        <v>400</v>
+        <v>521</v>
       </c>
       <c r="K74">
         <v>55843</v>
       </c>
       <c r="L74" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M74" t="s">
-        <v>495</v>
+        <v>616</v>
       </c>
       <c r="N74" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O74" t="s">
-        <v>636</v>
+        <v>757</v>
       </c>
       <c r="P74" t="s">
-        <v>776</v>
+        <v>897</v>
       </c>
       <c r="Q74">
         <v>9664143</v>
@@ -6638,49 +6996,49 @@
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="B75" t="s">
-        <v>47</v>
+        <v>168</v>
       </c>
       <c r="C75" t="s">
-        <v>59</v>
+        <v>180</v>
       </c>
       <c r="D75" t="s">
-        <v>69</v>
+        <v>190</v>
       </c>
       <c r="E75" t="s">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="F75" t="s">
-        <v>89</v>
+        <v>210</v>
       </c>
       <c r="G75" t="s">
-        <v>168</v>
+        <v>289</v>
       </c>
       <c r="I75" t="s">
-        <v>308</v>
+        <v>429</v>
       </c>
       <c r="J75" t="s">
-        <v>387</v>
+        <v>508</v>
       </c>
       <c r="K75">
         <v>73245</v>
       </c>
       <c r="L75" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M75" t="s">
-        <v>496</v>
+        <v>617</v>
       </c>
       <c r="N75" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O75" t="s">
-        <v>637</v>
+        <v>758</v>
       </c>
       <c r="P75" t="s">
-        <v>777</v>
+        <v>898</v>
       </c>
       <c r="Q75">
         <v>7109069</v>
@@ -6688,49 +7046,49 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="B76" t="s">
-        <v>41</v>
+        <v>162</v>
       </c>
       <c r="C76" t="s">
-        <v>59</v>
+        <v>180</v>
       </c>
       <c r="D76" t="s">
-        <v>69</v>
+        <v>190</v>
       </c>
       <c r="E76" t="s">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="F76" t="s">
-        <v>89</v>
+        <v>210</v>
       </c>
       <c r="G76" t="s">
-        <v>169</v>
+        <v>290</v>
       </c>
       <c r="I76" t="s">
-        <v>309</v>
+        <v>430</v>
       </c>
       <c r="J76" t="s">
-        <v>399</v>
+        <v>520</v>
       </c>
       <c r="K76">
         <v>17162</v>
       </c>
       <c r="L76" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M76" t="s">
-        <v>497</v>
+        <v>618</v>
       </c>
       <c r="N76" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O76" t="s">
-        <v>638</v>
+        <v>759</v>
       </c>
       <c r="P76" t="s">
-        <v>778</v>
+        <v>899</v>
       </c>
       <c r="Q76">
         <v>6303316</v>
@@ -6738,49 +7096,49 @@
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="B77" t="s">
-        <v>48</v>
+        <v>169</v>
       </c>
       <c r="C77" t="s">
-        <v>59</v>
+        <v>180</v>
       </c>
       <c r="D77" t="s">
-        <v>69</v>
+        <v>190</v>
       </c>
       <c r="E77" t="s">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="F77" t="s">
-        <v>89</v>
+        <v>210</v>
       </c>
       <c r="G77" t="s">
-        <v>170</v>
+        <v>291</v>
       </c>
       <c r="I77" t="s">
-        <v>310</v>
+        <v>431</v>
       </c>
       <c r="J77" t="s">
-        <v>386</v>
+        <v>507</v>
       </c>
       <c r="K77">
         <v>16907</v>
       </c>
       <c r="L77" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M77" t="s">
-        <v>498</v>
+        <v>619</v>
       </c>
       <c r="N77" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O77" t="s">
-        <v>639</v>
+        <v>760</v>
       </c>
       <c r="P77" t="s">
-        <v>779</v>
+        <v>900</v>
       </c>
       <c r="Q77">
         <v>4387656</v>
@@ -6788,49 +7146,49 @@
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="B78" t="s">
-        <v>49</v>
+        <v>170</v>
       </c>
       <c r="C78" t="s">
-        <v>59</v>
+        <v>180</v>
       </c>
       <c r="D78" t="s">
-        <v>69</v>
+        <v>190</v>
       </c>
       <c r="E78" t="s">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="F78" t="s">
-        <v>89</v>
+        <v>210</v>
       </c>
       <c r="G78" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
       <c r="I78" t="s">
-        <v>311</v>
+        <v>432</v>
       </c>
       <c r="J78" t="s">
-        <v>400</v>
+        <v>521</v>
       </c>
       <c r="K78">
         <v>59156</v>
       </c>
       <c r="L78" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M78" t="s">
-        <v>499</v>
+        <v>620</v>
       </c>
       <c r="N78" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O78" t="s">
-        <v>640</v>
+        <v>761</v>
       </c>
       <c r="P78" t="s">
-        <v>780</v>
+        <v>901</v>
       </c>
       <c r="Q78">
         <v>8648415</v>
@@ -6838,49 +7196,49 @@
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="B79" t="s">
-        <v>42</v>
+        <v>163</v>
       </c>
       <c r="C79" t="s">
-        <v>59</v>
+        <v>180</v>
       </c>
       <c r="D79" t="s">
-        <v>69</v>
+        <v>190</v>
       </c>
       <c r="E79" t="s">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="F79" t="s">
-        <v>89</v>
+        <v>210</v>
       </c>
       <c r="G79" t="s">
-        <v>172</v>
+        <v>293</v>
       </c>
       <c r="I79" t="s">
-        <v>312</v>
+        <v>433</v>
       </c>
       <c r="J79" t="s">
-        <v>405</v>
+        <v>526</v>
       </c>
       <c r="K79">
         <v>98116</v>
       </c>
       <c r="L79" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M79" t="s">
-        <v>500</v>
+        <v>621</v>
       </c>
       <c r="N79" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O79" t="s">
-        <v>641</v>
+        <v>762</v>
       </c>
       <c r="P79" t="s">
-        <v>781</v>
+        <v>902</v>
       </c>
       <c r="Q79">
         <v>5562057</v>
@@ -6888,49 +7246,49 @@
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="B80" t="s">
-        <v>37</v>
+        <v>158</v>
       </c>
       <c r="C80" t="s">
-        <v>59</v>
+        <v>180</v>
       </c>
       <c r="D80" t="s">
-        <v>69</v>
+        <v>190</v>
       </c>
       <c r="E80" t="s">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="F80" t="s">
-        <v>89</v>
+        <v>210</v>
       </c>
       <c r="G80" t="s">
-        <v>173</v>
+        <v>294</v>
       </c>
       <c r="I80" t="s">
-        <v>313</v>
+        <v>434</v>
       </c>
       <c r="J80" t="s">
-        <v>387</v>
+        <v>508</v>
       </c>
       <c r="K80">
         <v>80891</v>
       </c>
       <c r="L80" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M80" t="s">
-        <v>501</v>
+        <v>622</v>
       </c>
       <c r="N80" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O80" t="s">
-        <v>642</v>
+        <v>763</v>
       </c>
       <c r="P80" t="s">
-        <v>782</v>
+        <v>903</v>
       </c>
       <c r="Q80">
         <v>9277705</v>
@@ -6938,49 +7296,49 @@
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="B81" t="s">
-        <v>43</v>
+        <v>164</v>
       </c>
       <c r="C81" t="s">
-        <v>59</v>
+        <v>180</v>
       </c>
       <c r="D81" t="s">
-        <v>69</v>
+        <v>190</v>
       </c>
       <c r="E81" t="s">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="F81" t="s">
-        <v>89</v>
+        <v>210</v>
       </c>
       <c r="G81" t="s">
-        <v>174</v>
+        <v>295</v>
       </c>
       <c r="I81" t="s">
-        <v>314</v>
+        <v>435</v>
       </c>
       <c r="J81" t="s">
-        <v>413</v>
+        <v>534</v>
       </c>
       <c r="K81">
         <v>15842</v>
       </c>
       <c r="L81" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M81" t="s">
-        <v>502</v>
+        <v>623</v>
       </c>
       <c r="N81" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O81" t="s">
-        <v>643</v>
+        <v>764</v>
       </c>
       <c r="P81" t="s">
-        <v>783</v>
+        <v>904</v>
       </c>
       <c r="Q81">
         <v>1337425</v>
@@ -6988,49 +7346,49 @@
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="B82" t="s">
-        <v>50</v>
+        <v>171</v>
       </c>
       <c r="C82" t="s">
-        <v>59</v>
+        <v>180</v>
       </c>
       <c r="D82" t="s">
-        <v>69</v>
+        <v>190</v>
       </c>
       <c r="E82" t="s">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="F82" t="s">
-        <v>89</v>
+        <v>210</v>
       </c>
       <c r="G82" t="s">
-        <v>175</v>
+        <v>296</v>
       </c>
       <c r="I82" t="s">
-        <v>315</v>
+        <v>436</v>
       </c>
       <c r="J82" t="s">
-        <v>414</v>
+        <v>535</v>
       </c>
       <c r="K82">
         <v>47933</v>
       </c>
       <c r="L82" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M82" t="s">
-        <v>503</v>
+        <v>624</v>
       </c>
       <c r="N82" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O82" t="s">
-        <v>644</v>
+        <v>765</v>
       </c>
       <c r="P82" t="s">
-        <v>784</v>
+        <v>905</v>
       </c>
       <c r="Q82">
         <v>3117005</v>
@@ -7038,49 +7396,49 @@
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="B83" t="s">
-        <v>53</v>
+        <v>174</v>
       </c>
       <c r="C83" t="s">
-        <v>59</v>
+        <v>180</v>
       </c>
       <c r="D83" t="s">
-        <v>69</v>
+        <v>190</v>
       </c>
       <c r="E83" t="s">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="F83" t="s">
-        <v>89</v>
+        <v>210</v>
       </c>
       <c r="G83" t="s">
-        <v>176</v>
+        <v>297</v>
       </c>
       <c r="I83" t="s">
-        <v>316</v>
+        <v>437</v>
       </c>
       <c r="J83" t="s">
-        <v>415</v>
+        <v>536</v>
       </c>
       <c r="K83">
         <v>67258</v>
       </c>
       <c r="L83" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M83" t="s">
-        <v>504</v>
+        <v>625</v>
       </c>
       <c r="N83" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O83" t="s">
-        <v>645</v>
+        <v>766</v>
       </c>
       <c r="P83" t="s">
-        <v>785</v>
+        <v>906</v>
       </c>
       <c r="Q83">
         <v>8654521</v>
@@ -7088,49 +7446,49 @@
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="B84" t="s">
-        <v>54</v>
+        <v>175</v>
       </c>
       <c r="C84" t="s">
-        <v>59</v>
+        <v>180</v>
       </c>
       <c r="D84" t="s">
-        <v>69</v>
+        <v>190</v>
       </c>
       <c r="E84" t="s">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="F84" t="s">
-        <v>89</v>
+        <v>210</v>
       </c>
       <c r="G84" t="s">
-        <v>177</v>
+        <v>298</v>
       </c>
       <c r="I84" t="s">
-        <v>317</v>
+        <v>438</v>
       </c>
       <c r="J84" t="s">
-        <v>389</v>
+        <v>510</v>
       </c>
       <c r="K84">
         <v>25765</v>
       </c>
       <c r="L84" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M84" t="s">
-        <v>505</v>
+        <v>626</v>
       </c>
       <c r="N84" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O84" t="s">
-        <v>646</v>
+        <v>767</v>
       </c>
       <c r="P84" t="s">
-        <v>786</v>
+        <v>907</v>
       </c>
       <c r="Q84">
         <v>3113093</v>
@@ -7138,49 +7496,49 @@
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="B85" t="s">
-        <v>38</v>
+        <v>159</v>
       </c>
       <c r="C85" t="s">
-        <v>59</v>
+        <v>180</v>
       </c>
       <c r="D85" t="s">
-        <v>69</v>
+        <v>190</v>
       </c>
       <c r="E85" t="s">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="F85" t="s">
-        <v>89</v>
+        <v>210</v>
       </c>
       <c r="G85" t="s">
-        <v>178</v>
+        <v>299</v>
       </c>
       <c r="I85" t="s">
-        <v>318</v>
+        <v>439</v>
       </c>
       <c r="J85" t="s">
-        <v>416</v>
+        <v>537</v>
       </c>
       <c r="K85">
         <v>42041</v>
       </c>
       <c r="L85" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M85" t="s">
-        <v>506</v>
+        <v>627</v>
       </c>
       <c r="N85" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O85" t="s">
-        <v>647</v>
+        <v>768</v>
       </c>
       <c r="P85" t="s">
-        <v>787</v>
+        <v>908</v>
       </c>
       <c r="Q85">
         <v>1651378</v>
@@ -7188,49 +7546,49 @@
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="B86" t="s">
-        <v>51</v>
+        <v>172</v>
       </c>
       <c r="C86" t="s">
-        <v>59</v>
+        <v>180</v>
       </c>
       <c r="D86" t="s">
-        <v>69</v>
+        <v>190</v>
       </c>
       <c r="E86" t="s">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="F86" t="s">
-        <v>89</v>
+        <v>210</v>
       </c>
       <c r="G86" t="s">
-        <v>179</v>
+        <v>300</v>
       </c>
       <c r="I86" t="s">
-        <v>319</v>
+        <v>440</v>
       </c>
       <c r="J86" t="s">
-        <v>416</v>
+        <v>537</v>
       </c>
       <c r="K86">
         <v>92896</v>
       </c>
       <c r="L86" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M86" t="s">
-        <v>507</v>
+        <v>628</v>
       </c>
       <c r="N86" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O86" t="s">
-        <v>648</v>
+        <v>769</v>
       </c>
       <c r="P86" t="s">
-        <v>788</v>
+        <v>909</v>
       </c>
       <c r="Q86">
         <v>3700128</v>
@@ -7238,49 +7596,49 @@
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="B87" t="s">
-        <v>45</v>
+        <v>166</v>
       </c>
       <c r="C87" t="s">
-        <v>60</v>
+        <v>181</v>
       </c>
       <c r="D87" t="s">
-        <v>70</v>
+        <v>191</v>
       </c>
       <c r="E87" t="s">
-        <v>80</v>
+        <v>201</v>
       </c>
       <c r="F87" t="s">
-        <v>90</v>
+        <v>211</v>
       </c>
       <c r="G87" t="s">
-        <v>180</v>
+        <v>301</v>
       </c>
       <c r="I87" t="s">
-        <v>320</v>
+        <v>441</v>
       </c>
       <c r="J87" t="s">
-        <v>394</v>
+        <v>515</v>
       </c>
       <c r="K87">
         <v>17598</v>
       </c>
       <c r="L87" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M87" t="s">
-        <v>508</v>
+        <v>629</v>
       </c>
       <c r="N87" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O87" t="s">
-        <v>649</v>
+        <v>770</v>
       </c>
       <c r="P87" t="s">
-        <v>789</v>
+        <v>910</v>
       </c>
       <c r="Q87">
         <v>8141586</v>
@@ -7288,49 +7646,49 @@
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="B88" t="s">
-        <v>46</v>
+        <v>167</v>
       </c>
       <c r="C88" t="s">
-        <v>60</v>
+        <v>181</v>
       </c>
       <c r="D88" t="s">
-        <v>70</v>
+        <v>191</v>
       </c>
       <c r="E88" t="s">
-        <v>80</v>
+        <v>201</v>
       </c>
       <c r="F88" t="s">
-        <v>90</v>
+        <v>211</v>
       </c>
       <c r="G88" t="s">
-        <v>181</v>
+        <v>302</v>
       </c>
       <c r="I88" t="s">
-        <v>321</v>
+        <v>442</v>
       </c>
       <c r="J88" t="s">
-        <v>416</v>
+        <v>537</v>
       </c>
       <c r="K88">
         <v>53207</v>
       </c>
       <c r="L88" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M88" t="s">
-        <v>509</v>
+        <v>630</v>
       </c>
       <c r="N88" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O88" t="s">
-        <v>650</v>
+        <v>771</v>
       </c>
       <c r="P88" t="s">
-        <v>790</v>
+        <v>911</v>
       </c>
       <c r="Q88">
         <v>9074742</v>
@@ -7338,49 +7696,49 @@
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="B89" t="s">
-        <v>40</v>
+        <v>161</v>
       </c>
       <c r="C89" t="s">
-        <v>60</v>
+        <v>181</v>
       </c>
       <c r="D89" t="s">
-        <v>70</v>
+        <v>191</v>
       </c>
       <c r="E89" t="s">
-        <v>80</v>
+        <v>201</v>
       </c>
       <c r="F89" t="s">
-        <v>90</v>
+        <v>211</v>
       </c>
       <c r="G89" t="s">
-        <v>182</v>
+        <v>303</v>
       </c>
       <c r="I89" t="s">
-        <v>322</v>
+        <v>443</v>
       </c>
       <c r="J89" t="s">
-        <v>383</v>
+        <v>504</v>
       </c>
       <c r="K89">
         <v>62750</v>
       </c>
       <c r="L89" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M89" t="s">
-        <v>510</v>
+        <v>631</v>
       </c>
       <c r="N89" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O89" t="s">
-        <v>651</v>
+        <v>772</v>
       </c>
       <c r="P89" t="s">
-        <v>791</v>
+        <v>912</v>
       </c>
       <c r="Q89">
         <v>5440337</v>
@@ -7388,49 +7746,49 @@
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="B90" t="s">
-        <v>36</v>
+        <v>157</v>
       </c>
       <c r="C90" t="s">
-        <v>60</v>
+        <v>181</v>
       </c>
       <c r="D90" t="s">
-        <v>70</v>
+        <v>191</v>
       </c>
       <c r="E90" t="s">
-        <v>80</v>
+        <v>201</v>
       </c>
       <c r="F90" t="s">
-        <v>90</v>
+        <v>211</v>
       </c>
       <c r="G90" t="s">
-        <v>183</v>
+        <v>304</v>
       </c>
       <c r="I90" t="s">
-        <v>323</v>
+        <v>444</v>
       </c>
       <c r="J90" t="s">
-        <v>397</v>
+        <v>518</v>
       </c>
       <c r="K90">
         <v>24596</v>
       </c>
       <c r="L90" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M90" t="s">
-        <v>511</v>
+        <v>632</v>
       </c>
       <c r="N90" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O90" t="s">
-        <v>652</v>
+        <v>773</v>
       </c>
       <c r="P90" t="s">
-        <v>792</v>
+        <v>913</v>
       </c>
       <c r="Q90">
         <v>5632193</v>
@@ -7438,49 +7796,49 @@
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="B91" t="s">
-        <v>41</v>
+        <v>162</v>
       </c>
       <c r="C91" t="s">
-        <v>60</v>
+        <v>181</v>
       </c>
       <c r="D91" t="s">
-        <v>70</v>
+        <v>191</v>
       </c>
       <c r="E91" t="s">
-        <v>80</v>
+        <v>201</v>
       </c>
       <c r="F91" t="s">
-        <v>90</v>
+        <v>211</v>
       </c>
       <c r="G91" t="s">
-        <v>184</v>
+        <v>305</v>
       </c>
       <c r="I91" t="s">
-        <v>324</v>
+        <v>445</v>
       </c>
       <c r="J91" t="s">
-        <v>384</v>
+        <v>505</v>
       </c>
       <c r="K91">
         <v>85386</v>
       </c>
       <c r="L91" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M91" t="s">
-        <v>512</v>
+        <v>633</v>
       </c>
       <c r="N91" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O91" t="s">
-        <v>653</v>
+        <v>774</v>
       </c>
       <c r="P91" t="s">
-        <v>793</v>
+        <v>914</v>
       </c>
       <c r="Q91">
         <v>4259961</v>
@@ -7488,49 +7846,49 @@
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="B92" t="s">
-        <v>48</v>
+        <v>169</v>
       </c>
       <c r="C92" t="s">
-        <v>60</v>
+        <v>181</v>
       </c>
       <c r="D92" t="s">
-        <v>70</v>
+        <v>191</v>
       </c>
       <c r="E92" t="s">
-        <v>80</v>
+        <v>201</v>
       </c>
       <c r="F92" t="s">
-        <v>90</v>
+        <v>211</v>
       </c>
       <c r="G92" t="s">
-        <v>185</v>
+        <v>306</v>
       </c>
       <c r="I92" t="s">
-        <v>325</v>
+        <v>446</v>
       </c>
       <c r="J92" t="s">
-        <v>390</v>
+        <v>511</v>
       </c>
       <c r="K92">
         <v>882</v>
       </c>
       <c r="L92" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M92" t="s">
-        <v>513</v>
+        <v>634</v>
       </c>
       <c r="N92" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O92" t="s">
-        <v>654</v>
+        <v>775</v>
       </c>
       <c r="P92" t="s">
-        <v>794</v>
+        <v>915</v>
       </c>
       <c r="Q92">
         <v>9092093</v>
@@ -7538,49 +7896,49 @@
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="B93" t="s">
-        <v>49</v>
+        <v>170</v>
       </c>
       <c r="C93" t="s">
-        <v>60</v>
+        <v>181</v>
       </c>
       <c r="D93" t="s">
-        <v>70</v>
+        <v>191</v>
       </c>
       <c r="E93" t="s">
-        <v>80</v>
+        <v>201</v>
       </c>
       <c r="F93" t="s">
-        <v>90</v>
+        <v>211</v>
       </c>
       <c r="G93" t="s">
-        <v>186</v>
+        <v>307</v>
       </c>
       <c r="I93" t="s">
-        <v>326</v>
+        <v>447</v>
       </c>
       <c r="J93" t="s">
-        <v>378</v>
+        <v>499</v>
       </c>
       <c r="K93">
         <v>4188</v>
       </c>
       <c r="L93" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M93" t="s">
-        <v>514</v>
+        <v>635</v>
       </c>
       <c r="N93" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O93" t="s">
-        <v>655</v>
+        <v>776</v>
       </c>
       <c r="P93" t="s">
-        <v>795</v>
+        <v>916</v>
       </c>
       <c r="Q93">
         <v>8145419</v>
@@ -7588,49 +7946,49 @@
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="B94" t="s">
-        <v>42</v>
+        <v>163</v>
       </c>
       <c r="C94" t="s">
-        <v>60</v>
+        <v>181</v>
       </c>
       <c r="D94" t="s">
-        <v>70</v>
+        <v>191</v>
       </c>
       <c r="E94" t="s">
-        <v>80</v>
+        <v>201</v>
       </c>
       <c r="F94" t="s">
-        <v>90</v>
+        <v>211</v>
       </c>
       <c r="G94" t="s">
-        <v>187</v>
+        <v>308</v>
       </c>
       <c r="I94" t="s">
-        <v>327</v>
+        <v>448</v>
       </c>
       <c r="J94" t="s">
-        <v>417</v>
+        <v>538</v>
       </c>
       <c r="K94">
         <v>4410</v>
       </c>
       <c r="L94" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M94" t="s">
-        <v>515</v>
+        <v>636</v>
       </c>
       <c r="N94" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O94" t="s">
-        <v>656</v>
+        <v>777</v>
       </c>
       <c r="P94" t="s">
-        <v>796</v>
+        <v>917</v>
       </c>
       <c r="Q94">
         <v>5174627</v>
@@ -7638,49 +7996,49 @@
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="B95" t="s">
-        <v>37</v>
+        <v>158</v>
       </c>
       <c r="C95" t="s">
-        <v>60</v>
+        <v>181</v>
       </c>
       <c r="D95" t="s">
-        <v>70</v>
+        <v>191</v>
       </c>
       <c r="E95" t="s">
-        <v>80</v>
+        <v>201</v>
       </c>
       <c r="F95" t="s">
-        <v>90</v>
+        <v>211</v>
       </c>
       <c r="G95" t="s">
-        <v>188</v>
+        <v>309</v>
       </c>
       <c r="I95" t="s">
-        <v>328</v>
+        <v>449</v>
       </c>
       <c r="J95" t="s">
-        <v>406</v>
+        <v>527</v>
       </c>
       <c r="K95">
         <v>35490</v>
       </c>
       <c r="L95" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M95" t="s">
-        <v>516</v>
+        <v>637</v>
       </c>
       <c r="N95" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O95" t="s">
-        <v>657</v>
+        <v>778</v>
       </c>
       <c r="P95" t="s">
-        <v>797</v>
+        <v>918</v>
       </c>
       <c r="Q95">
         <v>1136326</v>
@@ -7688,49 +8046,49 @@
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="B96" t="s">
-        <v>50</v>
+        <v>171</v>
       </c>
       <c r="C96" t="s">
-        <v>60</v>
+        <v>181</v>
       </c>
       <c r="D96" t="s">
-        <v>70</v>
+        <v>191</v>
       </c>
       <c r="E96" t="s">
-        <v>80</v>
+        <v>201</v>
       </c>
       <c r="F96" t="s">
-        <v>90</v>
+        <v>211</v>
       </c>
       <c r="G96" t="s">
-        <v>189</v>
+        <v>310</v>
       </c>
       <c r="I96" t="s">
-        <v>329</v>
+        <v>450</v>
       </c>
       <c r="J96" t="s">
-        <v>418</v>
+        <v>539</v>
       </c>
       <c r="K96">
         <v>69312</v>
       </c>
       <c r="L96" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M96" t="s">
-        <v>517</v>
+        <v>638</v>
       </c>
       <c r="N96" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O96" t="s">
-        <v>658</v>
+        <v>779</v>
       </c>
       <c r="P96" t="s">
-        <v>798</v>
+        <v>919</v>
       </c>
       <c r="Q96">
         <v>1154627</v>
@@ -7738,49 +8096,49 @@
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="B97" t="s">
-        <v>53</v>
+        <v>174</v>
       </c>
       <c r="C97" t="s">
-        <v>60</v>
+        <v>181</v>
       </c>
       <c r="D97" t="s">
-        <v>70</v>
+        <v>191</v>
       </c>
       <c r="E97" t="s">
-        <v>80</v>
+        <v>201</v>
       </c>
       <c r="F97" t="s">
-        <v>90</v>
+        <v>211</v>
       </c>
       <c r="G97" t="s">
-        <v>190</v>
+        <v>311</v>
       </c>
       <c r="I97" t="s">
-        <v>330</v>
+        <v>451</v>
       </c>
       <c r="J97" t="s">
-        <v>412</v>
+        <v>533</v>
       </c>
       <c r="K97">
         <v>24892</v>
       </c>
       <c r="L97" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M97" t="s">
-        <v>518</v>
+        <v>639</v>
       </c>
       <c r="N97" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O97" t="s">
-        <v>659</v>
+        <v>780</v>
       </c>
       <c r="P97" t="s">
-        <v>799</v>
+        <v>920</v>
       </c>
       <c r="Q97">
         <v>1399553</v>
@@ -7788,49 +8146,49 @@
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="B98" t="s">
-        <v>54</v>
+        <v>175</v>
       </c>
       <c r="C98" t="s">
-        <v>60</v>
+        <v>181</v>
       </c>
       <c r="D98" t="s">
-        <v>70</v>
+        <v>191</v>
       </c>
       <c r="E98" t="s">
-        <v>80</v>
+        <v>201</v>
       </c>
       <c r="F98" t="s">
-        <v>90</v>
+        <v>211</v>
       </c>
       <c r="G98" t="s">
-        <v>191</v>
+        <v>312</v>
       </c>
       <c r="I98" t="s">
-        <v>331</v>
+        <v>452</v>
       </c>
       <c r="J98" t="s">
-        <v>419</v>
+        <v>540</v>
       </c>
       <c r="K98">
         <v>78001</v>
       </c>
       <c r="L98" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M98" t="s">
-        <v>519</v>
+        <v>640</v>
       </c>
       <c r="N98" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O98" t="s">
-        <v>660</v>
+        <v>781</v>
       </c>
       <c r="P98" t="s">
-        <v>800</v>
+        <v>921</v>
       </c>
       <c r="Q98">
         <v>3004036</v>
@@ -7838,49 +8196,49 @@
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>19</v>
+        <v>114</v>
       </c>
       <c r="B99" t="s">
-        <v>38</v>
+        <v>159</v>
       </c>
       <c r="C99" t="s">
-        <v>60</v>
+        <v>181</v>
       </c>
       <c r="D99" t="s">
-        <v>70</v>
+        <v>191</v>
       </c>
       <c r="E99" t="s">
-        <v>80</v>
+        <v>201</v>
       </c>
       <c r="F99" t="s">
-        <v>90</v>
+        <v>211</v>
       </c>
       <c r="G99" t="s">
-        <v>192</v>
+        <v>313</v>
       </c>
       <c r="I99" t="s">
-        <v>332</v>
+        <v>453</v>
       </c>
       <c r="J99" t="s">
-        <v>420</v>
+        <v>541</v>
       </c>
       <c r="K99">
         <v>5354</v>
       </c>
       <c r="L99" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M99" t="s">
-        <v>520</v>
+        <v>641</v>
       </c>
       <c r="N99" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O99" t="s">
-        <v>661</v>
+        <v>782</v>
       </c>
       <c r="P99" t="s">
-        <v>801</v>
+        <v>922</v>
       </c>
       <c r="Q99">
         <v>5703582</v>
@@ -7888,49 +8246,49 @@
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="B100" t="s">
-        <v>46</v>
+        <v>167</v>
       </c>
       <c r="C100" t="s">
-        <v>61</v>
+        <v>182</v>
       </c>
       <c r="D100" t="s">
-        <v>71</v>
+        <v>192</v>
       </c>
       <c r="E100" t="s">
-        <v>81</v>
+        <v>202</v>
       </c>
       <c r="F100" t="s">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="G100" t="s">
-        <v>193</v>
+        <v>314</v>
       </c>
       <c r="I100" t="s">
-        <v>333</v>
+        <v>454</v>
       </c>
       <c r="J100" t="s">
-        <v>403</v>
+        <v>524</v>
       </c>
       <c r="K100">
         <v>19684</v>
       </c>
       <c r="L100" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M100" t="s">
-        <v>521</v>
+        <v>642</v>
       </c>
       <c r="N100" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O100" t="s">
-        <v>662</v>
+        <v>783</v>
       </c>
       <c r="P100" t="s">
-        <v>802</v>
+        <v>923</v>
       </c>
       <c r="Q100">
         <v>1839401</v>
@@ -7938,49 +8296,49 @@
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="B101" t="s">
-        <v>39</v>
+        <v>160</v>
       </c>
       <c r="C101" t="s">
-        <v>61</v>
+        <v>182</v>
       </c>
       <c r="D101" t="s">
-        <v>71</v>
+        <v>192</v>
       </c>
       <c r="E101" t="s">
-        <v>81</v>
+        <v>202</v>
       </c>
       <c r="F101" t="s">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="G101" t="s">
-        <v>194</v>
+        <v>315</v>
       </c>
       <c r="I101" t="s">
-        <v>334</v>
+        <v>455</v>
       </c>
       <c r="J101" t="s">
-        <v>387</v>
+        <v>508</v>
       </c>
       <c r="K101">
         <v>62549</v>
       </c>
       <c r="L101" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M101" t="s">
-        <v>522</v>
+        <v>643</v>
       </c>
       <c r="N101" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O101" t="s">
-        <v>663</v>
+        <v>784</v>
       </c>
       <c r="P101" t="s">
-        <v>803</v>
+        <v>924</v>
       </c>
       <c r="Q101">
         <v>1156704</v>
@@ -7988,49 +8346,49 @@
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="B102" t="s">
-        <v>40</v>
+        <v>161</v>
       </c>
       <c r="C102" t="s">
-        <v>61</v>
+        <v>182</v>
       </c>
       <c r="D102" t="s">
-        <v>71</v>
+        <v>192</v>
       </c>
       <c r="E102" t="s">
-        <v>81</v>
+        <v>202</v>
       </c>
       <c r="F102" t="s">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="G102" t="s">
-        <v>195</v>
+        <v>316</v>
       </c>
       <c r="I102" t="s">
-        <v>335</v>
+        <v>456</v>
       </c>
       <c r="J102" t="s">
-        <v>418</v>
+        <v>539</v>
       </c>
       <c r="K102">
         <v>66077</v>
       </c>
       <c r="L102" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M102" t="s">
-        <v>523</v>
+        <v>644</v>
       </c>
       <c r="N102" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O102" t="s">
-        <v>664</v>
+        <v>785</v>
       </c>
       <c r="P102" t="s">
-        <v>804</v>
+        <v>925</v>
       </c>
       <c r="Q102">
         <v>4681780</v>
@@ -8038,49 +8396,49 @@
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>28</v>
+        <v>118</v>
       </c>
       <c r="B103" t="s">
-        <v>47</v>
+        <v>168</v>
       </c>
       <c r="C103" t="s">
-        <v>61</v>
+        <v>182</v>
       </c>
       <c r="D103" t="s">
-        <v>71</v>
+        <v>192</v>
       </c>
       <c r="E103" t="s">
-        <v>81</v>
+        <v>202</v>
       </c>
       <c r="F103" t="s">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="G103" t="s">
-        <v>196</v>
+        <v>317</v>
       </c>
       <c r="I103" t="s">
-        <v>336</v>
+        <v>457</v>
       </c>
       <c r="J103" t="s">
-        <v>377</v>
+        <v>498</v>
       </c>
       <c r="K103">
         <v>68720</v>
       </c>
       <c r="L103" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M103" t="s">
-        <v>524</v>
+        <v>645</v>
       </c>
       <c r="N103" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O103" t="s">
-        <v>665</v>
+        <v>786</v>
       </c>
       <c r="P103" t="s">
-        <v>805</v>
+        <v>926</v>
       </c>
       <c r="Q103">
         <v>2912881</v>
@@ -8088,49 +8446,49 @@
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>17</v>
+        <v>119</v>
       </c>
       <c r="B104" t="s">
-        <v>36</v>
+        <v>157</v>
       </c>
       <c r="C104" t="s">
-        <v>61</v>
+        <v>182</v>
       </c>
       <c r="D104" t="s">
-        <v>71</v>
+        <v>192</v>
       </c>
       <c r="E104" t="s">
-        <v>81</v>
+        <v>202</v>
       </c>
       <c r="F104" t="s">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="G104" t="s">
-        <v>197</v>
+        <v>318</v>
       </c>
       <c r="I104" t="s">
-        <v>337</v>
+        <v>458</v>
       </c>
       <c r="J104" t="s">
-        <v>388</v>
+        <v>509</v>
       </c>
       <c r="K104">
         <v>17501</v>
       </c>
       <c r="L104" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M104" t="s">
-        <v>525</v>
+        <v>646</v>
       </c>
       <c r="N104" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O104" t="s">
-        <v>666</v>
+        <v>787</v>
       </c>
       <c r="P104" t="s">
-        <v>806</v>
+        <v>927</v>
       </c>
       <c r="Q104">
         <v>1621428</v>
@@ -8138,49 +8496,49 @@
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="B105" t="s">
-        <v>48</v>
+        <v>169</v>
       </c>
       <c r="C105" t="s">
-        <v>61</v>
+        <v>182</v>
       </c>
       <c r="D105" t="s">
-        <v>71</v>
+        <v>192</v>
       </c>
       <c r="E105" t="s">
-        <v>81</v>
+        <v>202</v>
       </c>
       <c r="F105" t="s">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="G105" t="s">
-        <v>198</v>
+        <v>319</v>
       </c>
       <c r="I105" t="s">
-        <v>338</v>
+        <v>459</v>
       </c>
       <c r="J105" t="s">
-        <v>374</v>
+        <v>495</v>
       </c>
       <c r="K105">
         <v>38726</v>
       </c>
       <c r="L105" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M105" t="s">
-        <v>526</v>
+        <v>647</v>
       </c>
       <c r="N105" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O105" t="s">
-        <v>667</v>
+        <v>788</v>
       </c>
       <c r="P105" t="s">
-        <v>807</v>
+        <v>928</v>
       </c>
       <c r="Q105">
         <v>7657981</v>
@@ -8188,49 +8546,49 @@
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="B106" t="s">
-        <v>49</v>
+        <v>170</v>
       </c>
       <c r="C106" t="s">
-        <v>61</v>
+        <v>182</v>
       </c>
       <c r="D106" t="s">
-        <v>71</v>
+        <v>192</v>
       </c>
       <c r="E106" t="s">
-        <v>81</v>
+        <v>202</v>
       </c>
       <c r="F106" t="s">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="G106" t="s">
-        <v>199</v>
+        <v>320</v>
       </c>
       <c r="I106" t="s">
-        <v>339</v>
+        <v>460</v>
       </c>
       <c r="J106" t="s">
-        <v>384</v>
+        <v>505</v>
       </c>
       <c r="K106">
         <v>82745</v>
       </c>
       <c r="L106" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M106" t="s">
-        <v>527</v>
+        <v>648</v>
       </c>
       <c r="N106" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O106" t="s">
-        <v>668</v>
+        <v>789</v>
       </c>
       <c r="P106" t="s">
-        <v>808</v>
+        <v>929</v>
       </c>
       <c r="Q106">
         <v>9901750</v>
@@ -8238,49 +8596,49 @@
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>23</v>
+        <v>122</v>
       </c>
       <c r="B107" t="s">
-        <v>42</v>
+        <v>163</v>
       </c>
       <c r="C107" t="s">
-        <v>61</v>
+        <v>182</v>
       </c>
       <c r="D107" t="s">
-        <v>71</v>
+        <v>192</v>
       </c>
       <c r="E107" t="s">
-        <v>81</v>
+        <v>202</v>
       </c>
       <c r="F107" t="s">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="G107" t="s">
-        <v>200</v>
+        <v>321</v>
       </c>
       <c r="I107" t="s">
-        <v>340</v>
+        <v>461</v>
       </c>
       <c r="J107" t="s">
-        <v>407</v>
+        <v>528</v>
       </c>
       <c r="K107">
         <v>70415</v>
       </c>
       <c r="L107" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M107" t="s">
-        <v>528</v>
+        <v>649</v>
       </c>
       <c r="N107" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O107" t="s">
-        <v>669</v>
+        <v>790</v>
       </c>
       <c r="P107" t="s">
-        <v>809</v>
+        <v>930</v>
       </c>
       <c r="Q107">
         <v>9270399</v>
@@ -8288,49 +8646,49 @@
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="B108" t="s">
-        <v>37</v>
+        <v>158</v>
       </c>
       <c r="C108" t="s">
-        <v>61</v>
+        <v>182</v>
       </c>
       <c r="D108" t="s">
-        <v>71</v>
+        <v>192</v>
       </c>
       <c r="E108" t="s">
-        <v>81</v>
+        <v>202</v>
       </c>
       <c r="F108" t="s">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="G108" t="s">
-        <v>201</v>
+        <v>322</v>
       </c>
       <c r="I108" t="s">
-        <v>341</v>
+        <v>462</v>
       </c>
       <c r="J108" t="s">
-        <v>392</v>
+        <v>513</v>
       </c>
       <c r="K108">
         <v>59950</v>
       </c>
       <c r="L108" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M108" t="s">
-        <v>529</v>
+        <v>650</v>
       </c>
       <c r="N108" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O108" t="s">
-        <v>670</v>
+        <v>791</v>
       </c>
       <c r="P108" t="s">
-        <v>810</v>
+        <v>931</v>
       </c>
       <c r="Q108">
         <v>9465870</v>
@@ -8338,49 +8696,49 @@
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>24</v>
+        <v>124</v>
       </c>
       <c r="B109" t="s">
-        <v>43</v>
+        <v>164</v>
       </c>
       <c r="C109" t="s">
-        <v>61</v>
+        <v>182</v>
       </c>
       <c r="D109" t="s">
-        <v>71</v>
+        <v>192</v>
       </c>
       <c r="E109" t="s">
-        <v>81</v>
+        <v>202</v>
       </c>
       <c r="F109" t="s">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="G109" t="s">
-        <v>202</v>
+        <v>323</v>
       </c>
       <c r="I109" t="s">
-        <v>342</v>
+        <v>463</v>
       </c>
       <c r="J109" t="s">
-        <v>374</v>
+        <v>495</v>
       </c>
       <c r="K109">
         <v>16701</v>
       </c>
       <c r="L109" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M109" t="s">
-        <v>530</v>
+        <v>651</v>
       </c>
       <c r="N109" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O109" t="s">
-        <v>671</v>
+        <v>792</v>
       </c>
       <c r="P109" t="s">
-        <v>811</v>
+        <v>932</v>
       </c>
       <c r="Q109">
         <v>1809180</v>
@@ -8388,49 +8746,49 @@
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="B110" t="s">
-        <v>54</v>
+        <v>175</v>
       </c>
       <c r="C110" t="s">
-        <v>61</v>
+        <v>182</v>
       </c>
       <c r="D110" t="s">
-        <v>71</v>
+        <v>192</v>
       </c>
       <c r="E110" t="s">
-        <v>81</v>
+        <v>202</v>
       </c>
       <c r="F110" t="s">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="G110" t="s">
-        <v>203</v>
+        <v>324</v>
       </c>
       <c r="I110" t="s">
-        <v>343</v>
+        <v>464</v>
       </c>
       <c r="J110" t="s">
-        <v>410</v>
+        <v>531</v>
       </c>
       <c r="K110">
         <v>93771</v>
       </c>
       <c r="L110" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M110" t="s">
-        <v>531</v>
+        <v>652</v>
       </c>
       <c r="N110" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O110" t="s">
-        <v>672</v>
+        <v>793</v>
       </c>
       <c r="P110" t="s">
-        <v>812</v>
+        <v>933</v>
       </c>
       <c r="Q110">
         <v>5946956</v>
@@ -8438,49 +8796,49 @@
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>32</v>
+        <v>126</v>
       </c>
       <c r="B111" t="s">
-        <v>51</v>
+        <v>172</v>
       </c>
       <c r="C111" t="s">
-        <v>61</v>
+        <v>182</v>
       </c>
       <c r="D111" t="s">
-        <v>71</v>
+        <v>192</v>
       </c>
       <c r="E111" t="s">
-        <v>81</v>
+        <v>202</v>
       </c>
       <c r="F111" t="s">
-        <v>91</v>
+        <v>212</v>
       </c>
       <c r="G111" t="s">
-        <v>204</v>
+        <v>325</v>
       </c>
       <c r="I111" t="s">
-        <v>344</v>
+        <v>465</v>
       </c>
       <c r="J111" t="s">
-        <v>397</v>
+        <v>518</v>
       </c>
       <c r="K111">
         <v>1955</v>
       </c>
       <c r="L111" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M111" t="s">
-        <v>532</v>
+        <v>653</v>
       </c>
       <c r="N111" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O111" t="s">
-        <v>673</v>
+        <v>794</v>
       </c>
       <c r="P111" t="s">
-        <v>813</v>
+        <v>934</v>
       </c>
       <c r="Q111">
         <v>6652721</v>
@@ -8488,49 +8846,49 @@
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>26</v>
+        <v>127</v>
       </c>
       <c r="B112" t="s">
-        <v>45</v>
+        <v>166</v>
       </c>
       <c r="C112" t="s">
-        <v>62</v>
+        <v>183</v>
       </c>
       <c r="D112" t="s">
-        <v>72</v>
+        <v>193</v>
       </c>
       <c r="E112" t="s">
-        <v>82</v>
+        <v>203</v>
       </c>
       <c r="F112" t="s">
-        <v>92</v>
+        <v>213</v>
       </c>
       <c r="G112" t="s">
-        <v>205</v>
+        <v>326</v>
       </c>
       <c r="I112" t="s">
-        <v>345</v>
+        <v>466</v>
       </c>
       <c r="J112" t="s">
-        <v>404</v>
+        <v>525</v>
       </c>
       <c r="K112">
         <v>34445</v>
       </c>
       <c r="L112" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M112" t="s">
-        <v>533</v>
+        <v>654</v>
       </c>
       <c r="N112" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O112" t="s">
-        <v>674</v>
+        <v>795</v>
       </c>
       <c r="P112" t="s">
-        <v>814</v>
+        <v>935</v>
       </c>
       <c r="Q112">
         <v>9989923</v>
@@ -8538,49 +8896,49 @@
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="B113" t="s">
-        <v>46</v>
+        <v>167</v>
       </c>
       <c r="C113" t="s">
-        <v>62</v>
+        <v>183</v>
       </c>
       <c r="D113" t="s">
-        <v>72</v>
+        <v>193</v>
       </c>
       <c r="E113" t="s">
-        <v>82</v>
+        <v>203</v>
       </c>
       <c r="F113" t="s">
-        <v>92</v>
+        <v>213</v>
       </c>
       <c r="G113" t="s">
-        <v>206</v>
+        <v>327</v>
       </c>
       <c r="I113" t="s">
-        <v>346</v>
+        <v>467</v>
       </c>
       <c r="J113" t="s">
-        <v>415</v>
+        <v>536</v>
       </c>
       <c r="K113">
         <v>17713</v>
       </c>
       <c r="L113" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M113" t="s">
-        <v>534</v>
+        <v>655</v>
       </c>
       <c r="N113" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O113" t="s">
-        <v>675</v>
+        <v>796</v>
       </c>
       <c r="P113" t="s">
-        <v>815</v>
+        <v>936</v>
       </c>
       <c r="Q113">
         <v>1643119</v>
@@ -8588,49 +8946,49 @@
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="B114" t="s">
-        <v>40</v>
+        <v>161</v>
       </c>
       <c r="C114" t="s">
-        <v>62</v>
+        <v>183</v>
       </c>
       <c r="D114" t="s">
-        <v>72</v>
+        <v>193</v>
       </c>
       <c r="E114" t="s">
-        <v>82</v>
+        <v>203</v>
       </c>
       <c r="F114" t="s">
-        <v>92</v>
+        <v>213</v>
       </c>
       <c r="G114" t="s">
-        <v>207</v>
+        <v>328</v>
       </c>
       <c r="I114" t="s">
-        <v>347</v>
+        <v>468</v>
       </c>
       <c r="J114" t="s">
-        <v>405</v>
+        <v>526</v>
       </c>
       <c r="K114">
         <v>97307</v>
       </c>
       <c r="L114" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M114" t="s">
-        <v>535</v>
+        <v>656</v>
       </c>
       <c r="N114" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O114" t="s">
-        <v>676</v>
+        <v>797</v>
       </c>
       <c r="P114" t="s">
-        <v>816</v>
+        <v>937</v>
       </c>
       <c r="Q114">
         <v>4346224</v>
@@ -8638,49 +8996,49 @@
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="B115" t="s">
-        <v>47</v>
+        <v>168</v>
       </c>
       <c r="C115" t="s">
-        <v>62</v>
+        <v>183</v>
       </c>
       <c r="D115" t="s">
-        <v>72</v>
+        <v>193</v>
       </c>
       <c r="E115" t="s">
-        <v>82</v>
+        <v>203</v>
       </c>
       <c r="F115" t="s">
-        <v>92</v>
+        <v>213</v>
       </c>
       <c r="G115" t="s">
-        <v>208</v>
+        <v>329</v>
       </c>
       <c r="I115" t="s">
-        <v>348</v>
+        <v>469</v>
       </c>
       <c r="J115" t="s">
-        <v>420</v>
+        <v>541</v>
       </c>
       <c r="K115">
         <v>12464</v>
       </c>
       <c r="L115" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M115" t="s">
-        <v>536</v>
+        <v>657</v>
       </c>
       <c r="N115" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O115" t="s">
-        <v>677</v>
+        <v>798</v>
       </c>
       <c r="P115" t="s">
-        <v>817</v>
+        <v>938</v>
       </c>
       <c r="Q115">
         <v>1060264</v>
@@ -8688,49 +9046,49 @@
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>29</v>
+        <v>131</v>
       </c>
       <c r="B116" t="s">
-        <v>48</v>
+        <v>169</v>
       </c>
       <c r="C116" t="s">
-        <v>62</v>
+        <v>183</v>
       </c>
       <c r="D116" t="s">
-        <v>72</v>
+        <v>193</v>
       </c>
       <c r="E116" t="s">
-        <v>82</v>
+        <v>203</v>
       </c>
       <c r="F116" t="s">
-        <v>92</v>
+        <v>213</v>
       </c>
       <c r="G116" t="s">
-        <v>209</v>
+        <v>330</v>
       </c>
       <c r="I116" t="s">
-        <v>349</v>
+        <v>470</v>
       </c>
       <c r="J116" t="s">
-        <v>408</v>
+        <v>529</v>
       </c>
       <c r="K116">
         <v>35211</v>
       </c>
       <c r="L116" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M116" t="s">
-        <v>537</v>
+        <v>658</v>
       </c>
       <c r="N116" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O116" t="s">
-        <v>678</v>
+        <v>799</v>
       </c>
       <c r="P116" t="s">
-        <v>818</v>
+        <v>939</v>
       </c>
       <c r="Q116">
         <v>6004565</v>
@@ -8738,49 +9096,49 @@
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>30</v>
+        <v>132</v>
       </c>
       <c r="B117" t="s">
-        <v>49</v>
+        <v>170</v>
       </c>
       <c r="C117" t="s">
-        <v>62</v>
+        <v>183</v>
       </c>
       <c r="D117" t="s">
-        <v>72</v>
+        <v>193</v>
       </c>
       <c r="E117" t="s">
-        <v>82</v>
+        <v>203</v>
       </c>
       <c r="F117" t="s">
-        <v>92</v>
+        <v>213</v>
       </c>
       <c r="G117" t="s">
-        <v>210</v>
+        <v>331</v>
       </c>
       <c r="I117" t="s">
-        <v>350</v>
+        <v>471</v>
       </c>
       <c r="J117" t="s">
-        <v>376</v>
+        <v>497</v>
       </c>
       <c r="K117">
         <v>14595</v>
       </c>
       <c r="L117" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M117" t="s">
-        <v>538</v>
+        <v>659</v>
       </c>
       <c r="N117" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O117" t="s">
-        <v>679</v>
+        <v>800</v>
       </c>
       <c r="P117" t="s">
-        <v>819</v>
+        <v>940</v>
       </c>
       <c r="Q117">
         <v>1722512</v>
@@ -8788,49 +9146,49 @@
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="B118" t="s">
-        <v>37</v>
+        <v>158</v>
       </c>
       <c r="C118" t="s">
-        <v>62</v>
+        <v>183</v>
       </c>
       <c r="D118" t="s">
-        <v>72</v>
+        <v>193</v>
       </c>
       <c r="E118" t="s">
-        <v>82</v>
+        <v>203</v>
       </c>
       <c r="F118" t="s">
-        <v>92</v>
+        <v>213</v>
       </c>
       <c r="G118" t="s">
-        <v>211</v>
+        <v>332</v>
       </c>
       <c r="I118" t="s">
-        <v>351</v>
+        <v>472</v>
       </c>
       <c r="J118" t="s">
-        <v>405</v>
+        <v>526</v>
       </c>
       <c r="K118">
         <v>79632</v>
       </c>
       <c r="L118" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M118" t="s">
-        <v>539</v>
+        <v>660</v>
       </c>
       <c r="N118" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O118" t="s">
-        <v>680</v>
+        <v>801</v>
       </c>
       <c r="P118" t="s">
-        <v>820</v>
+        <v>941</v>
       </c>
       <c r="Q118">
         <v>5344369</v>
@@ -8838,49 +9196,49 @@
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>25</v>
+        <v>134</v>
       </c>
       <c r="B119" t="s">
-        <v>44</v>
+        <v>165</v>
       </c>
       <c r="C119" t="s">
-        <v>62</v>
+        <v>183</v>
       </c>
       <c r="D119" t="s">
-        <v>72</v>
+        <v>193</v>
       </c>
       <c r="E119" t="s">
-        <v>82</v>
+        <v>203</v>
       </c>
       <c r="F119" t="s">
-        <v>92</v>
+        <v>213</v>
       </c>
       <c r="G119" t="s">
-        <v>212</v>
+        <v>333</v>
       </c>
       <c r="I119" t="s">
-        <v>352</v>
+        <v>473</v>
       </c>
       <c r="J119" t="s">
-        <v>418</v>
+        <v>539</v>
       </c>
       <c r="K119">
         <v>65749</v>
       </c>
       <c r="L119" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M119" t="s">
-        <v>540</v>
+        <v>661</v>
       </c>
       <c r="N119" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O119" t="s">
-        <v>681</v>
+        <v>802</v>
       </c>
       <c r="P119" t="s">
-        <v>821</v>
+        <v>942</v>
       </c>
       <c r="Q119">
         <v>5043265</v>
@@ -8888,49 +9246,49 @@
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>31</v>
+        <v>135</v>
       </c>
       <c r="B120" t="s">
-        <v>50</v>
+        <v>171</v>
       </c>
       <c r="C120" t="s">
-        <v>62</v>
+        <v>183</v>
       </c>
       <c r="D120" t="s">
-        <v>72</v>
+        <v>193</v>
       </c>
       <c r="E120" t="s">
-        <v>82</v>
+        <v>203</v>
       </c>
       <c r="F120" t="s">
-        <v>92</v>
+        <v>213</v>
       </c>
       <c r="G120" t="s">
-        <v>213</v>
+        <v>334</v>
       </c>
       <c r="I120" t="s">
-        <v>325</v>
+        <v>446</v>
       </c>
       <c r="J120" t="s">
-        <v>380</v>
+        <v>501</v>
       </c>
       <c r="K120">
         <v>86647</v>
       </c>
       <c r="L120" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M120" t="s">
-        <v>541</v>
+        <v>662</v>
       </c>
       <c r="N120" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O120" t="s">
-        <v>682</v>
+        <v>803</v>
       </c>
       <c r="P120" t="s">
-        <v>822</v>
+        <v>943</v>
       </c>
       <c r="Q120">
         <v>3835358</v>
@@ -8938,49 +9296,49 @@
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>34</v>
+        <v>136</v>
       </c>
       <c r="B121" t="s">
-        <v>53</v>
+        <v>174</v>
       </c>
       <c r="C121" t="s">
-        <v>62</v>
+        <v>183</v>
       </c>
       <c r="D121" t="s">
-        <v>72</v>
+        <v>193</v>
       </c>
       <c r="E121" t="s">
-        <v>82</v>
+        <v>203</v>
       </c>
       <c r="F121" t="s">
-        <v>92</v>
+        <v>213</v>
       </c>
       <c r="G121" t="s">
-        <v>214</v>
+        <v>335</v>
       </c>
       <c r="I121" t="s">
-        <v>353</v>
+        <v>474</v>
       </c>
       <c r="J121" t="s">
-        <v>413</v>
+        <v>534</v>
       </c>
       <c r="K121">
         <v>62519</v>
       </c>
       <c r="L121" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M121" t="s">
-        <v>542</v>
+        <v>663</v>
       </c>
       <c r="N121" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O121" t="s">
-        <v>683</v>
+        <v>804</v>
       </c>
       <c r="P121" t="s">
-        <v>823</v>
+        <v>944</v>
       </c>
       <c r="Q121">
         <v>5454923</v>
@@ -8988,49 +9346,49 @@
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>35</v>
+        <v>137</v>
       </c>
       <c r="B122" t="s">
-        <v>54</v>
+        <v>175</v>
       </c>
       <c r="C122" t="s">
-        <v>62</v>
+        <v>183</v>
       </c>
       <c r="D122" t="s">
-        <v>72</v>
+        <v>193</v>
       </c>
       <c r="E122" t="s">
-        <v>82</v>
+        <v>203</v>
       </c>
       <c r="F122" t="s">
-        <v>92</v>
+        <v>213</v>
       </c>
       <c r="G122" t="s">
-        <v>215</v>
+        <v>336</v>
       </c>
       <c r="I122" t="s">
-        <v>354</v>
+        <v>475</v>
       </c>
       <c r="J122" t="s">
-        <v>414</v>
+        <v>535</v>
       </c>
       <c r="K122">
         <v>67692</v>
       </c>
       <c r="L122" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M122" t="s">
-        <v>543</v>
+        <v>664</v>
       </c>
       <c r="N122" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O122" t="s">
-        <v>684</v>
+        <v>805</v>
       </c>
       <c r="P122" t="s">
-        <v>824</v>
+        <v>945</v>
       </c>
       <c r="Q122">
         <v>5931720</v>
@@ -9038,49 +9396,49 @@
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>19</v>
+        <v>138</v>
       </c>
       <c r="B123" t="s">
-        <v>38</v>
+        <v>159</v>
       </c>
       <c r="C123" t="s">
-        <v>62</v>
+        <v>183</v>
       </c>
       <c r="D123" t="s">
-        <v>72</v>
+        <v>193</v>
       </c>
       <c r="E123" t="s">
-        <v>82</v>
+        <v>203</v>
       </c>
       <c r="F123" t="s">
-        <v>92</v>
+        <v>213</v>
       </c>
       <c r="G123" t="s">
-        <v>216</v>
+        <v>337</v>
       </c>
       <c r="I123" t="s">
-        <v>355</v>
+        <v>476</v>
       </c>
       <c r="J123" t="s">
-        <v>413</v>
+        <v>534</v>
       </c>
       <c r="K123">
         <v>8046</v>
       </c>
       <c r="L123" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M123" t="s">
-        <v>544</v>
+        <v>665</v>
       </c>
       <c r="N123" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O123" t="s">
-        <v>685</v>
+        <v>806</v>
       </c>
       <c r="P123" t="s">
-        <v>825</v>
+        <v>946</v>
       </c>
       <c r="Q123">
         <v>4664261</v>
@@ -9088,49 +9446,49 @@
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>26</v>
+        <v>139</v>
       </c>
       <c r="B124" t="s">
-        <v>45</v>
+        <v>166</v>
       </c>
       <c r="C124" t="s">
-        <v>63</v>
+        <v>184</v>
       </c>
       <c r="D124" t="s">
-        <v>73</v>
+        <v>194</v>
       </c>
       <c r="E124" t="s">
-        <v>83</v>
+        <v>204</v>
       </c>
       <c r="F124" t="s">
-        <v>93</v>
+        <v>214</v>
       </c>
       <c r="G124" t="s">
-        <v>217</v>
+        <v>338</v>
       </c>
       <c r="I124" t="s">
-        <v>356</v>
+        <v>477</v>
       </c>
       <c r="J124" t="s">
-        <v>421</v>
+        <v>542</v>
       </c>
       <c r="K124">
         <v>72850</v>
       </c>
       <c r="L124" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M124" t="s">
-        <v>545</v>
+        <v>666</v>
       </c>
       <c r="N124" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O124" t="s">
-        <v>686</v>
+        <v>807</v>
       </c>
       <c r="P124" t="s">
-        <v>826</v>
+        <v>947</v>
       </c>
       <c r="Q124">
         <v>6417468</v>
@@ -9138,49 +9496,49 @@
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="B125" t="s">
-        <v>46</v>
+        <v>167</v>
       </c>
       <c r="C125" t="s">
-        <v>63</v>
+        <v>184</v>
       </c>
       <c r="D125" t="s">
-        <v>73</v>
+        <v>194</v>
       </c>
       <c r="E125" t="s">
-        <v>83</v>
+        <v>204</v>
       </c>
       <c r="F125" t="s">
-        <v>93</v>
+        <v>214</v>
       </c>
       <c r="G125" t="s">
-        <v>218</v>
+        <v>339</v>
       </c>
       <c r="I125" t="s">
-        <v>357</v>
+        <v>478</v>
       </c>
       <c r="J125" t="s">
-        <v>388</v>
+        <v>509</v>
       </c>
       <c r="K125">
         <v>10869</v>
       </c>
       <c r="L125" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M125" t="s">
-        <v>546</v>
+        <v>667</v>
       </c>
       <c r="N125" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O125" t="s">
-        <v>687</v>
+        <v>808</v>
       </c>
       <c r="P125" t="s">
-        <v>827</v>
+        <v>948</v>
       </c>
       <c r="Q125">
         <v>7926879</v>
@@ -9188,49 +9546,49 @@
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="B126" t="s">
-        <v>39</v>
+        <v>160</v>
       </c>
       <c r="C126" t="s">
-        <v>63</v>
+        <v>184</v>
       </c>
       <c r="D126" t="s">
-        <v>73</v>
+        <v>194</v>
       </c>
       <c r="E126" t="s">
-        <v>83</v>
+        <v>204</v>
       </c>
       <c r="F126" t="s">
-        <v>93</v>
+        <v>214</v>
       </c>
       <c r="G126" t="s">
-        <v>219</v>
+        <v>340</v>
       </c>
       <c r="I126" t="s">
-        <v>358</v>
+        <v>479</v>
       </c>
       <c r="J126" t="s">
-        <v>396</v>
+        <v>517</v>
       </c>
       <c r="K126">
         <v>57709</v>
       </c>
       <c r="L126" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M126" t="s">
-        <v>547</v>
+        <v>668</v>
       </c>
       <c r="N126" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O126" t="s">
-        <v>688</v>
+        <v>809</v>
       </c>
       <c r="P126" t="s">
-        <v>828</v>
+        <v>949</v>
       </c>
       <c r="Q126">
         <v>1867393</v>
@@ -9238,49 +9596,49 @@
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>21</v>
+        <v>142</v>
       </c>
       <c r="B127" t="s">
-        <v>40</v>
+        <v>161</v>
       </c>
       <c r="C127" t="s">
-        <v>63</v>
+        <v>184</v>
       </c>
       <c r="D127" t="s">
-        <v>73</v>
+        <v>194</v>
       </c>
       <c r="E127" t="s">
-        <v>83</v>
+        <v>204</v>
       </c>
       <c r="F127" t="s">
-        <v>93</v>
+        <v>214</v>
       </c>
       <c r="G127" t="s">
-        <v>220</v>
+        <v>341</v>
       </c>
       <c r="I127" t="s">
-        <v>359</v>
+        <v>480</v>
       </c>
       <c r="J127" t="s">
-        <v>378</v>
+        <v>499</v>
       </c>
       <c r="K127">
         <v>41283</v>
       </c>
       <c r="L127" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M127" t="s">
-        <v>548</v>
+        <v>669</v>
       </c>
       <c r="N127" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O127" t="s">
-        <v>689</v>
+        <v>810</v>
       </c>
       <c r="P127" t="s">
-        <v>829</v>
+        <v>950</v>
       </c>
       <c r="Q127">
         <v>2787788</v>
@@ -9288,49 +9646,49 @@
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="B128" t="s">
-        <v>47</v>
+        <v>168</v>
       </c>
       <c r="C128" t="s">
-        <v>63</v>
+        <v>184</v>
       </c>
       <c r="D128" t="s">
-        <v>73</v>
+        <v>194</v>
       </c>
       <c r="E128" t="s">
-        <v>83</v>
+        <v>204</v>
       </c>
       <c r="F128" t="s">
-        <v>93</v>
+        <v>214</v>
       </c>
       <c r="G128" t="s">
-        <v>221</v>
+        <v>342</v>
       </c>
       <c r="I128" t="s">
-        <v>360</v>
+        <v>481</v>
       </c>
       <c r="J128" t="s">
-        <v>381</v>
+        <v>502</v>
       </c>
       <c r="K128">
         <v>76557</v>
       </c>
       <c r="L128" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M128" t="s">
-        <v>549</v>
+        <v>670</v>
       </c>
       <c r="N128" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O128" t="s">
-        <v>690</v>
+        <v>811</v>
       </c>
       <c r="P128" t="s">
-        <v>830</v>
+        <v>951</v>
       </c>
       <c r="Q128">
         <v>7599284</v>
@@ -9338,49 +9696,49 @@
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>29</v>
+        <v>144</v>
       </c>
       <c r="B129" t="s">
-        <v>48</v>
+        <v>169</v>
       </c>
       <c r="C129" t="s">
-        <v>63</v>
+        <v>184</v>
       </c>
       <c r="D129" t="s">
-        <v>73</v>
+        <v>194</v>
       </c>
       <c r="E129" t="s">
-        <v>83</v>
+        <v>204</v>
       </c>
       <c r="F129" t="s">
-        <v>93</v>
+        <v>214</v>
       </c>
       <c r="G129" t="s">
-        <v>222</v>
+        <v>343</v>
       </c>
       <c r="I129" t="s">
-        <v>361</v>
+        <v>482</v>
       </c>
       <c r="J129" t="s">
-        <v>411</v>
+        <v>532</v>
       </c>
       <c r="K129">
         <v>3193</v>
       </c>
       <c r="L129" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M129" t="s">
-        <v>550</v>
+        <v>671</v>
       </c>
       <c r="N129" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O129" t="s">
-        <v>691</v>
+        <v>812</v>
       </c>
       <c r="P129" t="s">
-        <v>831</v>
+        <v>952</v>
       </c>
       <c r="Q129">
         <v>1466538</v>
@@ -9388,49 +9746,49 @@
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>30</v>
+        <v>145</v>
       </c>
       <c r="B130" t="s">
-        <v>49</v>
+        <v>170</v>
       </c>
       <c r="C130" t="s">
-        <v>63</v>
+        <v>184</v>
       </c>
       <c r="D130" t="s">
-        <v>73</v>
+        <v>194</v>
       </c>
       <c r="E130" t="s">
-        <v>83</v>
+        <v>204</v>
       </c>
       <c r="F130" t="s">
-        <v>93</v>
+        <v>214</v>
       </c>
       <c r="G130" t="s">
-        <v>223</v>
+        <v>344</v>
       </c>
       <c r="I130" t="s">
-        <v>362</v>
+        <v>483</v>
       </c>
       <c r="J130" t="s">
-        <v>409</v>
+        <v>530</v>
       </c>
       <c r="K130">
         <v>66283</v>
       </c>
       <c r="L130" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M130" t="s">
-        <v>551</v>
+        <v>672</v>
       </c>
       <c r="N130" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O130" t="s">
-        <v>692</v>
+        <v>813</v>
       </c>
       <c r="P130" t="s">
-        <v>832</v>
+        <v>953</v>
       </c>
       <c r="Q130">
         <v>4591249</v>
@@ -9438,49 +9796,49 @@
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>23</v>
+        <v>146</v>
       </c>
       <c r="B131" t="s">
-        <v>42</v>
+        <v>163</v>
       </c>
       <c r="C131" t="s">
-        <v>63</v>
+        <v>184</v>
       </c>
       <c r="D131" t="s">
-        <v>73</v>
+        <v>194</v>
       </c>
       <c r="E131" t="s">
-        <v>83</v>
+        <v>204</v>
       </c>
       <c r="F131" t="s">
-        <v>93</v>
+        <v>214</v>
       </c>
       <c r="G131" t="s">
-        <v>224</v>
+        <v>345</v>
       </c>
       <c r="I131" t="s">
-        <v>363</v>
+        <v>484</v>
       </c>
       <c r="J131" t="s">
-        <v>396</v>
+        <v>517</v>
       </c>
       <c r="K131">
         <v>66646</v>
       </c>
       <c r="L131" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M131" t="s">
-        <v>552</v>
+        <v>673</v>
       </c>
       <c r="N131" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O131" t="s">
-        <v>693</v>
+        <v>814</v>
       </c>
       <c r="P131" t="s">
-        <v>833</v>
+        <v>954</v>
       </c>
       <c r="Q131">
         <v>4522100</v>
@@ -9488,49 +9846,49 @@
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="B132" t="s">
-        <v>37</v>
+        <v>158</v>
       </c>
       <c r="C132" t="s">
-        <v>63</v>
+        <v>184</v>
       </c>
       <c r="D132" t="s">
-        <v>73</v>
+        <v>194</v>
       </c>
       <c r="E132" t="s">
-        <v>83</v>
+        <v>204</v>
       </c>
       <c r="F132" t="s">
-        <v>93</v>
+        <v>214</v>
       </c>
       <c r="G132" t="s">
-        <v>225</v>
+        <v>346</v>
       </c>
       <c r="I132" t="s">
-        <v>364</v>
+        <v>485</v>
       </c>
       <c r="J132" t="s">
-        <v>386</v>
+        <v>507</v>
       </c>
       <c r="K132">
         <v>53800</v>
       </c>
       <c r="L132" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M132" t="s">
-        <v>553</v>
+        <v>674</v>
       </c>
       <c r="N132" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O132" t="s">
-        <v>694</v>
+        <v>815</v>
       </c>
       <c r="P132" t="s">
-        <v>834</v>
+        <v>955</v>
       </c>
       <c r="Q132">
         <v>2589594</v>
@@ -9538,49 +9896,49 @@
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>31</v>
+        <v>148</v>
       </c>
       <c r="B133" t="s">
-        <v>50</v>
+        <v>171</v>
       </c>
       <c r="C133" t="s">
-        <v>63</v>
+        <v>184</v>
       </c>
       <c r="D133" t="s">
-        <v>73</v>
+        <v>194</v>
       </c>
       <c r="E133" t="s">
-        <v>83</v>
+        <v>204</v>
       </c>
       <c r="F133" t="s">
-        <v>93</v>
+        <v>214</v>
       </c>
       <c r="G133" t="s">
-        <v>226</v>
+        <v>347</v>
       </c>
       <c r="I133" t="s">
-        <v>365</v>
+        <v>486</v>
       </c>
       <c r="J133" t="s">
-        <v>374</v>
+        <v>495</v>
       </c>
       <c r="K133">
         <v>20107</v>
       </c>
       <c r="L133" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M133" t="s">
-        <v>554</v>
+        <v>675</v>
       </c>
       <c r="N133" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O133" t="s">
-        <v>695</v>
+        <v>816</v>
       </c>
       <c r="P133" t="s">
-        <v>835</v>
+        <v>956</v>
       </c>
       <c r="Q133">
         <v>8477934</v>
@@ -9588,49 +9946,49 @@
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>34</v>
+        <v>149</v>
       </c>
       <c r="B134" t="s">
-        <v>53</v>
+        <v>174</v>
       </c>
       <c r="C134" t="s">
-        <v>63</v>
+        <v>184</v>
       </c>
       <c r="D134" t="s">
-        <v>73</v>
+        <v>194</v>
       </c>
       <c r="E134" t="s">
-        <v>83</v>
+        <v>204</v>
       </c>
       <c r="F134" t="s">
-        <v>93</v>
+        <v>214</v>
       </c>
       <c r="G134" t="s">
-        <v>227</v>
+        <v>348</v>
       </c>
       <c r="I134" t="s">
-        <v>366</v>
+        <v>487</v>
       </c>
       <c r="J134" t="s">
-        <v>403</v>
+        <v>524</v>
       </c>
       <c r="K134">
         <v>66118</v>
       </c>
       <c r="L134" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M134" t="s">
-        <v>555</v>
+        <v>676</v>
       </c>
       <c r="N134" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O134" t="s">
-        <v>696</v>
+        <v>817</v>
       </c>
       <c r="P134" t="s">
-        <v>836</v>
+        <v>957</v>
       </c>
       <c r="Q134">
         <v>8381770</v>
@@ -9638,49 +9996,49 @@
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="B135" t="s">
-        <v>54</v>
+        <v>175</v>
       </c>
       <c r="C135" t="s">
-        <v>63</v>
+        <v>184</v>
       </c>
       <c r="D135" t="s">
-        <v>73</v>
+        <v>194</v>
       </c>
       <c r="E135" t="s">
-        <v>83</v>
+        <v>204</v>
       </c>
       <c r="F135" t="s">
-        <v>93</v>
+        <v>214</v>
       </c>
       <c r="G135" t="s">
-        <v>228</v>
+        <v>349</v>
       </c>
       <c r="I135" t="s">
-        <v>367</v>
+        <v>488</v>
       </c>
       <c r="J135" t="s">
-        <v>399</v>
+        <v>520</v>
       </c>
       <c r="K135">
         <v>41885</v>
       </c>
       <c r="L135" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M135" t="s">
-        <v>556</v>
+        <v>677</v>
       </c>
       <c r="N135" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O135" t="s">
-        <v>697</v>
+        <v>818</v>
       </c>
       <c r="P135" t="s">
-        <v>837</v>
+        <v>958</v>
       </c>
       <c r="Q135">
         <v>1977325</v>
@@ -9688,49 +10046,49 @@
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c r="B136" t="s">
-        <v>38</v>
+        <v>159</v>
       </c>
       <c r="C136" t="s">
-        <v>63</v>
+        <v>184</v>
       </c>
       <c r="D136" t="s">
-        <v>73</v>
+        <v>194</v>
       </c>
       <c r="E136" t="s">
-        <v>83</v>
+        <v>204</v>
       </c>
       <c r="F136" t="s">
-        <v>93</v>
+        <v>214</v>
       </c>
       <c r="G136" t="s">
-        <v>229</v>
+        <v>350</v>
       </c>
       <c r="I136" t="s">
-        <v>368</v>
+        <v>489</v>
       </c>
       <c r="J136" t="s">
-        <v>408</v>
+        <v>529</v>
       </c>
       <c r="K136">
         <v>35547</v>
       </c>
       <c r="L136" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M136" t="s">
-        <v>557</v>
+        <v>678</v>
       </c>
       <c r="N136" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O136" t="s">
-        <v>698</v>
+        <v>819</v>
       </c>
       <c r="P136" t="s">
-        <v>838</v>
+        <v>959</v>
       </c>
       <c r="Q136">
         <v>3455365</v>
@@ -9738,49 +10096,49 @@
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>32</v>
+        <v>152</v>
       </c>
       <c r="B137" t="s">
-        <v>51</v>
+        <v>172</v>
       </c>
       <c r="C137" t="s">
-        <v>63</v>
+        <v>184</v>
       </c>
       <c r="D137" t="s">
-        <v>73</v>
+        <v>194</v>
       </c>
       <c r="E137" t="s">
-        <v>83</v>
+        <v>204</v>
       </c>
       <c r="F137" t="s">
-        <v>93</v>
+        <v>214</v>
       </c>
       <c r="G137" t="s">
-        <v>230</v>
+        <v>351</v>
       </c>
       <c r="I137" t="s">
-        <v>369</v>
+        <v>490</v>
       </c>
       <c r="J137" t="s">
-        <v>410</v>
+        <v>531</v>
       </c>
       <c r="K137">
         <v>84348</v>
       </c>
       <c r="L137" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M137" t="s">
-        <v>558</v>
+        <v>679</v>
       </c>
       <c r="N137" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O137" t="s">
-        <v>699</v>
+        <v>820</v>
       </c>
       <c r="P137" t="s">
-        <v>839</v>
+        <v>960</v>
       </c>
       <c r="Q137">
         <v>946712</v>
@@ -9788,49 +10146,49 @@
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>26</v>
+        <v>153</v>
       </c>
       <c r="B138" t="s">
-        <v>45</v>
+        <v>166</v>
       </c>
       <c r="C138" t="s">
-        <v>64</v>
+        <v>185</v>
       </c>
       <c r="D138" t="s">
-        <v>74</v>
+        <v>195</v>
       </c>
       <c r="E138" t="s">
-        <v>84</v>
+        <v>205</v>
       </c>
       <c r="F138" t="s">
-        <v>94</v>
+        <v>215</v>
       </c>
       <c r="G138" t="s">
-        <v>231</v>
+        <v>352</v>
       </c>
       <c r="I138" t="s">
-        <v>370</v>
+        <v>491</v>
       </c>
       <c r="J138" t="s">
-        <v>394</v>
+        <v>515</v>
       </c>
       <c r="K138">
         <v>53191</v>
       </c>
       <c r="L138" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M138" t="s">
-        <v>559</v>
+        <v>680</v>
       </c>
       <c r="N138" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O138" t="s">
-        <v>700</v>
+        <v>821</v>
       </c>
       <c r="P138" t="s">
-        <v>840</v>
+        <v>961</v>
       </c>
       <c r="Q138">
         <v>6413046</v>
@@ -9838,49 +10196,49 @@
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>31</v>
+        <v>154</v>
       </c>
       <c r="B139" t="s">
-        <v>50</v>
+        <v>171</v>
       </c>
       <c r="C139" t="s">
-        <v>64</v>
+        <v>185</v>
       </c>
       <c r="D139" t="s">
-        <v>74</v>
+        <v>195</v>
       </c>
       <c r="E139" t="s">
-        <v>84</v>
+        <v>205</v>
       </c>
       <c r="F139" t="s">
-        <v>94</v>
+        <v>215</v>
       </c>
       <c r="G139" t="s">
-        <v>232</v>
+        <v>353</v>
       </c>
       <c r="I139" t="s">
-        <v>371</v>
+        <v>492</v>
       </c>
       <c r="J139" t="s">
-        <v>420</v>
+        <v>541</v>
       </c>
       <c r="K139">
         <v>99405</v>
       </c>
       <c r="L139" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M139" t="s">
-        <v>560</v>
+        <v>681</v>
       </c>
       <c r="N139" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O139" t="s">
-        <v>701</v>
+        <v>822</v>
       </c>
       <c r="P139" t="s">
-        <v>841</v>
+        <v>962</v>
       </c>
       <c r="Q139">
         <v>4922450</v>
@@ -9888,49 +10246,49 @@
     </row>
     <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>19</v>
+        <v>155</v>
       </c>
       <c r="B140" t="s">
-        <v>38</v>
+        <v>159</v>
       </c>
       <c r="C140" t="s">
-        <v>64</v>
+        <v>185</v>
       </c>
       <c r="D140" t="s">
-        <v>74</v>
+        <v>195</v>
       </c>
       <c r="E140" t="s">
-        <v>84</v>
+        <v>205</v>
       </c>
       <c r="F140" t="s">
-        <v>94</v>
+        <v>215</v>
       </c>
       <c r="G140" t="s">
-        <v>233</v>
+        <v>354</v>
       </c>
       <c r="I140" t="s">
-        <v>372</v>
+        <v>493</v>
       </c>
       <c r="J140" t="s">
-        <v>397</v>
+        <v>518</v>
       </c>
       <c r="K140">
         <v>57569</v>
       </c>
       <c r="L140" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M140" t="s">
-        <v>561</v>
+        <v>682</v>
       </c>
       <c r="N140" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O140" t="s">
-        <v>702</v>
+        <v>823</v>
       </c>
       <c r="P140" t="s">
-        <v>842</v>
+        <v>963</v>
       </c>
       <c r="Q140">
         <v>7841463</v>
@@ -9938,49 +10296,49 @@
     </row>
     <row r="141" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="B141" t="s">
-        <v>46</v>
+        <v>167</v>
       </c>
       <c r="C141" t="s">
-        <v>64</v>
+        <v>185</v>
       </c>
       <c r="D141" t="s">
-        <v>74</v>
+        <v>195</v>
       </c>
       <c r="E141" t="s">
-        <v>84</v>
+        <v>205</v>
       </c>
       <c r="F141" t="s">
-        <v>94</v>
+        <v>215</v>
       </c>
       <c r="G141" t="s">
-        <v>234</v>
+        <v>355</v>
       </c>
       <c r="I141" t="s">
-        <v>373</v>
+        <v>494</v>
       </c>
       <c r="J141" t="s">
-        <v>378</v>
+        <v>499</v>
       </c>
       <c r="K141">
         <v>32447</v>
       </c>
       <c r="L141" t="s">
-        <v>422</v>
+        <v>543</v>
       </c>
       <c r="M141" t="s">
-        <v>562</v>
+        <v>683</v>
       </c>
       <c r="N141" t="s">
-        <v>563</v>
+        <v>684</v>
       </c>
       <c r="O141" t="s">
-        <v>703</v>
+        <v>824</v>
       </c>
       <c r="P141" t="s">
-        <v>843</v>
+        <v>964</v>
       </c>
       <c r="Q141">
         <v>7376245</v>

--- a/modified_GP_CRM.xlsx
+++ b/modified_GP_CRM.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gpfundsolutions-my.sharepoint.com/personal/ppark_gpes_com/Documents/Desktop/doc_generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_6939A1E4FDDBC82CE72D4CAFA5292B817979CCF6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C32AD123-AAA6-48AC-A31D-E56DBA2664CE}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_6939A1E4FDDBC82CE72D4CAFA5292B817979CCF6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DA57622-8954-483B-8672-355CAFF04AFA}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Investor" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -2993,6 +2993,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>

--- a/modified_GP_CRM.xlsx
+++ b/modified_GP_CRM.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gpfundsolutions-my.sharepoint.com/personal/ppark_gpes_com/Documents/Desktop/doc_generator/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_6939A1E4FDDBC82CE72D4CAFA5292B817979CCF6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DA57622-8954-483B-8672-355CAFF04AFA}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Investor" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -73,424 +67,424 @@
     <t>Subscription</t>
   </si>
   <si>
-    <t>JoSmDePaVLP</t>
-  </si>
-  <si>
-    <t>JoSmDePaIVLP</t>
-  </si>
-  <si>
-    <t>JoSmStEqPaLP</t>
-  </si>
-  <si>
-    <t>JoSmReEsIILP</t>
-  </si>
-  <si>
-    <t>JoSmDePaVILP2</t>
-  </si>
-  <si>
-    <t>JoSmCaPaI</t>
-  </si>
-  <si>
-    <t>JoSmDePaVILP1</t>
-  </si>
-  <si>
-    <t>JoSmDePaIILP2</t>
-  </si>
-  <si>
-    <t>JoSmStEqFuIILP</t>
-  </si>
-  <si>
-    <t>JoSmGrFuVILP3</t>
-  </si>
-  <si>
-    <t>JoSmGrFuVILP2</t>
-  </si>
-  <si>
-    <t>JoSmReEsIVLP</t>
-  </si>
-  <si>
-    <t>JoSmGrFuVLP</t>
-  </si>
-  <si>
-    <t>JoSmCaPaII</t>
-  </si>
-  <si>
-    <t>JoSmMaFuI</t>
-  </si>
-  <si>
-    <t>JoSmDePaIILP1</t>
-  </si>
-  <si>
-    <t>JoSmFuPrLP</t>
-  </si>
-  <si>
-    <t>JoSmStPaIILP</t>
-  </si>
-  <si>
-    <t>JoSmGrFuVILP1</t>
-  </si>
-  <si>
-    <t>EmJoGrFuVILP3</t>
-  </si>
-  <si>
-    <t>EmJoGrFuVILP2</t>
-  </si>
-  <si>
-    <t>EmJoReEsIILP</t>
-  </si>
-  <si>
-    <t>EmJoDePaVILP2</t>
-  </si>
-  <si>
-    <t>EmJoReEsIVLP</t>
-  </si>
-  <si>
-    <t>EmJoCaPaI</t>
-  </si>
-  <si>
-    <t>EmJoDePaVLP</t>
-  </si>
-  <si>
-    <t>EmJoGrFuVLP</t>
-  </si>
-  <si>
-    <t>EmJoCaPaII</t>
-  </si>
-  <si>
-    <t>EmJoDePaVILP1</t>
-  </si>
-  <si>
-    <t>EmJoDePaIVLP</t>
-  </si>
-  <si>
-    <t>EmJoDePaIILP2</t>
-  </si>
-  <si>
-    <t>EmJoStEqFuIILP</t>
-  </si>
-  <si>
-    <t>EmJoMaFuI</t>
-  </si>
-  <si>
-    <t>EmJoStPaIILP</t>
-  </si>
-  <si>
-    <t>EmJoGrFuVILP1</t>
-  </si>
-  <si>
-    <t>EmJoStEqPaLP</t>
-  </si>
-  <si>
-    <t>EmJoDePaIILP1</t>
-  </si>
-  <si>
-    <t>MiWiGrFuVILP3</t>
-  </si>
-  <si>
-    <t>MiWiGrFuVILP2</t>
-  </si>
-  <si>
-    <t>MiWiReEsIILP</t>
-  </si>
-  <si>
-    <t>MiWiDePaVILP2</t>
-  </si>
-  <si>
-    <t>MiWiReEsIVLP</t>
-  </si>
-  <si>
-    <t>MiWiGrFuVLP</t>
-  </si>
-  <si>
-    <t>MiWiCaPaII</t>
-  </si>
-  <si>
-    <t>MiWiDePaVILP1</t>
-  </si>
-  <si>
-    <t>MiWiDePaIVLP</t>
-  </si>
-  <si>
-    <t>MiWiDePaIILP2</t>
-  </si>
-  <si>
-    <t>MiWiStEqFuIILP</t>
-  </si>
-  <si>
-    <t>MiWiMaFuI</t>
-  </si>
-  <si>
-    <t>MiWiStPaIILP</t>
-  </si>
-  <si>
-    <t>MiWiGrFuVILP1</t>
-  </si>
-  <si>
-    <t>MiWiStEqPaLP</t>
-  </si>
-  <si>
-    <t>MiWiDePaIILP1</t>
-  </si>
-  <si>
-    <t>SoBrGrFuVILP3</t>
-  </si>
-  <si>
-    <t>SoBrGrFuVILP2</t>
-  </si>
-  <si>
-    <t>SoBrReEsIILP</t>
-  </si>
-  <si>
-    <t>SoBrDePaVILP2</t>
-  </si>
-  <si>
-    <t>SoBrReEsIVLP</t>
-  </si>
-  <si>
-    <t>SoBrDePaVLP</t>
-  </si>
-  <si>
-    <t>SoBrGrFuVLP</t>
-  </si>
-  <si>
-    <t>SoBrCaPaII</t>
-  </si>
-  <si>
-    <t>SoBrDePaVILP1</t>
-  </si>
-  <si>
-    <t>SoBrDePaIVLP</t>
-  </si>
-  <si>
-    <t>SoBrDePaIILP2</t>
-  </si>
-  <si>
-    <t>SoBrStEqFuIILP</t>
-  </si>
-  <si>
-    <t>SoBrMaFuI</t>
-  </si>
-  <si>
-    <t>SoBrStPaIILP</t>
-  </si>
-  <si>
-    <t>SoBrGrFuVILP1</t>
-  </si>
-  <si>
-    <t>SoBrStEqPaLP</t>
-  </si>
-  <si>
-    <t>SoBrDePaIILP1</t>
-  </si>
-  <si>
-    <t>DaDaGrFuVILP3</t>
-  </si>
-  <si>
-    <t>DaDaGrFuVILP2</t>
-  </si>
-  <si>
-    <t>DaDaDePaVILP2</t>
-  </si>
-  <si>
-    <t>DaDaReEsIVLP</t>
-  </si>
-  <si>
-    <t>DaDaCaPaI</t>
-  </si>
-  <si>
-    <t>DaDaGrFuVLP</t>
-  </si>
-  <si>
-    <t>DaDaCaPaII</t>
-  </si>
-  <si>
-    <t>DaDaDePaVILP1</t>
-  </si>
-  <si>
-    <t>DaDaDePaIVLP</t>
-  </si>
-  <si>
-    <t>DaDaDePaIILP2</t>
-  </si>
-  <si>
-    <t>DaDaMaFuI</t>
-  </si>
-  <si>
-    <t>DaDaStPaIILP</t>
-  </si>
-  <si>
-    <t>DaDaGrFuVILP1</t>
-  </si>
-  <si>
-    <t>DaDaStEqPaLP</t>
-  </si>
-  <si>
-    <t>DaDaDePaIILP1</t>
-  </si>
-  <si>
-    <t>OlMiGrFuVILP3</t>
-  </si>
-  <si>
-    <t>OlMiGrFuVILP2</t>
-  </si>
-  <si>
-    <t>OlMiDePaVILP2</t>
-  </si>
-  <si>
-    <t>OlMiDePaVLP</t>
-  </si>
-  <si>
-    <t>OlMiCaPaI</t>
-  </si>
-  <si>
-    <t>OlMiGrFuVLP</t>
-  </si>
-  <si>
-    <t>OlMiCaPaII</t>
-  </si>
-  <si>
-    <t>OlMiDePaVILP1</t>
-  </si>
-  <si>
-    <t>OlMiDePaIVLP</t>
-  </si>
-  <si>
-    <t>OlMiMaFuI</t>
-  </si>
-  <si>
-    <t>OlMiStPaIILP</t>
-  </si>
-  <si>
-    <t>OlMiGrFuVILP1</t>
-  </si>
-  <si>
-    <t>OlMiStEqPaLP</t>
-  </si>
-  <si>
-    <t>JaWiGrFuVILP2</t>
-  </si>
-  <si>
-    <t>JaWiReEsIILP</t>
-  </si>
-  <si>
-    <t>JaWiDePaVILP2</t>
-  </si>
-  <si>
-    <t>JaWiReEsIVLP</t>
-  </si>
-  <si>
-    <t>JaWiDePaVLP</t>
-  </si>
-  <si>
-    <t>JaWiGrFuVLP</t>
-  </si>
-  <si>
-    <t>JaWiCaPaII</t>
-  </si>
-  <si>
-    <t>JaWiDePaVILP1</t>
-  </si>
-  <si>
-    <t>JaWiDePaIVLP</t>
-  </si>
-  <si>
-    <t>JaWiDePaIILP2</t>
-  </si>
-  <si>
-    <t>JaWiGrFuVILP1</t>
-  </si>
-  <si>
-    <t>JaWiDePaIILP1</t>
-  </si>
-  <si>
-    <t>IsMoGrFuVILP3</t>
-  </si>
-  <si>
-    <t>IsMoGrFuVILP2</t>
-  </si>
-  <si>
-    <t>IsMoDePaVILP2</t>
-  </si>
-  <si>
-    <t>IsMoReEsIVLP</t>
-  </si>
-  <si>
-    <t>IsMoGrFuVLP</t>
-  </si>
-  <si>
-    <t>IsMoCaPaII</t>
-  </si>
-  <si>
-    <t>IsMoDePaIVLP</t>
-  </si>
-  <si>
-    <t>IsMoStEqFuIILP</t>
-  </si>
-  <si>
-    <t>IsMoMaFuI</t>
-  </si>
-  <si>
-    <t>IsMoStPaIILP</t>
-  </si>
-  <si>
-    <t>IsMoGrFuVILP1</t>
-  </si>
-  <si>
-    <t>IsMoStEqPaLP</t>
-  </si>
-  <si>
-    <t>BeTaGrFuVILP3</t>
-  </si>
-  <si>
-    <t>BeTaGrFuVILP2</t>
-  </si>
-  <si>
-    <t>BeTaReEsIILP</t>
-  </si>
-  <si>
-    <t>BeTaDePaVILP2</t>
-  </si>
-  <si>
-    <t>BeTaReEsIVLP</t>
-  </si>
-  <si>
-    <t>BeTaGrFuVLP</t>
-  </si>
-  <si>
-    <t>BeTaCaPaII</t>
-  </si>
-  <si>
-    <t>BeTaDePaVILP1</t>
-  </si>
-  <si>
-    <t>BeTaDePaIVLP</t>
-  </si>
-  <si>
-    <t>BeTaMaFuI</t>
-  </si>
-  <si>
-    <t>BeTaStPaIILP</t>
-  </si>
-  <si>
-    <t>BeTaGrFuVILP1</t>
-  </si>
-  <si>
-    <t>BeTaStEqPaLP</t>
-  </si>
-  <si>
-    <t>BeTaDePaIILP1</t>
-  </si>
-  <si>
-    <t>AvAnGrFuVILP3</t>
-  </si>
-  <si>
-    <t>AvAnMaFuI</t>
-  </si>
-  <si>
-    <t>AvAnStEqPaLP</t>
-  </si>
-  <si>
-    <t>AvAnGrFuVILP2</t>
+    <t>JoSmAEInSBIIPaLP1</t>
+  </si>
+  <si>
+    <t>JoSmAEMePaIVLP</t>
+  </si>
+  <si>
+    <t>JoSmAEGrEqPaLP</t>
+  </si>
+  <si>
+    <t>JoSmAEMiMaDeIIGPLP</t>
+  </si>
+  <si>
+    <t>JoSmAEInSBIVPaLP</t>
+  </si>
+  <si>
+    <t>JoSmAEInPaEuL.</t>
+  </si>
+  <si>
+    <t>JoSmAEInSBIIPaLP2</t>
+  </si>
+  <si>
+    <t>JoSmAEMePaIILP2</t>
+  </si>
+  <si>
+    <t>JoSmAEInPuEqFuLP</t>
+  </si>
+  <si>
+    <t>JoSmAEInPaVILP3</t>
+  </si>
+  <si>
+    <t>JoSmAEInPaVILP2</t>
+  </si>
+  <si>
+    <t>JoSmAEMiMaDeIVGPLP</t>
+  </si>
+  <si>
+    <t>JoSmAEInPaVLP</t>
+  </si>
+  <si>
+    <t>JoSmAEInPaEFIILP</t>
+  </si>
+  <si>
+    <t>JoSmAEPaEXCFLP</t>
+  </si>
+  <si>
+    <t>JoSmAEMePaIILP1</t>
+  </si>
+  <si>
+    <t>JoSmAEGrFuGPLL</t>
+  </si>
+  <si>
+    <t>JoSmAEImPaLP</t>
+  </si>
+  <si>
+    <t>JoSmAEInPaVILP1</t>
+  </si>
+  <si>
+    <t>EmJoAEInPaVILP3</t>
+  </si>
+  <si>
+    <t>EmJoAEInPaVILP2</t>
+  </si>
+  <si>
+    <t>EmJoAEMiMaDeIIGPLP</t>
+  </si>
+  <si>
+    <t>EmJoAEInSBIVPaLP</t>
+  </si>
+  <si>
+    <t>EmJoAEMiMaDeIVGPLP</t>
+  </si>
+  <si>
+    <t>EmJoAEInPaEuL.</t>
+  </si>
+  <si>
+    <t>EmJoAEInSBIIPaLP1</t>
+  </si>
+  <si>
+    <t>EmJoAEInPaVLP</t>
+  </si>
+  <si>
+    <t>EmJoAEInPaEFIILP</t>
+  </si>
+  <si>
+    <t>EmJoAEInSBIIPaLP2</t>
+  </si>
+  <si>
+    <t>EmJoAEMePaIVLP</t>
+  </si>
+  <si>
+    <t>EmJoAEMePaIILP2</t>
+  </si>
+  <si>
+    <t>EmJoAEInPuEqFuLP</t>
+  </si>
+  <si>
+    <t>EmJoAEPaEXCFLP</t>
+  </si>
+  <si>
+    <t>EmJoAEImPaLP</t>
+  </si>
+  <si>
+    <t>EmJoAEInPaVILP1</t>
+  </si>
+  <si>
+    <t>EmJoAEGrEqPaLP</t>
+  </si>
+  <si>
+    <t>EmJoAEMePaIILP1</t>
+  </si>
+  <si>
+    <t>MiWiAEInPaVILP3</t>
+  </si>
+  <si>
+    <t>MiWiAEInPaVILP2</t>
+  </si>
+  <si>
+    <t>MiWiAEMiMaDeIIGPLP</t>
+  </si>
+  <si>
+    <t>MiWiAEInSBIVPaLP</t>
+  </si>
+  <si>
+    <t>MiWiAEMiMaDeIVGPLP</t>
+  </si>
+  <si>
+    <t>MiWiAEInPaVLP</t>
+  </si>
+  <si>
+    <t>MiWiAEInPaEFIILP</t>
+  </si>
+  <si>
+    <t>MiWiAEInSBIIPaLP2</t>
+  </si>
+  <si>
+    <t>MiWiAEMePaIVLP</t>
+  </si>
+  <si>
+    <t>MiWiAEMePaIILP2</t>
+  </si>
+  <si>
+    <t>MiWiAEInPuEqFuLP</t>
+  </si>
+  <si>
+    <t>MiWiAEPaEXCFLP</t>
+  </si>
+  <si>
+    <t>MiWiAEImPaLP</t>
+  </si>
+  <si>
+    <t>MiWiAEInPaVILP1</t>
+  </si>
+  <si>
+    <t>MiWiAEGrEqPaLP</t>
+  </si>
+  <si>
+    <t>MiWiAEMePaIILP1</t>
+  </si>
+  <si>
+    <t>SoBrAEInPaVILP3</t>
+  </si>
+  <si>
+    <t>SoBrAEInPaVILP2</t>
+  </si>
+  <si>
+    <t>SoBrAEMiMaDeIIGPLP</t>
+  </si>
+  <si>
+    <t>SoBrAEInSBIVPaLP</t>
+  </si>
+  <si>
+    <t>SoBrAEMiMaDeIVGPLP</t>
+  </si>
+  <si>
+    <t>SoBrAEInSBIIPaLP1</t>
+  </si>
+  <si>
+    <t>SoBrAEInPaVLP</t>
+  </si>
+  <si>
+    <t>SoBrAEInPaEFIILP</t>
+  </si>
+  <si>
+    <t>SoBrAEInSBIIPaLP2</t>
+  </si>
+  <si>
+    <t>SoBrAEMePaIVLP</t>
+  </si>
+  <si>
+    <t>SoBrAEMePaIILP2</t>
+  </si>
+  <si>
+    <t>SoBrAEInPuEqFuLP</t>
+  </si>
+  <si>
+    <t>SoBrAEPaEXCFLP</t>
+  </si>
+  <si>
+    <t>SoBrAEImPaLP</t>
+  </si>
+  <si>
+    <t>SoBrAEInPaVILP1</t>
+  </si>
+  <si>
+    <t>SoBrAEGrEqPaLP</t>
+  </si>
+  <si>
+    <t>SoBrAEMePaIILP1</t>
+  </si>
+  <si>
+    <t>DaDaAEInPaVILP3</t>
+  </si>
+  <si>
+    <t>DaDaAEInPaVILP2</t>
+  </si>
+  <si>
+    <t>DaDaAEInSBIVPaLP</t>
+  </si>
+  <si>
+    <t>DaDaAEMiMaDeIVGPLP</t>
+  </si>
+  <si>
+    <t>DaDaAEInPaEuL.</t>
+  </si>
+  <si>
+    <t>DaDaAEInPaVLP</t>
+  </si>
+  <si>
+    <t>DaDaAEInPaEFIILP</t>
+  </si>
+  <si>
+    <t>DaDaAEInSBIIPaLP2</t>
+  </si>
+  <si>
+    <t>DaDaAEMePaIVLP</t>
+  </si>
+  <si>
+    <t>DaDaAEMePaIILP2</t>
+  </si>
+  <si>
+    <t>DaDaAEPaEXCFLP</t>
+  </si>
+  <si>
+    <t>DaDaAEImPaLP</t>
+  </si>
+  <si>
+    <t>DaDaAEInPaVILP1</t>
+  </si>
+  <si>
+    <t>DaDaAEGrEqPaLP</t>
+  </si>
+  <si>
+    <t>DaDaAEMePaIILP1</t>
+  </si>
+  <si>
+    <t>OlMiAEInPaVILP3</t>
+  </si>
+  <si>
+    <t>OlMiAEInPaVILP2</t>
+  </si>
+  <si>
+    <t>OlMiAEInSBIVPaLP</t>
+  </si>
+  <si>
+    <t>OlMiAEInSBIIPaLP1</t>
+  </si>
+  <si>
+    <t>OlMiAEInPaEuL.</t>
+  </si>
+  <si>
+    <t>OlMiAEInPaVLP</t>
+  </si>
+  <si>
+    <t>OlMiAEInPaEFIILP</t>
+  </si>
+  <si>
+    <t>OlMiAEInSBIIPaLP2</t>
+  </si>
+  <si>
+    <t>OlMiAEMePaIVLP</t>
+  </si>
+  <si>
+    <t>OlMiAEPaEXCFLP</t>
+  </si>
+  <si>
+    <t>OlMiAEImPaLP</t>
+  </si>
+  <si>
+    <t>OlMiAEInPaVILP1</t>
+  </si>
+  <si>
+    <t>OlMiAEGrEqPaLP</t>
+  </si>
+  <si>
+    <t>JaWiAEInPaVILP2</t>
+  </si>
+  <si>
+    <t>JaWiAEMiMaDeIIGPLP</t>
+  </si>
+  <si>
+    <t>JaWiAEInSBIVPaLP</t>
+  </si>
+  <si>
+    <t>JaWiAEMiMaDeIVGPLP</t>
+  </si>
+  <si>
+    <t>JaWiAEInSBIIPaLP1</t>
+  </si>
+  <si>
+    <t>JaWiAEInPaVLP</t>
+  </si>
+  <si>
+    <t>JaWiAEInPaEFIILP</t>
+  </si>
+  <si>
+    <t>JaWiAEInSBIIPaLP2</t>
+  </si>
+  <si>
+    <t>JaWiAEMePaIVLP</t>
+  </si>
+  <si>
+    <t>JaWiAEMePaIILP2</t>
+  </si>
+  <si>
+    <t>JaWiAEInPaVILP1</t>
+  </si>
+  <si>
+    <t>JaWiAEMePaIILP1</t>
+  </si>
+  <si>
+    <t>IsMoAEInPaVILP3</t>
+  </si>
+  <si>
+    <t>IsMoAEInPaVILP2</t>
+  </si>
+  <si>
+    <t>IsMoAEInSBIVPaLP</t>
+  </si>
+  <si>
+    <t>IsMoAEMiMaDeIVGPLP</t>
+  </si>
+  <si>
+    <t>IsMoAEInPaVLP</t>
+  </si>
+  <si>
+    <t>IsMoAEInPaEFIILP</t>
+  </si>
+  <si>
+    <t>IsMoAEMePaIVLP</t>
+  </si>
+  <si>
+    <t>IsMoAEInPuEqFuLP</t>
+  </si>
+  <si>
+    <t>IsMoAEPaEXCFLP</t>
+  </si>
+  <si>
+    <t>IsMoAEImPaLP</t>
+  </si>
+  <si>
+    <t>IsMoAEInPaVILP1</t>
+  </si>
+  <si>
+    <t>IsMoAEGrEqPaLP</t>
+  </si>
+  <si>
+    <t>BeTaAEInPaVILP3</t>
+  </si>
+  <si>
+    <t>BeTaAEInPaVILP2</t>
+  </si>
+  <si>
+    <t>BeTaAEMiMaDeIIGPLP</t>
+  </si>
+  <si>
+    <t>BeTaAEInSBIVPaLP</t>
+  </si>
+  <si>
+    <t>BeTaAEMiMaDeIVGPLP</t>
+  </si>
+  <si>
+    <t>BeTaAEInPaVLP</t>
+  </si>
+  <si>
+    <t>BeTaAEInPaEFIILP</t>
+  </si>
+  <si>
+    <t>BeTaAEInSBIIPaLP2</t>
+  </si>
+  <si>
+    <t>BeTaAEMePaIVLP</t>
+  </si>
+  <si>
+    <t>BeTaAEPaEXCFLP</t>
+  </si>
+  <si>
+    <t>BeTaAEImPaLP</t>
+  </si>
+  <si>
+    <t>BeTaAEInPaVILP1</t>
+  </si>
+  <si>
+    <t>BeTaAEGrEqPaLP</t>
+  </si>
+  <si>
+    <t>BeTaAEMePaIILP1</t>
+  </si>
+  <si>
+    <t>AvAnAEInPaVILP3</t>
+  </si>
+  <si>
+    <t>AvAnAEPaEXCFLP</t>
+  </si>
+  <si>
+    <t>AvAnAEGrEqPaLP</t>
+  </si>
+  <si>
+    <t>AvAnAEInPaVILP2</t>
   </si>
   <si>
     <t>Debt Partners V LP</t>
@@ -2920,8 +2914,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2984,25 +2978,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3040,7 +3022,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -3074,7 +3056,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3109,10 +3090,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3285,17 +3265,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3348,7 +3325,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -3398,7 +3375,7 @@
         <v>1217635</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -3448,7 +3425,7 @@
         <v>6035657</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -3498,7 +3475,7 @@
         <v>5060313</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -3548,7 +3525,7 @@
         <v>4765412</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -3598,7 +3575,7 @@
         <v>7493499</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -3648,7 +3625,7 @@
         <v>9033516</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -3698,7 +3675,7 @@
         <v>3225166</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -3748,7 +3725,7 @@
         <v>9500136</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -3798,7 +3775,7 @@
         <v>2758032</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -3848,7 +3825,7 @@
         <v>4170345</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -3898,7 +3875,7 @@
         <v>4785905</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -3948,7 +3925,7 @@
         <v>6294720</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -3998,7 +3975,7 @@
         <v>9508504</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -4048,7 +4025,7 @@
         <v>8863167</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -4098,7 +4075,7 @@
         <v>9811990</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -4148,7 +4125,7 @@
         <v>6918590</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -4198,7 +4175,7 @@
         <v>5640012</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -4248,7 +4225,7 @@
         <v>5736006</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -4298,7 +4275,7 @@
         <v>9239268</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -4348,7 +4325,7 @@
         <v>9345131</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -4398,7 +4375,7 @@
         <v>3463411</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -4448,7 +4425,7 @@
         <v>5589321</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -4498,7 +4475,7 @@
         <v>5157498</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -4548,7 +4525,7 @@
         <v>3094563</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -4598,7 +4575,7 @@
         <v>4815907</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17">
       <c r="A27" t="s">
         <v>42</v>
       </c>
@@ -4648,7 +4625,7 @@
         <v>7097959</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17">
       <c r="A28" t="s">
         <v>43</v>
       </c>
@@ -4698,7 +4675,7 @@
         <v>609872</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -4748,7 +4725,7 @@
         <v>5500226</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -4798,7 +4775,7 @@
         <v>4450038</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -4848,7 +4825,7 @@
         <v>4876775</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17">
       <c r="A32" t="s">
         <v>47</v>
       </c>
@@ -4898,7 +4875,7 @@
         <v>6118243</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17">
       <c r="A33" t="s">
         <v>48</v>
       </c>
@@ -4948,7 +4925,7 @@
         <v>1277826</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17">
       <c r="A34" t="s">
         <v>49</v>
       </c>
@@ -4998,7 +4975,7 @@
         <v>7060303</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17">
       <c r="A35" t="s">
         <v>50</v>
       </c>
@@ -5048,7 +5025,7 @@
         <v>3521872</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17">
       <c r="A36" t="s">
         <v>51</v>
       </c>
@@ -5098,7 +5075,7 @@
         <v>2662963</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17">
       <c r="A37" t="s">
         <v>52</v>
       </c>
@@ -5148,7 +5125,7 @@
         <v>9085497</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17">
       <c r="A38" t="s">
         <v>53</v>
       </c>
@@ -5198,7 +5175,7 @@
         <v>3490282</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17">
       <c r="A39" t="s">
         <v>54</v>
       </c>
@@ -5248,7 +5225,7 @@
         <v>5703304</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17">
       <c r="A40" t="s">
         <v>55</v>
       </c>
@@ -5298,7 +5275,7 @@
         <v>5826041</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17">
       <c r="A41" t="s">
         <v>56</v>
       </c>
@@ -5348,7 +5325,7 @@
         <v>2659334</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17">
       <c r="A42" t="s">
         <v>57</v>
       </c>
@@ -5398,7 +5375,7 @@
         <v>5378334</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17">
       <c r="A43" t="s">
         <v>58</v>
       </c>
@@ -5448,7 +5425,7 @@
         <v>2476571</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17">
       <c r="A44" t="s">
         <v>59</v>
       </c>
@@ -5498,7 +5475,7 @@
         <v>9266963</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17">
       <c r="A45" t="s">
         <v>60</v>
       </c>
@@ -5548,7 +5525,7 @@
         <v>1830673</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17">
       <c r="A46" t="s">
         <v>61</v>
       </c>
@@ -5598,7 +5575,7 @@
         <v>5506241</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17">
       <c r="A47" t="s">
         <v>62</v>
       </c>
@@ -5648,7 +5625,7 @@
         <v>1093609</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17">
       <c r="A48" t="s">
         <v>63</v>
       </c>
@@ -5698,7 +5675,7 @@
         <v>5447579</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17">
       <c r="A49" t="s">
         <v>64</v>
       </c>
@@ -5748,7 +5725,7 @@
         <v>9531374</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17">
       <c r="A50" t="s">
         <v>65</v>
       </c>
@@ -5798,7 +5775,7 @@
         <v>5520166</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17">
       <c r="A51" t="s">
         <v>66</v>
       </c>
@@ -5848,7 +5825,7 @@
         <v>1215964</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17">
       <c r="A52" t="s">
         <v>67</v>
       </c>
@@ -5898,7 +5875,7 @@
         <v>4532786</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17">
       <c r="A53" t="s">
         <v>68</v>
       </c>
@@ -5948,7 +5925,7 @@
         <v>4498202</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17">
       <c r="A54" t="s">
         <v>69</v>
       </c>
@@ -5998,7 +5975,7 @@
         <v>7081126</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17">
       <c r="A55" t="s">
         <v>70</v>
       </c>
@@ -6048,7 +6025,7 @@
         <v>3981402</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17">
       <c r="A56" t="s">
         <v>71</v>
       </c>
@@ -6098,7 +6075,7 @@
         <v>7861725</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17">
       <c r="A57" t="s">
         <v>72</v>
       </c>
@@ -6148,7 +6125,7 @@
         <v>8722789</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17">
       <c r="A58" t="s">
         <v>73</v>
       </c>
@@ -6198,7 +6175,7 @@
         <v>8195787</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17">
       <c r="A59" t="s">
         <v>74</v>
       </c>
@@ -6248,7 +6225,7 @@
         <v>5390682</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17">
       <c r="A60" t="s">
         <v>75</v>
       </c>
@@ -6298,7 +6275,7 @@
         <v>9698527</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17">
       <c r="A61" t="s">
         <v>76</v>
       </c>
@@ -6348,7 +6325,7 @@
         <v>5229439</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17">
       <c r="A62" t="s">
         <v>77</v>
       </c>
@@ -6398,7 +6375,7 @@
         <v>4195044</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17">
       <c r="A63" t="s">
         <v>78</v>
       </c>
@@ -6448,7 +6425,7 @@
         <v>9610928</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17">
       <c r="A64" t="s">
         <v>79</v>
       </c>
@@ -6498,7 +6475,7 @@
         <v>3342078</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17">
       <c r="A65" t="s">
         <v>80</v>
       </c>
@@ -6548,7 +6525,7 @@
         <v>4901850</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17">
       <c r="A66" t="s">
         <v>81</v>
       </c>
@@ -6598,7 +6575,7 @@
         <v>1983135</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17">
       <c r="A67" t="s">
         <v>82</v>
       </c>
@@ -6648,7 +6625,7 @@
         <v>1256943</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17">
       <c r="A68" t="s">
         <v>83</v>
       </c>
@@ -6698,7 +6675,7 @@
         <v>6462929</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17">
       <c r="A69" t="s">
         <v>84</v>
       </c>
@@ -6748,7 +6725,7 @@
         <v>6482755</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17">
       <c r="A70" t="s">
         <v>85</v>
       </c>
@@ -6798,7 +6775,7 @@
         <v>7829708</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17">
       <c r="A71" t="s">
         <v>86</v>
       </c>
@@ -6848,7 +6825,7 @@
         <v>9924658</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17">
       <c r="A72" t="s">
         <v>87</v>
       </c>
@@ -6898,7 +6875,7 @@
         <v>6795525</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17">
       <c r="A73" t="s">
         <v>88</v>
       </c>
@@ -6948,7 +6925,7 @@
         <v>6677157</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17">
       <c r="A74" t="s">
         <v>89</v>
       </c>
@@ -6998,7 +6975,7 @@
         <v>9664143</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17">
       <c r="A75" t="s">
         <v>90</v>
       </c>
@@ -7048,7 +7025,7 @@
         <v>7109069</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17">
       <c r="A76" t="s">
         <v>91</v>
       </c>
@@ -7098,7 +7075,7 @@
         <v>6303316</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17">
       <c r="A77" t="s">
         <v>92</v>
       </c>
@@ -7148,7 +7125,7 @@
         <v>4387656</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17">
       <c r="A78" t="s">
         <v>93</v>
       </c>
@@ -7198,7 +7175,7 @@
         <v>8648415</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17">
       <c r="A79" t="s">
         <v>94</v>
       </c>
@@ -7248,7 +7225,7 @@
         <v>5562057</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17">
       <c r="A80" t="s">
         <v>95</v>
       </c>
@@ -7298,7 +7275,7 @@
         <v>9277705</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17">
       <c r="A81" t="s">
         <v>96</v>
       </c>
@@ -7348,7 +7325,7 @@
         <v>1337425</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17">
       <c r="A82" t="s">
         <v>97</v>
       </c>
@@ -7398,7 +7375,7 @@
         <v>3117005</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17">
       <c r="A83" t="s">
         <v>98</v>
       </c>
@@ -7448,7 +7425,7 @@
         <v>8654521</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17">
       <c r="A84" t="s">
         <v>99</v>
       </c>
@@ -7498,7 +7475,7 @@
         <v>3113093</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17">
       <c r="A85" t="s">
         <v>100</v>
       </c>
@@ -7548,7 +7525,7 @@
         <v>1651378</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17">
       <c r="A86" t="s">
         <v>101</v>
       </c>
@@ -7598,7 +7575,7 @@
         <v>3700128</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17">
       <c r="A87" t="s">
         <v>102</v>
       </c>
@@ -7648,7 +7625,7 @@
         <v>8141586</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17">
       <c r="A88" t="s">
         <v>103</v>
       </c>
@@ -7698,7 +7675,7 @@
         <v>9074742</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17">
       <c r="A89" t="s">
         <v>104</v>
       </c>
@@ -7748,7 +7725,7 @@
         <v>5440337</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17">
       <c r="A90" t="s">
         <v>105</v>
       </c>
@@ -7798,7 +7775,7 @@
         <v>5632193</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17">
       <c r="A91" t="s">
         <v>106</v>
       </c>
@@ -7848,7 +7825,7 @@
         <v>4259961</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17">
       <c r="A92" t="s">
         <v>107</v>
       </c>
@@ -7898,7 +7875,7 @@
         <v>9092093</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17">
       <c r="A93" t="s">
         <v>108</v>
       </c>
@@ -7948,7 +7925,7 @@
         <v>8145419</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17">
       <c r="A94" t="s">
         <v>109</v>
       </c>
@@ -7998,7 +7975,7 @@
         <v>5174627</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17">
       <c r="A95" t="s">
         <v>110</v>
       </c>
@@ -8048,7 +8025,7 @@
         <v>1136326</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17">
       <c r="A96" t="s">
         <v>111</v>
       </c>
@@ -8098,7 +8075,7 @@
         <v>1154627</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17">
       <c r="A97" t="s">
         <v>112</v>
       </c>
@@ -8148,7 +8125,7 @@
         <v>1399553</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:17">
       <c r="A98" t="s">
         <v>113</v>
       </c>
@@ -8198,7 +8175,7 @@
         <v>3004036</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17">
       <c r="A99" t="s">
         <v>114</v>
       </c>
@@ -8248,7 +8225,7 @@
         <v>5703582</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17">
       <c r="A100" t="s">
         <v>115</v>
       </c>
@@ -8298,7 +8275,7 @@
         <v>1839401</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17">
       <c r="A101" t="s">
         <v>116</v>
       </c>
@@ -8348,7 +8325,7 @@
         <v>1156704</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17">
       <c r="A102" t="s">
         <v>117</v>
       </c>
@@ -8398,7 +8375,7 @@
         <v>4681780</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:17">
       <c r="A103" t="s">
         <v>118</v>
       </c>
@@ -8448,7 +8425,7 @@
         <v>2912881</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:17">
       <c r="A104" t="s">
         <v>119</v>
       </c>
@@ -8498,7 +8475,7 @@
         <v>1621428</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:17">
       <c r="A105" t="s">
         <v>120</v>
       </c>
@@ -8548,7 +8525,7 @@
         <v>7657981</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:17">
       <c r="A106" t="s">
         <v>121</v>
       </c>
@@ -8598,7 +8575,7 @@
         <v>9901750</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:17">
       <c r="A107" t="s">
         <v>122</v>
       </c>
@@ -8648,7 +8625,7 @@
         <v>9270399</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:17">
       <c r="A108" t="s">
         <v>123</v>
       </c>
@@ -8698,7 +8675,7 @@
         <v>9465870</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:17">
       <c r="A109" t="s">
         <v>124</v>
       </c>
@@ -8748,7 +8725,7 @@
         <v>1809180</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:17">
       <c r="A110" t="s">
         <v>125</v>
       </c>
@@ -8798,7 +8775,7 @@
         <v>5946956</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:17">
       <c r="A111" t="s">
         <v>126</v>
       </c>
@@ -8848,7 +8825,7 @@
         <v>6652721</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:17">
       <c r="A112" t="s">
         <v>127</v>
       </c>
@@ -8898,7 +8875,7 @@
         <v>9989923</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:17">
       <c r="A113" t="s">
         <v>128</v>
       </c>
@@ -8948,7 +8925,7 @@
         <v>1643119</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:17">
       <c r="A114" t="s">
         <v>129</v>
       </c>
@@ -8998,7 +8975,7 @@
         <v>4346224</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:17">
       <c r="A115" t="s">
         <v>130</v>
       </c>
@@ -9048,7 +9025,7 @@
         <v>1060264</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:17">
       <c r="A116" t="s">
         <v>131</v>
       </c>
@@ -9098,7 +9075,7 @@
         <v>6004565</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:17">
       <c r="A117" t="s">
         <v>132</v>
       </c>
@@ -9148,7 +9125,7 @@
         <v>1722512</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:17">
       <c r="A118" t="s">
         <v>133</v>
       </c>
@@ -9198,7 +9175,7 @@
         <v>5344369</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:17">
       <c r="A119" t="s">
         <v>134</v>
       </c>
@@ -9248,7 +9225,7 @@
         <v>5043265</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:17">
       <c r="A120" t="s">
         <v>135</v>
       </c>
@@ -9298,7 +9275,7 @@
         <v>3835358</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:17">
       <c r="A121" t="s">
         <v>136</v>
       </c>
@@ -9348,7 +9325,7 @@
         <v>5454923</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:17">
       <c r="A122" t="s">
         <v>137</v>
       </c>
@@ -9398,7 +9375,7 @@
         <v>5931720</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:17">
       <c r="A123" t="s">
         <v>138</v>
       </c>
@@ -9448,7 +9425,7 @@
         <v>4664261</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:17">
       <c r="A124" t="s">
         <v>139</v>
       </c>
@@ -9498,7 +9475,7 @@
         <v>6417468</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:17">
       <c r="A125" t="s">
         <v>140</v>
       </c>
@@ -9548,7 +9525,7 @@
         <v>7926879</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:17">
       <c r="A126" t="s">
         <v>141</v>
       </c>
@@ -9598,7 +9575,7 @@
         <v>1867393</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:17">
       <c r="A127" t="s">
         <v>142</v>
       </c>
@@ -9648,7 +9625,7 @@
         <v>2787788</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:17">
       <c r="A128" t="s">
         <v>143</v>
       </c>
@@ -9698,7 +9675,7 @@
         <v>7599284</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:17">
       <c r="A129" t="s">
         <v>144</v>
       </c>
@@ -9748,7 +9725,7 @@
         <v>1466538</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:17">
       <c r="A130" t="s">
         <v>145</v>
       </c>
@@ -9798,7 +9775,7 @@
         <v>4591249</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:17">
       <c r="A131" t="s">
         <v>146</v>
       </c>
@@ -9848,7 +9825,7 @@
         <v>4522100</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:17">
       <c r="A132" t="s">
         <v>147</v>
       </c>
@@ -9898,7 +9875,7 @@
         <v>2589594</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:17">
       <c r="A133" t="s">
         <v>148</v>
       </c>
@@ -9948,7 +9925,7 @@
         <v>8477934</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:17">
       <c r="A134" t="s">
         <v>149</v>
       </c>
@@ -9998,7 +9975,7 @@
         <v>8381770</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:17">
       <c r="A135" t="s">
         <v>150</v>
       </c>
@@ -10048,7 +10025,7 @@
         <v>1977325</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:17">
       <c r="A136" t="s">
         <v>151</v>
       </c>
@@ -10098,7 +10075,7 @@
         <v>3455365</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:17">
       <c r="A137" t="s">
         <v>152</v>
       </c>
@@ -10148,7 +10125,7 @@
         <v>946712</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:17">
       <c r="A138" t="s">
         <v>153</v>
       </c>
@@ -10198,7 +10175,7 @@
         <v>6413046</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:17">
       <c r="A139" t="s">
         <v>154</v>
       </c>
@@ -10248,7 +10225,7 @@
         <v>4922450</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:17">
       <c r="A140" t="s">
         <v>155</v>
       </c>
@@ -10298,7 +10275,7 @@
         <v>7841463</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:17">
       <c r="A141" t="s">
         <v>156</v>
       </c>
